--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_100.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_100.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32596-d78441-Reviews-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Candlewood-Suites-Irvine-East.h84478.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_100.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1269 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r552361898-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>32596</t>
+  </si>
+  <si>
+    <t>78441</t>
+  </si>
+  <si>
+    <t>552361898</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Bad customer service</t>
+  </si>
+  <si>
+    <t>I arrived to the hotel around 9pm from Boston, no one was at the desk after several hello finally came out. Small lobby and with a weird smell. When I arrive Mike Tawfik couldn't found my reservation after asking me for my name several times. I had had ask him for a Bank of America to go to he said its 10 min from here. After a long flights I was really exhausted so I told him I am here for 2 nights lets me pay cash for event for 3 nights so tomorrow morning after resting so that I can go to the bank because my card has been compromised. With an attitude he said that I should have know about my card before came in to the hotel. I ask him to contact his GM to explain him what is going on "he said I will send him a message and of course not sure what he had told him" I never get a chance to speak with the GM.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>I arrived to the hotel around 9pm from Boston, no one was at the desk after several hello finally came out. Small lobby and with a weird smell. When I arrive Mike Tawfik couldn't found my reservation after asking me for my name several times. I had had ask him for a Bank of America to go to he said its 10 min from here. After a long flights I was really exhausted so I told him I am here for 2 nights lets me pay cash for event for 3 nights so tomorrow morning after resting so that I can go to the bank because my card has been compromised. With an attitude he said that I should have know about my card before came in to the hotel. I ask him to contact his GM to explain him what is going on "he said I will send him a message and of course not sure what he had told him" I never get a chance to speak with the GM.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r547981987-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>547981987</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>They are thieves</t>
+  </si>
+  <si>
+    <t>This used to be my go to place for a room. I really liked the hotel staff and the rooms. I only had 2 problems with the rooms but they always handled it professionally and fixed the problem. I usually stay at the Irvine east or garden grove hotel. Both outstanding 
+But not this time at the Irvine east hotel. I'll start from the beginning and this maybe long.
+So on November 29th I made an online reservation to candlewood suites Irvine east hotel for December 9th for one night. Then on December 8th I called candlewood Irvine east hotel I needed a room for the night as well as December 9th so need 2 nights. Just add another night to my existing reservations. Not a big deal I didn't think. They said ok great and  set me up for the night and for tomorrow. I got an email confirmation for another night. It showed only one night on the confirmation. So I now have 2 confirmations one for December 8th and the 9th.
+I check in 3 hours later and the guy didn't know anything about the reservation I made that night for the 8th but he set me up for the night as well as the next day so I got 2 nights and they charged me for 2 nights which is fine.
+Then on the morning of the day I suppose to check out on the 10th...This used to be my go to place for a room. I really liked the hotel staff and the rooms. I only had 2 problems with the rooms but they always handled it professionally and fixed the problem. I usually stay at the Irvine east or garden grove hotel. Both outstanding But not this time at the Irvine east hotel. I'll start from the beginning and this maybe long.So on November 29th I made an online reservation to candlewood suites Irvine east hotel for December 9th for one night. Then on December 8th I called candlewood Irvine east hotel I needed a room for the night as well as December 9th so need 2 nights. Just add another night to my existing reservations. Not a big deal I didn't think. They said ok great and  set me up for the night and for tomorrow. I got an email confirmation for another night. It showed only one night on the confirmation. So I now have 2 confirmations one for December 8th and the 9th.I check in 3 hours later and the guy didn't know anything about the reservation I made that night for the 8th but he set me up for the night as well as the next day so I got 2 nights and they charged me for 2 nights which is fine.Then on the morning of the day I suppose to check out on the 10th I see I was charged another night on the same night I already was charged. So they obviously charged me for 2 rooms and one room was for 2 nights and one for one night. I did not ask for 2 rooms. I explained it clearly over the phone and when I checked in that I wanted an extra day added to my reservation.So I go check out and explain it to a black guy that works at the front desk that I was charged for 3 nights but I only stayed 2 nights and told him I wanted to add an extra night to reservation. I explained it in full detail on what I wanted and told him that he is the 3rd person here I talked to and explained what I wanted yet still get charged 3 nights when I only stayed 2 nights.The guy was nice and told me no worries that in a couple days that it will be fixed. I said thanks and left. So I waited about 3 days and see that my bank account was officially charged for 3 nights. So the guy was wrong that it would be fixed.I chatted to the main center of candlewood and explained it to them and they told me to call the hotel I was at. So I went back to candlewood and told the person at the desk and the manager there. At least I think he was the manager. But I explained to them the problem and he told me that I can not change an online reservation. And I said I didn't really change it I just wanted 2 nights in the same room. I didn't want to have to move to another room so I wanted another reservation to the same room. That really isn't changing it so not sure what he means. I still wanted the original reservations. How is that changing it. Simply ad another night and another price if needed. It isn't rocket science. So he tells me I should of told them the next morning that I want another day. That makes no sense if I already have reservations for the 9th why would I go in and tell them I'm staying another night? So I get charged 4 nights when I stay only 2 nights. He tells me he is giving me free education on how the the system works about changing online reservations. Think he needs to educate the staff there. They are the ones to agree on adding another night for me.Anyway he told me in the end that since I was unaware of the policy that he will reimburse my money back for one night. 5 days later I yet to see candlewood reimburse me. Wasn't even my mistake. It was the staff at candlewood. But whatever. I guess you aren't allowed to add more nights to your online reservation. I just wanted to keep the same room and have another night but guess it's against some lame policy you can't.Because they stole money out of my account and charged me for 3 nights when I only stayed 2 nights and charged me $50 for a deposit when I checked in and charged me another $50 deposit the next day including the extra room charge of $91 my car payment could not go through my bank account and a result I was charged $35 return check. I had exact amount I needed for my car payment if candlewood didn't steal money from my account. I will never go to a candlewood again or any place associated with them. I used to love going to candlewood and they been the only hotel I go to but not anymore. Unless they comp me a night for any room in the future or reimburse me the money they owe me which is 91 plus 35 then I'll never enter their establishment again and I will never recommend them but if they fix this of course I'll update this and give them 5 stars but I don't see it happening.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>This used to be my go to place for a room. I really liked the hotel staff and the rooms. I only had 2 problems with the rooms but they always handled it professionally and fixed the problem. I usually stay at the Irvine east or garden grove hotel. Both outstanding 
+But not this time at the Irvine east hotel. I'll start from the beginning and this maybe long.
+So on November 29th I made an online reservation to candlewood suites Irvine east hotel for December 9th for one night. Then on December 8th I called candlewood Irvine east hotel I needed a room for the night as well as December 9th so need 2 nights. Just add another night to my existing reservations. Not a big deal I didn't think. They said ok great and  set me up for the night and for tomorrow. I got an email confirmation for another night. It showed only one night on the confirmation. So I now have 2 confirmations one for December 8th and the 9th.
+I check in 3 hours later and the guy didn't know anything about the reservation I made that night for the 8th but he set me up for the night as well as the next day so I got 2 nights and they charged me for 2 nights which is fine.
+Then on the morning of the day I suppose to check out on the 10th...This used to be my go to place for a room. I really liked the hotel staff and the rooms. I only had 2 problems with the rooms but they always handled it professionally and fixed the problem. I usually stay at the Irvine east or garden grove hotel. Both outstanding But not this time at the Irvine east hotel. I'll start from the beginning and this maybe long.So on November 29th I made an online reservation to candlewood suites Irvine east hotel for December 9th for one night. Then on December 8th I called candlewood Irvine east hotel I needed a room for the night as well as December 9th so need 2 nights. Just add another night to my existing reservations. Not a big deal I didn't think. They said ok great and  set me up for the night and for tomorrow. I got an email confirmation for another night. It showed only one night on the confirmation. So I now have 2 confirmations one for December 8th and the 9th.I check in 3 hours later and the guy didn't know anything about the reservation I made that night for the 8th but he set me up for the night as well as the next day so I got 2 nights and they charged me for 2 nights which is fine.Then on the morning of the day I suppose to check out on the 10th I see I was charged another night on the same night I already was charged. So they obviously charged me for 2 rooms and one room was for 2 nights and one for one night. I did not ask for 2 rooms. I explained it clearly over the phone and when I checked in that I wanted an extra day added to my reservation.So I go check out and explain it to a black guy that works at the front desk that I was charged for 3 nights but I only stayed 2 nights and told him I wanted to add an extra night to reservation. I explained it in full detail on what I wanted and told him that he is the 3rd person here I talked to and explained what I wanted yet still get charged 3 nights when I only stayed 2 nights.The guy was nice and told me no worries that in a couple days that it will be fixed. I said thanks and left. So I waited about 3 days and see that my bank account was officially charged for 3 nights. So the guy was wrong that it would be fixed.I chatted to the main center of candlewood and explained it to them and they told me to call the hotel I was at. So I went back to candlewood and told the person at the desk and the manager there. At least I think he was the manager. But I explained to them the problem and he told me that I can not change an online reservation. And I said I didn't really change it I just wanted 2 nights in the same room. I didn't want to have to move to another room so I wanted another reservation to the same room. That really isn't changing it so not sure what he means. I still wanted the original reservations. How is that changing it. Simply ad another night and another price if needed. It isn't rocket science. So he tells me I should of told them the next morning that I want another day. That makes no sense if I already have reservations for the 9th why would I go in and tell them I'm staying another night? So I get charged 4 nights when I stay only 2 nights. He tells me he is giving me free education on how the the system works about changing online reservations. Think he needs to educate the staff there. They are the ones to agree on adding another night for me.Anyway he told me in the end that since I was unaware of the policy that he will reimburse my money back for one night. 5 days later I yet to see candlewood reimburse me. Wasn't even my mistake. It was the staff at candlewood. But whatever. I guess you aren't allowed to add more nights to your online reservation. I just wanted to keep the same room and have another night but guess it's against some lame policy you can't.Because they stole money out of my account and charged me for 3 nights when I only stayed 2 nights and charged me $50 for a deposit when I checked in and charged me another $50 deposit the next day including the extra room charge of $91 my car payment could not go through my bank account and a result I was charged $35 return check. I had exact amount I needed for my car payment if candlewood didn't steal money from my account. I will never go to a candlewood again or any place associated with them. I used to love going to candlewood and they been the only hotel I go to but not anymore. Unless they comp me a night for any room in the future or reimburse me the money they owe me which is 91 plus 35 then I'll never enter their establishment again and I will never recommend them but if they fix this of course I'll update this and give them 5 stars but I don't see it happening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r530039171-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>530039171</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Decent enough hotel.</t>
+  </si>
+  <si>
+    <t>Candlewood is a extended stay type of hotel. We only stayed for two nights, but that's OK with them. It's in a quiet location off the main street and same ways away from the main freeways. But close to local businesses, shopping, and entertainment. The first thing that is noticeable is the lobby area could use some modernizing. It reminds me of a hospitals nurses station. But the staff was super friendly. the rooms offer a large office style desk, a refrigerator/freezer, microwave, dishwasher, assorted pots, pans, dishware and utilizes. If you need a small appliance, them have them for loan. The box spring mattress in our room was shot, but the staff said the foam mattress are new. And like most hotels with refrigerators, it was a little noisy. And finally!! A maintenance staff the knows how the adjust the door closer so they don't slam!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Candlewood is a extended stay type of hotel. We only stayed for two nights, but that's OK with them. It's in a quiet location off the main street and same ways away from the main freeways. But close to local businesses, shopping, and entertainment. The first thing that is noticeable is the lobby area could use some modernizing. It reminds me of a hospitals nurses station. But the staff was super friendly. the rooms offer a large office style desk, a refrigerator/freezer, microwave, dishwasher, assorted pots, pans, dishware and utilizes. If you need a small appliance, them have them for loan. The box spring mattress in our room was shot, but the staff said the foam mattress are new. And like most hotels with refrigerators, it was a little noisy. And finally!! A maintenance staff the knows how the adjust the door closer so they don't slam!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r492852935-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>492852935</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>I will be coming back again!!!</t>
+  </si>
+  <si>
+    <t>The room was awesome, apartment like, very cozy, very clean, staff is very friendly. Great hotel for longer stays. I would recommend this place to everyone if you are in town in Orange County.  It's worth your $$</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r485119668-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>485119668</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for longer stays</t>
+  </si>
+  <si>
+    <t>I really liked it there. It was perfect for my almost 3 week stay. The large room with kitchen, microwave, fridge and toaster, we're all I needed to make my stay comfortable. The freedom of making my own healthy breakfast whenever needed, was  great. Housekeeping comes once a week, I  would have liked it at least twice as often. Although fresh towels can be requested any time. The bed was new and very comfortable. Staff was extremely friendly.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r479325301-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>479325301</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Seriously good hotel</t>
+  </si>
+  <si>
+    <t>Free laundry and honor system for food and snacks. This hotel is great! Fantastic staff, super clean and comfortable hotel.  Probably the best hotel in the area .  If you were staying in the area this is the place to go to</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r442624405-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>442624405</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Surprisingly good</t>
+  </si>
+  <si>
+    <t>I recently experienced a 2 night stay here and was pleasantly surprised by the comfort and feel of the room.  I read that the rooms were remodeled in 2012 and I have to say they are holding up well, at least my room anyway.  I didn't use the kitchenette at all besides the micro to pop the free popcorn and that worked well!  The room decor, although not hip, is updated and comfortable and I slept very well both nights with outside noise being minimal even sleeping with the window open.  I was facing the parking lot and most guests seem to settle in by around 10 p.m. on the weekdays I was there.  They gym was average and a good size to not feel cramped if more than 2 people are in there.Overall, I would stay there again if I had business in the area.  The front desk people were courteous and efficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>I recently experienced a 2 night stay here and was pleasantly surprised by the comfort and feel of the room.  I read that the rooms were remodeled in 2012 and I have to say they are holding up well, at least my room anyway.  I didn't use the kitchenette at all besides the micro to pop the free popcorn and that worked well!  The room decor, although not hip, is updated and comfortable and I slept very well both nights with outside noise being minimal even sleeping with the window open.  I was facing the parking lot and most guests seem to settle in by around 10 p.m. on the weekdays I was there.  They gym was average and a good size to not feel cramped if more than 2 people are in there.Overall, I would stay there again if I had business in the area.  The front desk people were courteous and efficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r438312966-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>438312966</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Thermostat!!!</t>
+  </si>
+  <si>
+    <t>I forgot to take a picture of the thermostat, but it had a motion sensor on it.  It was set to turn off when you were not in the room.  However, it was on a wall that was not facing the bed.  So it would turn off while you were asleep.  I ended up opening the window for some cool air.  Otherwise it would get up to 80 degrees at night, unless i got up and walked across the room so the sensor would kick on the ac.The room the gave me was a handicap accessible room.  Large shower with a bench and hose.They did have a pantry, free dvds to borrow, free appliances like blenders to borrow, and board games to borrow.  The hotel was in a great area.  Mcdonalds is close by.  Many other options within a 5-10 min drive.I just wish the ac was friendlier.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>daniel_fermin, Front Office Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>I forgot to take a picture of the thermostat, but it had a motion sensor on it.  It was set to turn off when you were not in the room.  However, it was on a wall that was not facing the bed.  So it would turn off while you were asleep.  I ended up opening the window for some cool air.  Otherwise it would get up to 80 degrees at night, unless i got up and walked across the room so the sensor would kick on the ac.The room the gave me was a handicap accessible room.  Large shower with a bench and hose.They did have a pantry, free dvds to borrow, free appliances like blenders to borrow, and board games to borrow.  The hotel was in a great area.  Mcdonalds is close by.  Many other options within a 5-10 min drive.I just wish the ac was friendlier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r436964248-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>436964248</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Amazing 2nd Home in LA, USA</t>
+  </si>
+  <si>
+    <t>On May 20th, me and my husband traveled from Las Vegas back to LA and check-in "Motel 6". It was an awful night. (too much noise + no enough furniture except 2 twin beds) We moved to Candlewood Suites, Lake Forest next day noon. It felt just like going back our own home in Taiwan. They got everything we need - A small kitchen with all the tableware/pots &amp; pans/microwave/frig./coffee machine... A big shower room with towels for 4 people. A master bedroom with a queen size bed. TV + DVD player + Sofabed in living room... still got plenty of spaces to put our luggages. They also have a big parking lot in front. The guy at front desk was very friendly and helpful. They also got lots of electrical appliances/books/TV games/DVD you may borrow if you need them during your stay. Laundry room &amp; Gym of course and canteen is very convenience. Some may charge, some don't. (Breakfast is not included but since you have own kitchen, you can do/buy any breakfast, lunch, dinner you like).Everything is very clean and well managed. We enjoyed staying here so we extended the stay from 3 to 8 days.Overall, I think this place is the best hotel/suite we ever stayed (reasonable rate). We will be staying at their chain no matter which city we travel in future for sure. We hope you have a great journey as we did.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>On May 20th, me and my husband traveled from Las Vegas back to LA and check-in "Motel 6". It was an awful night. (too much noise + no enough furniture except 2 twin beds) We moved to Candlewood Suites, Lake Forest next day noon. It felt just like going back our own home in Taiwan. They got everything we need - A small kitchen with all the tableware/pots &amp; pans/microwave/frig./coffee machine... A big shower room with towels for 4 people. A master bedroom with a queen size bed. TV + DVD player + Sofabed in living room... still got plenty of spaces to put our luggages. They also have a big parking lot in front. The guy at front desk was very friendly and helpful. They also got lots of electrical appliances/books/TV games/DVD you may borrow if you need them during your stay. Laundry room &amp; Gym of course and canteen is very convenience. Some may charge, some don't. (Breakfast is not included but since you have own kitchen, you can do/buy any breakfast, lunch, dinner you like).Everything is very clean and well managed. We enjoyed staying here so we extended the stay from 3 to 8 days.Overall, I think this place is the best hotel/suite we ever stayed (reasonable rate). We will be staying at their chain no matter which city we travel in future for sure. We hope you have a great journey as we did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r414988378-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>414988378</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Double charged on credit card</t>
+  </si>
+  <si>
+    <t>Was given a hard time after being charged twice on my credit card. I was not the only person who faced this issue. The issue got resolved on its own on the last day but I went through hell for more than 10 days with no real help.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>daniel_fermin, Front Office Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Was given a hard time after being charged twice on my credit card. I was not the only person who faced this issue. The issue got resolved on its own on the last day but I went through hell for more than 10 days with no real help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r401672046-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>401672046</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Stayed here for 10 nights Rooms very Clean, Kitchenette very very well provided paper Towel everything you need Except a kettle (hey I am British). The only one very little gripe more chairs outside would be good. Laundry room clean and washers and driers very good</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r396329784-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>396329784</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Not great</t>
+  </si>
+  <si>
+    <t>They desk staff was friendly and helpful.  It was just too loud there ask for non smoking room but we are pretty sure it had been smoked it.  It was not a typical Marriott stay which I'm accustomed to but it was not the worst either.  I would not stay again but if you are just look for a place to lay your head for a night, it is fine for that.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>SBS-Chatsworth, General Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>They desk staff was friendly and helpful.  It was just too loud there ask for non smoking room but we are pretty sure it had been smoked it.  It was not a typical Marriott stay which I'm accustomed to but it was not the worst either.  I would not stay again but if you are just look for a place to lay your head for a night, it is fine for that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r366179288-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>366179288</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Good extended stay hotel.</t>
+  </si>
+  <si>
+    <t>This place is very good if you are going to be staying for a long trip and don't want to eat out.  The rooms are basically one bedroom apartments, with a Kitchenette, separate bedroom, and an on site laundry.  My one complaint was that the morning of my departure the hot water ran out.  They don't have a free breakfast, but you can always get food and fix your own.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r356550124-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>356550124</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Comfy clean neighborhood hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent a night here visiting family in the area. Very clean, dog friendly, comfy beds, friendly front desk staff and easy parking! Starbucks, McDonalds, Pollo Loco, and KFC nearby. It's about 2 miles off the freeway but centrally located between the I-5 and I-405. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r355127664-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>355127664</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfort defined here! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Located between n a very quiet area, this was the perfect place to rest and stay away from all the traffic of I-5. Our long trip was compensated with such comfortable place. The small refrigerator and the kitchenette made our stay even more for table than we expected. So much space in the room and the counter made my job a lot easier.  </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r337713506-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>337713506</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Perfect place during the holiday</t>
+  </si>
+  <si>
+    <t>We had stayed here for three years during Thanksgiving holiday.  We visit friends in the area and this has been our base camp.  
+This is a three story hotel in a "L" configuration.  It is easy to find. We like it for several reasons.  It is easy to get to from the 5 or the 405 (of course those freeways are always jammed).  The hotel is on the edge of a business park (the businesses are closed during Thanksgiving). It has not been crowded when we stayed, they have a few regulars like the ambulance company that have been there for a couple of years and usually some construction companies.  The rooms are like small apartments.  The kitchen has a full size refrigerator and a microwave.  No oven but they do have two large BBQ units outside with burners.  It has enough plates, silverware and kitchen utensils to get you started. If you need something more they will loan it to you at the front desk.  The room has plenty of space.  The television was a good size and offered tons of channels.  The bathroom had a tub shower combo.  The bed was fine although the pillows were like giant rocks.  The room was very clean and everything worked. 
+The hotel has free washers and dryers, nice ones.  They have an excellent exercise room with all kinds of machines.  We really appreciated the "honor store" which was like a little...We had stayed here for three years during Thanksgiving holiday.  We visit friends in the area and this has been our base camp.  This is a three story hotel in a "L" configuration.  It is easy to find. We like it for several reasons.  It is easy to get to from the 5 or the 405 (of course those freeways are always jammed).  The hotel is on the edge of a business park (the businesses are closed during Thanksgiving). It has not been crowded when we stayed, they have a few regulars like the ambulance company that have been there for a couple of years and usually some construction companies.  The rooms are like small apartments.  The kitchen has a full size refrigerator and a microwave.  No oven but they do have two large BBQ units outside with burners.  It has enough plates, silverware and kitchen utensils to get you started. If you need something more they will loan it to you at the front desk.  The room has plenty of space.  The television was a good size and offered tons of channels.  The bathroom had a tub shower combo.  The bed was fine although the pillows were like giant rocks.  The room was very clean and everything worked. The hotel has free washers and dryers, nice ones.  They have an excellent exercise room with all kinds of machines.  We really appreciated the "honor store" which was like a little convenience store open 24/7.  You took what you needed and filled out a card to track your spending.  It is stocked with all kinds of things, a lot of junk food but they also had things like Weight Watchers frozen meals.  The prices are same as a convenience store.  There is an outdoor area for walking the dog and also a covered BBQ area with two big BBQs.  They have a loaning library so if you want a board game, movie, book or deck of cards, they have all kinds of stuff.  If you need anything else, just ask at the desk.  They really are good about loaning items to make the stay easy and enjoyable.  There are restaurants and stores within walking distance and it is easy to access Lake Forest or the surrounding area.  Now for things that changed this year.  The first thing we noticed driving in was a dozen people in front smoking.  They used to have smoking on the third floor and I almost wish they would have left that alone.  Now you have people going in and out to smoke and leaving a trail of smoke in the elevator.  Plus the designated smoking area is where the BBQs sit.  You want to BBQ and eat outdoors you will probably share it with smokers and that is their area.  Our room had an old style HVAC unit under a window.  The first night the noise from that was unbelievable.  Thank goodness the windows opened and we didn't use it at night after that.  The other thing was the refrigerator.  It cycled frequently and it also made a hell of a racket.  We turned it off when we went to bed and it held cold until morning so that worked out.  Having the windows open kept the room nice and the only problem was finding out the trash is collected pre dawn Friday from the businesses in back.  The guy on the truck throws those big dumpsters around and we both shot right out of bed.  The windows closed would normally eliminate that.  I don't know that kids would work out, not little ones anyway.  No pool and not much to do.  Not a good idea to let them loose in the exercise room or the store.  If they are happy with television, games, books then it probably would work for you.  It is set up for long term stays and I have no idea what the regular season use is like but for the Thanksgiving holiday week, it is just perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>CWDS_LakeForest, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2016</t>
+  </si>
+  <si>
+    <t>We had stayed here for three years during Thanksgiving holiday.  We visit friends in the area and this has been our base camp.  
+This is a three story hotel in a "L" configuration.  It is easy to find. We like it for several reasons.  It is easy to get to from the 5 or the 405 (of course those freeways are always jammed).  The hotel is on the edge of a business park (the businesses are closed during Thanksgiving). It has not been crowded when we stayed, they have a few regulars like the ambulance company that have been there for a couple of years and usually some construction companies.  The rooms are like small apartments.  The kitchen has a full size refrigerator and a microwave.  No oven but they do have two large BBQ units outside with burners.  It has enough plates, silverware and kitchen utensils to get you started. If you need something more they will loan it to you at the front desk.  The room has plenty of space.  The television was a good size and offered tons of channels.  The bathroom had a tub shower combo.  The bed was fine although the pillows were like giant rocks.  The room was very clean and everything worked. 
+The hotel has free washers and dryers, nice ones.  They have an excellent exercise room with all kinds of machines.  We really appreciated the "honor store" which was like a little...We had stayed here for three years during Thanksgiving holiday.  We visit friends in the area and this has been our base camp.  This is a three story hotel in a "L" configuration.  It is easy to find. We like it for several reasons.  It is easy to get to from the 5 or the 405 (of course those freeways are always jammed).  The hotel is on the edge of a business park (the businesses are closed during Thanksgiving). It has not been crowded when we stayed, they have a few regulars like the ambulance company that have been there for a couple of years and usually some construction companies.  The rooms are like small apartments.  The kitchen has a full size refrigerator and a microwave.  No oven but they do have two large BBQ units outside with burners.  It has enough plates, silverware and kitchen utensils to get you started. If you need something more they will loan it to you at the front desk.  The room has plenty of space.  The television was a good size and offered tons of channels.  The bathroom had a tub shower combo.  The bed was fine although the pillows were like giant rocks.  The room was very clean and everything worked. The hotel has free washers and dryers, nice ones.  They have an excellent exercise room with all kinds of machines.  We really appreciated the "honor store" which was like a little convenience store open 24/7.  You took what you needed and filled out a card to track your spending.  It is stocked with all kinds of things, a lot of junk food but they also had things like Weight Watchers frozen meals.  The prices are same as a convenience store.  There is an outdoor area for walking the dog and also a covered BBQ area with two big BBQs.  They have a loaning library so if you want a board game, movie, book or deck of cards, they have all kinds of stuff.  If you need anything else, just ask at the desk.  They really are good about loaning items to make the stay easy and enjoyable.  There are restaurants and stores within walking distance and it is easy to access Lake Forest or the surrounding area.  Now for things that changed this year.  The first thing we noticed driving in was a dozen people in front smoking.  They used to have smoking on the third floor and I almost wish they would have left that alone.  Now you have people going in and out to smoke and leaving a trail of smoke in the elevator.  Plus the designated smoking area is where the BBQs sit.  You want to BBQ and eat outdoors you will probably share it with smokers and that is their area.  Our room had an old style HVAC unit under a window.  The first night the noise from that was unbelievable.  Thank goodness the windows opened and we didn't use it at night after that.  The other thing was the refrigerator.  It cycled frequently and it also made a hell of a racket.  We turned it off when we went to bed and it held cold until morning so that worked out.  Having the windows open kept the room nice and the only problem was finding out the trash is collected pre dawn Friday from the businesses in back.  The guy on the truck throws those big dumpsters around and we both shot right out of bed.  The windows closed would normally eliminate that.  I don't know that kids would work out, not little ones anyway.  No pool and not much to do.  Not a good idea to let them loose in the exercise room or the store.  If they are happy with television, games, books then it probably would work for you.  It is set up for long term stays and I have no idea what the regular season use is like but for the Thanksgiving holiday week, it is just perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r336237602-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>336237602</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Excellent for long stays</t>
+  </si>
+  <si>
+    <t>I spent two months there whilst working at my company's headquarters in Lake Forest.I stayed in one of their one bed apartment and really enjoyed my stay.  The one bedder was spacious, well equipped and kept clean.  It was quiet and I could get on with my work. There is a little gym with the essential equipment, a laundry room and a little store. The staff were friendly and helpful. There are plenty of shops nearby but of course the use of a car is required like anywhere else in the US. I will happily go back there if necessary. And recommend it to anyone who needs to stay in the area for an extended period of time but make sure you upgrade to the one bedder for a truly pleasant stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent two months there whilst working at my company's headquarters in Lake Forest.I stayed in one of their one bed apartment and really enjoyed my stay.  The one bedder was spacious, well equipped and kept clean.  It was quiet and I could get on with my work. There is a little gym with the essential equipment, a laundry room and a little store. The staff were friendly and helpful. There are plenty of shops nearby but of course the use of a car is required like anywhere else in the US. I will happily go back there if necessary. And recommend it to anyone who needs to stay in the area for an extended period of time but make sure you upgrade to the one bedder for a truly pleasant stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r319539637-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>319539637</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Like-New Hotel, Great Staff, a Bit Away From Things</t>
+  </si>
+  <si>
+    <t>Stayed here on business and the hotel was great - quiet, very clean, and a terrific staff who was very helpful.  Free laundry as always.  The one issue is that there are few restaurants within walking distance, so glad the hotel has suites with a kitchen.  Hotel has a small store downstairs with food for sale so I mainly cooked.  The local Amtrak and commuter rail station is a $13 cab ride.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r308796076-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>308796076</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Our Room needed a lttle help!!</t>
+  </si>
+  <si>
+    <t>We arrived at the Candlewood Suites at 11:30 at night because of an airline delay. We checked in and as we were walking down the hall we heard loud music Ok it's going to be one of those stays but as we got a little closer it was coming from our room they just gave us. Did they give us the wrong room and do we need to get security if they have a security person at that time of night and we already had a very long day already. My wife was a little scared so I tried the door anyway the key opened the door hoping the person on the other side of the door didn't have a firearm for protection. I can't believe guests in surrounding room didn't call the front deck before we arrived it was that loud. We went in and it was dark and we turned on the light and someone left the radio on full blast. We did a room check and thank god no one was there. We had a restful sleep the bed was comfortable and it was a nice room. That morning as we are getting ready the plug in the bath didn't work for the blow dryer and the shower curtains was loose because the screw were coming out. I have stayed at many Holiday Inn's and they have been great and this was the first time we staying...We arrived at the Candlewood Suites at 11:30 at night because of an airline delay. We checked in and as we were walking down the hall we heard loud music Ok it's going to be one of those stays but as we got a little closer it was coming from our room they just gave us. Did they give us the wrong room and do we need to get security if they have a security person at that time of night and we already had a very long day already. My wife was a little scared so I tried the door anyway the key opened the door hoping the person on the other side of the door didn't have a firearm for protection. I can't believe guests in surrounding room didn't call the front deck before we arrived it was that loud. We went in and it was dark and we turned on the light and someone left the radio on full blast. We did a room check and thank god no one was there. We had a restful sleep the bed was comfortable and it was a nice room. That morning as we are getting ready the plug in the bath didn't work for the blow dryer and the shower curtains was loose because the screw were coming out. I have stayed at many Holiday Inn's and they have been great and this was the first time we staying at the Candlewood suite. We mention it on check out but they were to busy at the front deck that morning. Maybe I was just unlucky!!  Update! I posted a review on there website and they replied and said they would contact me but that was 2 weeks ago.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>CWDS_LakeForest, Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>We arrived at the Candlewood Suites at 11:30 at night because of an airline delay. We checked in and as we were walking down the hall we heard loud music Ok it's going to be one of those stays but as we got a little closer it was coming from our room they just gave us. Did they give us the wrong room and do we need to get security if they have a security person at that time of night and we already had a very long day already. My wife was a little scared so I tried the door anyway the key opened the door hoping the person on the other side of the door didn't have a firearm for protection. I can't believe guests in surrounding room didn't call the front deck before we arrived it was that loud. We went in and it was dark and we turned on the light and someone left the radio on full blast. We did a room check and thank god no one was there. We had a restful sleep the bed was comfortable and it was a nice room. That morning as we are getting ready the plug in the bath didn't work for the blow dryer and the shower curtains was loose because the screw were coming out. I have stayed at many Holiday Inn's and they have been great and this was the first time we staying...We arrived at the Candlewood Suites at 11:30 at night because of an airline delay. We checked in and as we were walking down the hall we heard loud music Ok it's going to be one of those stays but as we got a little closer it was coming from our room they just gave us. Did they give us the wrong room and do we need to get security if they have a security person at that time of night and we already had a very long day already. My wife was a little scared so I tried the door anyway the key opened the door hoping the person on the other side of the door didn't have a firearm for protection. I can't believe guests in surrounding room didn't call the front deck before we arrived it was that loud. We went in and it was dark and we turned on the light and someone left the radio on full blast. We did a room check and thank god no one was there. We had a restful sleep the bed was comfortable and it was a nice room. That morning as we are getting ready the plug in the bath didn't work for the blow dryer and the shower curtains was loose because the screw were coming out. I have stayed at many Holiday Inn's and they have been great and this was the first time we staying at the Candlewood suite. We mention it on check out but they were to busy at the front deck that morning. Maybe I was just unlucky!!  Update! I posted a review on there website and they replied and said they would contact me but that was 2 weeks ago.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r308608206-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>308608206</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>Staff was friendly, location reasonably convenient and amenities were close by. One day however the cleaning staff forgot to clean our room, but once I called them they reacted quickly and provided us fresh towels.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r304686642-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>304686642</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Our first visit to Candlewood Suites was better than I expected. The small suite was spacious with a kitchen area with attractive cabinets, sink, apartment fridge and microwave. The room was surprisingly quiet, especially during the week when it seemed many of the people are there in short-term housing. The staff are not at the front desk, but can be reached whenever needed. There is no daily housekeeping, but you can get towels and other items. There is  an outdoor BBQ as well as an area where you can check out items like crock pots. There's also a convenience mini-store with food and snacks. For us the free 24 hour laundry housed down the hall was useful. There is a fitness room too, and it looked like all the equipment worked. Candlewood Suites is a few miles from the intersection of the 5 and 405 freeways, so it was convenient. We decided to try Candlewood Suites based on their pet friendly policy. Our first stay was a success, so we are likely to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Our first visit to Candlewood Suites was better than I expected. The small suite was spacious with a kitchen area with attractive cabinets, sink, apartment fridge and microwave. The room was surprisingly quiet, especially during the week when it seemed many of the people are there in short-term housing. The staff are not at the front desk, but can be reached whenever needed. There is no daily housekeeping, but you can get towels and other items. There is  an outdoor BBQ as well as an area where you can check out items like crock pots. There's also a convenience mini-store with food and snacks. For us the free 24 hour laundry housed down the hall was useful. There is a fitness room too, and it looked like all the equipment worked. Candlewood Suites is a few miles from the intersection of the 5 and 405 freeways, so it was convenient. We decided to try Candlewood Suites based on their pet friendly policy. Our first stay was a success, so we are likely to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r286129007-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>286129007</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Nothing but disappointing......</t>
+  </si>
+  <si>
+    <t>We were extremely disappointed (to say the least) with this hotel in every capacity!  Picked this place because it advertises "pet friendly" - there is one TINY patch of grass in the parking lot with a road on the other side.  We were misinformed of the pet fees (ended up being 75 PER PET), the room was FILTHY - luckily I travel with a bottle of clorox wipes; won't share what I cleaned from the light switch and sink area of the rest room.  There is no ice maker on the property - aside from that in your room which is powered off on default.  I had asked the front desk staff for ice - was told they would bring it outside to us - the young woman I asked never came out, and I learned later that she left for the day after my request - without saying a word.  The front office staff - in general was a bit rude and unaccommodating.  I had asked for a Manager when we checked in (which was noon on Friday) and learned of the pet policy - was informed that there was NO MANAGEMENT on the premises, nor would there be until Monday.  What kind of hotel has zero management presence for over 48 hours?  Had it not been a holiday weekend - (leading to low availability at other hotels in the area) we would have walked out immediately after seeing...We were extremely disappointed (to say the least) with this hotel in every capacity!  Picked this place because it advertises "pet friendly" - there is one TINY patch of grass in the parking lot with a road on the other side.  We were misinformed of the pet fees (ended up being 75 PER PET), the room was FILTHY - luckily I travel with a bottle of clorox wipes; won't share what I cleaned from the light switch and sink area of the rest room.  There is no ice maker on the property - aside from that in your room which is powered off on default.  I had asked the front desk staff for ice - was told they would bring it outside to us - the young woman I asked never came out, and I learned later that she left for the day after my request - without saying a word.  The front office staff - in general was a bit rude and unaccommodating.  I had asked for a Manager when we checked in (which was noon on Friday) and learned of the pet policy - was informed that there was NO MANAGEMENT on the premises, nor would there be until Monday.  What kind of hotel has zero management presence for over 48 hours?  Had it not been a holiday weekend - (leading to low availability at other hotels in the area) we would have walked out immediately after seeing the room. Also just noticed the photo shown below of a room - our room looked NOTHING like this... It was dingy, outdated and equipped for handicap access (which we are not) - and overall extremely unpleasant to be in - given the bigger set of circumstances.Will not return for a multitude of reasons.....MoreShow less</t>
+  </si>
+  <si>
+    <t>SBS-Chatsworth, General Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>We were extremely disappointed (to say the least) with this hotel in every capacity!  Picked this place because it advertises "pet friendly" - there is one TINY patch of grass in the parking lot with a road on the other side.  We were misinformed of the pet fees (ended up being 75 PER PET), the room was FILTHY - luckily I travel with a bottle of clorox wipes; won't share what I cleaned from the light switch and sink area of the rest room.  There is no ice maker on the property - aside from that in your room which is powered off on default.  I had asked the front desk staff for ice - was told they would bring it outside to us - the young woman I asked never came out, and I learned later that she left for the day after my request - without saying a word.  The front office staff - in general was a bit rude and unaccommodating.  I had asked for a Manager when we checked in (which was noon on Friday) and learned of the pet policy - was informed that there was NO MANAGEMENT on the premises, nor would there be until Monday.  What kind of hotel has zero management presence for over 48 hours?  Had it not been a holiday weekend - (leading to low availability at other hotels in the area) we would have walked out immediately after seeing...We were extremely disappointed (to say the least) with this hotel in every capacity!  Picked this place because it advertises "pet friendly" - there is one TINY patch of grass in the parking lot with a road on the other side.  We were misinformed of the pet fees (ended up being 75 PER PET), the room was FILTHY - luckily I travel with a bottle of clorox wipes; won't share what I cleaned from the light switch and sink area of the rest room.  There is no ice maker on the property - aside from that in your room which is powered off on default.  I had asked the front desk staff for ice - was told they would bring it outside to us - the young woman I asked never came out, and I learned later that she left for the day after my request - without saying a word.  The front office staff - in general was a bit rude and unaccommodating.  I had asked for a Manager when we checked in (which was noon on Friday) and learned of the pet policy - was informed that there was NO MANAGEMENT on the premises, nor would there be until Monday.  What kind of hotel has zero management presence for over 48 hours?  Had it not been a holiday weekend - (leading to low availability at other hotels in the area) we would have walked out immediately after seeing the room. Also just noticed the photo shown below of a room - our room looked NOTHING like this... It was dingy, outdated and equipped for handicap access (which we are not) - and overall extremely unpleasant to be in - given the bigger set of circumstances.Will not return for a multitude of reasons.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r270275456-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>270275456</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Nice, quiet suite at a decent price</t>
+  </si>
+  <si>
+    <t>I stayed here with a group of friends coming back from a trip to Mexico.  We had a total of four suites.  Since we were dog-tired and I had chosen the hotel, I was a hopeful that everyone would be happy with our rooms. We were!  Check in was a breeze; the girl working the desk was pleasant and answered all our questions.  She showed us a list of dvds we could check out for free.  They also offered free washer/dryer services, books, gym, and board games.  The room was not that big, but was clean and the bed was comfy.  The kitchenette had everything needed to make a meal; a sign posted offered a blender or any other kitchen appliance needed from the front desk.  The bathroom was clean and had a nice shower head with great flow.  The only ding they get is that the bathroom sink plug didn't work; my hubby wanted to fill the sink to shave and couldn't get it to stay closed.  If we had been staying more than one night, we would have asked for it to be fixed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I stayed here with a group of friends coming back from a trip to Mexico.  We had a total of four suites.  Since we were dog-tired and I had chosen the hotel, I was a hopeful that everyone would be happy with our rooms. We were!  Check in was a breeze; the girl working the desk was pleasant and answered all our questions.  She showed us a list of dvds we could check out for free.  They also offered free washer/dryer services, books, gym, and board games.  The room was not that big, but was clean and the bed was comfy.  The kitchenette had everything needed to make a meal; a sign posted offered a blender or any other kitchen appliance needed from the front desk.  The bathroom was clean and had a nice shower head with great flow.  The only ding they get is that the bathroom sink plug didn't work; my hubby wanted to fill the sink to shave and couldn't get it to stay closed.  If we had been staying more than one night, we would have asked for it to be fixed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r248856610-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>248856610</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Not as good as other candlewoods</t>
+  </si>
+  <si>
+    <t>The standard of housekeeping left a lot to be desired. First room we were assigned had not been cleaned since last guest. There were snotty tissues on the couch and smears down the mirrors. Obscene words were also written on the notice board with a biro. The previous guests had also smoked in the room and jammed all the holes in the smoke detector with wet toilet paper to avoid setting it off. Reception was happy to move us to a new, cleaned room. Rest assured it wasn't a good start. No quite as well maintained and presented as others in the chain.  No king beds only doubles presented as queens. Close to shops and I-5. Front door to hotel is only single width and hard to get luggage in. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>SBS-Chatsworth, Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded January 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2015</t>
+  </si>
+  <si>
+    <t>The standard of housekeeping left a lot to be desired. First room we were assigned had not been cleaned since last guest. There were snotty tissues on the couch and smears down the mirrors. Obscene words were also written on the notice board with a biro. The previous guests had also smoked in the room and jammed all the holes in the smoke detector with wet toilet paper to avoid setting it off. Reception was happy to move us to a new, cleaned room. Rest assured it wasn't a good start. No quite as well maintained and presented as others in the chain.  No king beds only doubles presented as queens. Close to shops and I-5. Front door to hotel is only single width and hard to get luggage in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r243218328-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>243218328</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Great Suite Excellent Value</t>
+  </si>
+  <si>
+    <t>I travel to Irvine once or twice a year and have stayed at several of the local hotels over the years. I decided to try the Candlewood suites this time based on the TA reviews and I was not disappointed. I was immediately greeted upon entering by a friendly clerk who informed me that as the hotel was not busy I had been upgraded to a one bedroom suite, a nice touch. The unit was clean and quiet, the décor was nothing fancy but very functional. I would definitely stay here again when in the area. I did have a similar experience as other members in that my GPS did not send me to the right location. It is tucked away behind the hospital so head as if you are going to the emergency entrance and just before you get there you will see Candlewood Suites at the end of the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I travel to Irvine once or twice a year and have stayed at several of the local hotels over the years. I decided to try the Candlewood suites this time based on the TA reviews and I was not disappointed. I was immediately greeted upon entering by a friendly clerk who informed me that as the hotel was not busy I had been upgraded to a one bedroom suite, a nice touch. The unit was clean and quiet, the décor was nothing fancy but very functional. I would definitely stay here again when in the area. I did have a similar experience as other members in that my GPS did not send me to the right location. It is tucked away behind the hospital so head as if you are going to the emergency entrance and just before you get there you will see Candlewood Suites at the end of the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r214852006-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>214852006</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>You can put lipstick on a pig, but it's still a pig</t>
+  </si>
+  <si>
+    <t>I have nothing negative to say avout the staff nor the cleanliness of this hotel however, whoever built/designed hotel deserves to be slapped across the face for such poor design and lack of knowledge regarding buildings. This building was poorly built. Everytime someone walked acoss the hall on the floor above us or walked around their own room as any person reasonably expects it was horribly loud. You can hear every single creek and step they took and at 11:30 PM when they dropped their luggage on the floor I was rudely awaken from sleep. At 12:40 AM I grew desperate and called the front desk so I could get some sleep. In additiin there are clack out curtains that only cover half the windows. You just get some sheer sheet covering the rest. Who in the world came up with that idea? I had to use a hanger with clamps to try to shuts the windows somewhat.  It was so bad ny husband and I had to use one day of our three day vacation sleeping to make up for the lack of sleep. When using our bathroom I noticed that the cigarrete smoke from upstairs leaks into our room. The treadmills are also horrible on the knees. I also don't like the fact that they advertise a pool online but no pool is available. In short, until they replace the building or I become a heavy sleeper I...I have nothing negative to say avout the staff nor the cleanliness of this hotel however, whoever built/designed hotel deserves to be slapped across the face for such poor design and lack of knowledge regarding buildings. This building was poorly built. Everytime someone walked acoss the hall on the floor above us or walked around their own room as any person reasonably expects it was horribly loud. You can hear every single creek and step they took and at 11:30 PM when they dropped their luggage on the floor I was rudely awaken from sleep. At 12:40 AM I grew desperate and called the front desk so I could get some sleep. In additiin there are clack out curtains that only cover half the windows. You just get some sheer sheet covering the rest. Who in the world came up with that idea? I had to use a hanger with clamps to try to shuts the windows somewhat.  It was so bad ny husband and I had to use one day of our three day vacation sleeping to make up for the lack of sleep. When using our bathroom I noticed that the cigarrete smoke from upstairs leaks into our room. The treadmills are also horrible on the knees. I also don't like the fact that they advertise a pool online but no pool is available. In short, until they replace the building or I become a heavy sleeper I won't be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded July 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2014</t>
+  </si>
+  <si>
+    <t>I have nothing negative to say avout the staff nor the cleanliness of this hotel however, whoever built/designed hotel deserves to be slapped across the face for such poor design and lack of knowledge regarding buildings. This building was poorly built. Everytime someone walked acoss the hall on the floor above us or walked around their own room as any person reasonably expects it was horribly loud. You can hear every single creek and step they took and at 11:30 PM when they dropped their luggage on the floor I was rudely awaken from sleep. At 12:40 AM I grew desperate and called the front desk so I could get some sleep. In additiin there are clack out curtains that only cover half the windows. You just get some sheer sheet covering the rest. Who in the world came up with that idea? I had to use a hanger with clamps to try to shuts the windows somewhat.  It was so bad ny husband and I had to use one day of our three day vacation sleeping to make up for the lack of sleep. When using our bathroom I noticed that the cigarrete smoke from upstairs leaks into our room. The treadmills are also horrible on the knees. I also don't like the fact that they advertise a pool online but no pool is available. In short, until they replace the building or I become a heavy sleeper I...I have nothing negative to say avout the staff nor the cleanliness of this hotel however, whoever built/designed hotel deserves to be slapped across the face for such poor design and lack of knowledge regarding buildings. This building was poorly built. Everytime someone walked acoss the hall on the floor above us or walked around their own room as any person reasonably expects it was horribly loud. You can hear every single creek and step they took and at 11:30 PM when they dropped their luggage on the floor I was rudely awaken from sleep. At 12:40 AM I grew desperate and called the front desk so I could get some sleep. In additiin there are clack out curtains that only cover half the windows. You just get some sheer sheet covering the rest. Who in the world came up with that idea? I had to use a hanger with clamps to try to shuts the windows somewhat.  It was so bad ny husband and I had to use one day of our three day vacation sleeping to make up for the lack of sleep. When using our bathroom I noticed that the cigarrete smoke from upstairs leaks into our room. The treadmills are also horrible on the knees. I also don't like the fact that they advertise a pool online but no pool is available. In short, until they replace the building or I become a heavy sleeper I won't be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r213674948-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>213674948</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Ok if you can handle the noise from the A/C</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a couple of nights recently.  Plus points; front desk staff were very polite and helpful plus you have a refrigerator, microwave, dishwasher and small stovetop so if like me you just want to head back to your room and throw something together to eat while you work, it was great.  Minus points; the kitchen and bedroom area is all open plan and the refrigerator was noisy when it kicked in.  It wasn't louder than the AC unit though and I had to deliberate about whether to be woken up because I got too warm or by the noise from the AC.  This is designed for someone staying longer; housekeeping is only once a week which was something I didn't spot before I booked it, so I made my own bed and towels, coffee etc. we're not replaced daily.  They do have coffee on tap downstairs but I wasn't about to go down there at 5.30 in the morning to get my first cup of java!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded July 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a couple of nights recently.  Plus points; front desk staff were very polite and helpful plus you have a refrigerator, microwave, dishwasher and small stovetop so if like me you just want to head back to your room and throw something together to eat while you work, it was great.  Minus points; the kitchen and bedroom area is all open plan and the refrigerator was noisy when it kicked in.  It wasn't louder than the AC unit though and I had to deliberate about whether to be woken up because I got too warm or by the noise from the AC.  This is designed for someone staying longer; housekeeping is only once a week which was something I didn't spot before I booked it, so I made my own bed and towels, coffee etc. we're not replaced daily.  They do have coffee on tap downstairs but I wasn't about to go down there at 5.30 in the morning to get my first cup of java!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r202240015-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>202240015</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Not Happy</t>
+  </si>
+  <si>
+    <t>i was told when i made the reservation that i would receive the $22 reservation fee off the price of the hotel at the time of check in. The price of the hotel was to be $79 plus taxes and the $22 would be taken off of that. I was charged $90 at time of check in on the night of 4/18/14. After i looked at the bill on the morning of 4/19/14 i realized that the $22 had not been taken off. When i ask the morning receptionist  why i didn't get the $22 reservation fee off the receptionist said they had never heard of a reservation fee. So in short i ended up paying $120 for a $79 hotel room!!!!  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded May 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2014</t>
+  </si>
+  <si>
+    <t>i was told when i made the reservation that i would receive the $22 reservation fee off the price of the hotel at the time of check in. The price of the hotel was to be $79 plus taxes and the $22 would be taken off of that. I was charged $90 at time of check in on the night of 4/18/14. After i looked at the bill on the morning of 4/19/14 i realized that the $22 had not been taken off. When i ask the morning receptionist  why i didn't get the $22 reservation fee off the receptionist said they had never heard of a reservation fee. So in short i ended up paying $120 for a $79 hotel room!!!!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r201321824-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>201321824</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Not a place I would stay</t>
+  </si>
+  <si>
+    <t>I stayed here a month ago and was just reminded as I am here in Southern California again, but this time chose to stay at another hotel not far.We had checked in late and was greeted with rude front desk personnel. The rooms were not very clean and seemed that many lights, tv, etc did not work...was told they would come check but never did.Not a good choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded April 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here a month ago and was just reminded as I am here in Southern California again, but this time chose to stay at another hotel not far.We had checked in late and was greeted with rude front desk personnel. The rooms were not very clean and seemed that many lights, tv, etc did not work...was told they would come check but never did.Not a good choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r200819838-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>200819838</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL</t>
+  </si>
+  <si>
+    <t>Both my wife and I went to visit her Mom in LA.  We really did not want to head all the way home and be tired the next day so looked for a hotel on the spur of the moment.This hotel is by FAR one of the best we have ever stayed in.  From a Fantastic room that was clean and neat to the Fantastic staff that helped us with all of our requests.This is a LONG STAY hotel, so if you do not mind bringing your towels to the desk , this is perfect.It is in the Irvine Spectrum area, so It is in a business area.  It is about 45 minutes from Disney, but a good place to stay for Disney, Knotts and other LA attractions.I WOULD HIGHLY recommend this hotel to anyone..MoreShow less</t>
+  </si>
+  <si>
+    <t>Both my wife and I went to visit her Mom in LA.  We really did not want to head all the way home and be tired the next day so looked for a hotel on the spur of the moment.This hotel is by FAR one of the best we have ever stayed in.  From a Fantastic room that was clean and neat to the Fantastic staff that helped us with all of our requests.This is a LONG STAY hotel, so if you do not mind bringing your towels to the desk , this is perfect.It is in the Irvine Spectrum area, so It is in a business area.  It is about 45 minutes from Disney, but a good place to stay for Disney, Knotts and other LA attractions.I WOULD HIGHLY recommend this hotel to anyone..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r187096381-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>187096381</t>
+  </si>
+  <si>
+    <t>12/08/2013</t>
+  </si>
+  <si>
+    <t>Great Staff, but some problems with room comfort</t>
+  </si>
+  <si>
+    <t>I usually like Candlewood Suites. I know what I am getting in to with the extended stay places, but I like the positive trade offs like the mini kitchen.So first the good: The front desk staff I interacted with were great! The room is what you've come to expect, with the exception of two problems that ultimately force me give the rating I am giving.First, there were no dark, heavy blinds. There were some transparent blinds that would shut all the way, but the heavy black out curtains  would not cover the window at all. So whether you like it or not, if sunlight wakes you up, 7 am is your wake up time!Finally, the pillows were downright HORRIBLE! The firm ones were lumpy at best. And the soft ones were almost nonexistent.An added thumbs down is nothing is walking distance. It's a strange area of the OC, very industrial like. And so there isn't a coffee place or other food you can quickly hop out of the hotel to go grab.Candlewoods can be great, but research what you are getting in to. The staff ere is great, but the rooms need some simple upgrades before I can give it a higher rating!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded December 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2013</t>
+  </si>
+  <si>
+    <t>I usually like Candlewood Suites. I know what I am getting in to with the extended stay places, but I like the positive trade offs like the mini kitchen.So first the good: The front desk staff I interacted with were great! The room is what you've come to expect, with the exception of two problems that ultimately force me give the rating I am giving.First, there were no dark, heavy blinds. There were some transparent blinds that would shut all the way, but the heavy black out curtains  would not cover the window at all. So whether you like it or not, if sunlight wakes you up, 7 am is your wake up time!Finally, the pillows were downright HORRIBLE! The firm ones were lumpy at best. And the soft ones were almost nonexistent.An added thumbs down is nothing is walking distance. It's a strange area of the OC, very industrial like. And so there isn't a coffee place or other food you can quickly hop out of the hotel to go grab.Candlewoods can be great, but research what you are getting in to. The staff ere is great, but the rooms need some simple upgrades before I can give it a higher rating!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r186957342-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>186957342</t>
+  </si>
+  <si>
+    <t>12/06/2013</t>
+  </si>
+  <si>
+    <t>Not a good experience</t>
+  </si>
+  <si>
+    <t>I stayed here on business for 2weeks.Good side is the suites are equipped with kitchen.However, the room I was given had weird smell like some kind of construction material. On the first night I was greeted by a small roach in bed, which I had to catch and kill. My allergy was triggered either by dust or dustmites. I was charged with some merchandise they sell at their convenience store, where I never even stopped by. I insisted on a refund. It was good that I noticed, otherwise I had to pay without even knowing it. WIFI is often too slow for business use.I don't recommend this hotel to someone who has allergy like me. If you need a place to cook and just sleep at reasonable price, then this hotel may be good.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here on business for 2weeks.Good side is the suites are equipped with kitchen.However, the room I was given had weird smell like some kind of construction material. On the first night I was greeted by a small roach in bed, which I had to catch and kill. My allergy was triggered either by dust or dustmites. I was charged with some merchandise they sell at their convenience store, where I never even stopped by. I insisted on a refund. It was good that I noticed, otherwise I had to pay without even knowing it. WIFI is often too slow for business use.I don't recommend this hotel to someone who has allergy like me. If you need a place to cook and just sleep at reasonable price, then this hotel may be good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r186872977-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>186872977</t>
+  </si>
+  <si>
+    <t>12/05/2013</t>
+  </si>
+  <si>
+    <t>Great staff, excellent customer service, with TLC</t>
+  </si>
+  <si>
+    <t>Submitted by Julia GnuseIf you're making your holiday plans, be sure to stay with Candlewood Suites - you can't go wrong! I've been staying at the Candlewood Suites Lake Forest since March of this year, and holding down a room at the Candlewood Suites Ft. Myers Sanibel Gateway since August. I can't say enough about the facility - it's clean, comfortable, and modern, and the management and staff always go out of their way provide excellent customer service and to make me feel at home! After leaving the Lake Forest Candlewood soon, I'll be staying with the Candlewood Sanible Gateway for another year or more, treating it just like an apartment, and when I return to California for visits, I'll always stay at the Candlewood Lake Forest. I would like to commend the management and staff at both hotels, including Ash Beshay, General Manager at Candlewood Suites Lake Forest, as well as Dan Berben and Jody Johnson, General Manager and Manager, respectively, at Candlewood Suites Sanibel Gateway. They are all part of why Candlewood Suites is my first choice when traveling for short, medium, or extended stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>Submitted by Julia GnuseIf you're making your holiday plans, be sure to stay with Candlewood Suites - you can't go wrong! I've been staying at the Candlewood Suites Lake Forest since March of this year, and holding down a room at the Candlewood Suites Ft. Myers Sanibel Gateway since August. I can't say enough about the facility - it's clean, comfortable, and modern, and the management and staff always go out of their way provide excellent customer service and to make me feel at home! After leaving the Lake Forest Candlewood soon, I'll be staying with the Candlewood Sanible Gateway for another year or more, treating it just like an apartment, and when I return to California for visits, I'll always stay at the Candlewood Lake Forest. I would like to commend the management and staff at both hotels, including Ash Beshay, General Manager at Candlewood Suites Lake Forest, as well as Dan Berben and Jody Johnson, General Manager and Manager, respectively, at Candlewood Suites Sanibel Gateway. They are all part of why Candlewood Suites is my first choice when traveling for short, medium, or extended stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r171915365-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>171915365</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Great value &amp; comfortable</t>
+  </si>
+  <si>
+    <t>This was a great find. Hotels can get very expensive in So Cal and this was a great value (paid $90 per night). Only downfall is that it is a little off the beat and path. However it is easy to get to the highway and the beach cities. The room was very clean and modern, very comfortable bed  and quiet. Will for sure stay here again in the future.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r164200811-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>164200811</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>Great location / Excellent value</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for a week.  We were completely satisfied.  We specifically booked this hotel because of the full kitchen.  There are a several grocery stores nearby and we stocked up when we first arrived.  We liked that the hotel is close to both I-5 and I-405 so getting around the area was easy.  There are restaurants nearby - we enjoyed Mimi's Cafe and the Thai Garden.The only problem we had was that the first room assigned to us was adjacent to smoking rooms, and there was a strong odor of smoke in the hall outside our room.  We asked to be moved and the front desk put us on another floor which seemed to be all non-smoking, so that solved the problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for a week.  We were completely satisfied.  We specifically booked this hotel because of the full kitchen.  There are a several grocery stores nearby and we stocked up when we first arrived.  We liked that the hotel is close to both I-5 and I-405 so getting around the area was easy.  There are restaurants nearby - we enjoyed Mimi's Cafe and the Thai Garden.The only problem we had was that the first room assigned to us was adjacent to smoking rooms, and there was a strong odor of smoke in the hall outside our room.  We asked to be moved and the front desk put us on another floor which seemed to be all non-smoking, so that solved the problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r163636397-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>163636397</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Okay for a business trip</t>
+  </si>
+  <si>
+    <t>It is clean and quiet. That is all that a business trip needs. I saw a lady bringing in her dog though I don't see dog hair in my room. It has a shaky elevator and the license has been expired. Lack of indicator and signs, it was hard for me to locate the elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded June 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2013</t>
+  </si>
+  <si>
+    <t>It is clean and quiet. That is all that a business trip needs. I saw a lady bringing in her dog though I don't see dog hair in my room. It has a shaky elevator and the license has been expired. Lack of indicator and signs, it was hard for me to locate the elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r157695631-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>157695631</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>was good until the end</t>
+  </si>
+  <si>
+    <t>I loved staying in this area as its quiet and decent, the rooms were clean and comfortable. however i woke up to a disturbance at 8-8:30am, housekeeping staff was being very inconsiderate, loud and obnoxious and acting VERY immature in the hallways. its like really??????? who acts like that?  Managers need to train the housekeepers to teach them some manners and be considerate to guests who are trying to relax/sleep. I am probably not coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded May 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2013</t>
+  </si>
+  <si>
+    <t>I loved staying in this area as its quiet and decent, the rooms were clean and comfortable. however i woke up to a disturbance at 8-8:30am, housekeeping staff was being very inconsiderate, loud and obnoxious and acting VERY immature in the hallways. its like really??????? who acts like that?  Managers need to train the housekeepers to teach them some manners and be considerate to guests who are trying to relax/sleep. I am probably not coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r157443883-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>157443883</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at the Candlewood Suites in Lake Forest.  This was my first stay at a Candlewood Suites so if, like me, you are not familiar with them here's what you need to know. These are geared towards extended stays, so maid service is once a week, there's no restaurant in the hotel or room service.  This isn't the Ritz, so if that's the kind of experience you're looking for, keep searching.However, what you do get is a nice private space with all the things that you need.  There's a kitchenette that's stocked with dishes and full-sized fridge, a spacious desk area, and a bed for your main area.  I found all to be nicely kept and very functional.  The bathroom was actually quite a bit nicer than I had anticipated as well.I was here for work, so for me this was perfect.  As my title states, it felt very much like a home away from home -- my own private space and less like a hotel.  The wireless internet is free (Free!! - pay attention some of you expensive hotel chains!!) and worked flawlessly throughout my stay, even doing a lot of VPN connections to my office.  So I was completely satisfied and will happily stay here next time I'm doing work in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at the Candlewood Suites in Lake Forest.  This was my first stay at a Candlewood Suites so if, like me, you are not familiar with them here's what you need to know. These are geared towards extended stays, so maid service is once a week, there's no restaurant in the hotel or room service.  This isn't the Ritz, so if that's the kind of experience you're looking for, keep searching.However, what you do get is a nice private space with all the things that you need.  There's a kitchenette that's stocked with dishes and full-sized fridge, a spacious desk area, and a bed for your main area.  I found all to be nicely kept and very functional.  The bathroom was actually quite a bit nicer than I had anticipated as well.I was here for work, so for me this was perfect.  As my title states, it felt very much like a home away from home -- my own private space and less like a hotel.  The wireless internet is free (Free!! - pay attention some of you expensive hotel chains!!) and worked flawlessly throughout my stay, even doing a lot of VPN connections to my office.  So I was completely satisfied and will happily stay here next time I'm doing work in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r152573094-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>152573094</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Working with staff at hotel</t>
+  </si>
+  <si>
+    <t>I want to commend Glenda Thomas, Sales Director, for her patience and expertise in working with me on a rate for a 3-month stay at Candlewood Suites Orange County/Irvine East.  Glenda was very professional and worked hard on my behalf.  Daniel Furman, Operations Manager, has also been very warm and professional in working with me.  I am really looking forward to my stay there because of how I have been treated on the phone in making all the arrangements.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r149974603-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>149974603</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>Wonderful for long stays with a dog</t>
+  </si>
+  <si>
+    <t>My first review with Trip Advisor.  I just had to give a shout out to Lauriee, the manager, and her wonderful, cheerful staff here at Candlewood Suites in Lake Forest.
+My husband, myself and our 50 pound dog are in the process of relocating to Orange County from Canada.  We needed a place to stay for several weeks while we were look for a house.  After reading other Trip Advisor reviews, and going on the Candlewood website, I decided that this hotel had a lot going for it like a FULL kitchen with two-burner stove and dishwasher.  They even let us borrow a toaster over to bake something for dinner.  The bathrooms are really clean and spacious. Bed is very comfortable.  Everything is remodelled.  
+Everyone here is so helpful.  We needed some documents printed and the front desk has helped us with this several times for a very reasonable rate per page.  
+The rooms are cleaned weekly, but you can exchange towels and sheets whenever you need them.  You can borrow DVDs from the front desk, buy snacks on site, free coffee, and the laundry is free of charge with many machines.  Safe parking lot and very quiet area.  
+I recommend the suite with the separate bedroom.  Costs a bit more, but well worth it if there will be more than one of you, and you will be here for awhile.  Has a pull out sofa and two TVs.  
+Lovely...My first review with Trip Advisor.  I just had to give a shout out to Lauriee, the manager, and her wonderful, cheerful staff here at Candlewood Suites in Lake Forest.My husband, myself and our 50 pound dog are in the process of relocating to Orange County from Canada.  We needed a place to stay for several weeks while we were look for a house.  After reading other Trip Advisor reviews, and going on the Candlewood website, I decided that this hotel had a lot going for it like a FULL kitchen with two-burner stove and dishwasher.  They even let us borrow a toaster over to bake something for dinner.  The bathrooms are really clean and spacious. Bed is very comfortable.  Everything is remodelled.  Everyone here is so helpful.  We needed some documents printed and the front desk has helped us with this several times for a very reasonable rate per page.  The rooms are cleaned weekly, but you can exchange towels and sheets whenever you need them.  You can borrow DVDs from the front desk, buy snacks on site, free coffee, and the laundry is free of charge with many machines.  Safe parking lot and very quiet area.  I recommend the suite with the separate bedroom.  Costs a bit more, but well worth it if there will be more than one of you, and you will be here for awhile.  Has a pull out sofa and two TVs.  Lovely park called Rancho Serrano just up the street for walking your dog.  Nice pathways all  around this area of Lake Forest.  If you have a car, there are lots of restaurants along El Toro Road about 5 minutes drive.  Otherwise, there are Starbucks, McDonald's, KFC, El Pollo Loco, Quiznos and two sushi places that you can walk to in just a few minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>My first review with Trip Advisor.  I just had to give a shout out to Lauriee, the manager, and her wonderful, cheerful staff here at Candlewood Suites in Lake Forest.
+My husband, myself and our 50 pound dog are in the process of relocating to Orange County from Canada.  We needed a place to stay for several weeks while we were look for a house.  After reading other Trip Advisor reviews, and going on the Candlewood website, I decided that this hotel had a lot going for it like a FULL kitchen with two-burner stove and dishwasher.  They even let us borrow a toaster over to bake something for dinner.  The bathrooms are really clean and spacious. Bed is very comfortable.  Everything is remodelled.  
+Everyone here is so helpful.  We needed some documents printed and the front desk has helped us with this several times for a very reasonable rate per page.  
+The rooms are cleaned weekly, but you can exchange towels and sheets whenever you need them.  You can borrow DVDs from the front desk, buy snacks on site, free coffee, and the laundry is free of charge with many machines.  Safe parking lot and very quiet area.  
+I recommend the suite with the separate bedroom.  Costs a bit more, but well worth it if there will be more than one of you, and you will be here for awhile.  Has a pull out sofa and two TVs.  
+Lovely...My first review with Trip Advisor.  I just had to give a shout out to Lauriee, the manager, and her wonderful, cheerful staff here at Candlewood Suites in Lake Forest.My husband, myself and our 50 pound dog are in the process of relocating to Orange County from Canada.  We needed a place to stay for several weeks while we were look for a house.  After reading other Trip Advisor reviews, and going on the Candlewood website, I decided that this hotel had a lot going for it like a FULL kitchen with two-burner stove and dishwasher.  They even let us borrow a toaster over to bake something for dinner.  The bathrooms are really clean and spacious. Bed is very comfortable.  Everything is remodelled.  Everyone here is so helpful.  We needed some documents printed and the front desk has helped us with this several times for a very reasonable rate per page.  The rooms are cleaned weekly, but you can exchange towels and sheets whenever you need them.  You can borrow DVDs from the front desk, buy snacks on site, free coffee, and the laundry is free of charge with many machines.  Safe parking lot and very quiet area.  I recommend the suite with the separate bedroom.  Costs a bit more, but well worth it if there will be more than one of you, and you will be here for awhile.  Has a pull out sofa and two TVs.  Lovely park called Rancho Serrano just up the street for walking your dog.  Nice pathways all  around this area of Lake Forest.  If you have a car, there are lots of restaurants along El Toro Road about 5 minutes drive.  Otherwise, there are Starbucks, McDonald's, KFC, El Pollo Loco, Quiznos and two sushi places that you can walk to in just a few minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r148283983-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>148283983</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Residing here on business while looking to relocate.  Outstanding value.   Clean and recently updated rooms.  Perfect location.  Professional management and courteous staff.  Good place to stay for the business traveler.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r145254763-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>145254763</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Candlewood Suites Orange County/ Irvine East</t>
+  </si>
+  <si>
+    <t>The hotel is geared to those who stay at least a week.  If you do, the prices are lower.  The rooms are clean, but there is no maid service except for one day a week.  Each room has a full kitchen with stove, refrigerator and utensils for cooking and eating.  The staff are helpful and courteous.  The hotel is quiet and is set back from Bake Parkway.There are fast-food restaurants nearby, including a Pollo Loco, McDonalds and others.  A supermarket is not far away.  I have stayed at this hotel a number of times and discovered that they have had a recent renovation of the rooms and facility.  While there is no swimming pool, there is an exercise room and laundry along with snack machines.I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>The hotel is geared to those who stay at least a week.  If you do, the prices are lower.  The rooms are clean, but there is no maid service except for one day a week.  Each room has a full kitchen with stove, refrigerator and utensils for cooking and eating.  The staff are helpful and courteous.  The hotel is quiet and is set back from Bake Parkway.There are fast-food restaurants nearby, including a Pollo Loco, McDonalds and others.  A supermarket is not far away.  I have stayed at this hotel a number of times and discovered that they have had a recent renovation of the rooms and facility.  While there is no swimming pool, there is an exercise room and laundry along with snack machines.I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r137217461-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>137217461</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>Very friendly and nice room</t>
+  </si>
+  <si>
+    <t>Very nice staff.,very clean room with full kitchen, I was really impressed that everything I would need would be there,Location is very quite and safe and close to the nice beaches in orange county.thank you shally and manager for your help</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r135460224-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>135460224</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Great location for Orange County business trip</t>
+  </si>
+  <si>
+    <t>Great location for Orange County business trip. Reasonable prices and clean large room. Everything worked as it should and had a great nights sleep. Will definitely return when I visit OC again. Wish it had a bar/restaurant just for convenience - but then the kitchen always had something to eat on hand.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r133796516-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>133796516</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>tryed to bill me twice hopefully i will get charges back on my credit card</t>
+  </si>
+  <si>
+    <t>room was nice faucilitys good laundry fitness center my wife and i stayed here a week but was billed 2x for room i paid on priceline a month ago they kept 500 deposit and added 122.70 hopefully i will get refund girl at office said lack of communication somebody ought to know whats going on i feel like i as pan handled</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r121606288-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>121606288</t>
+  </si>
+  <si>
+    <t>12/10/2011</t>
+  </si>
+  <si>
+    <t>Candlewood Suites, Lake Forest, CA</t>
+  </si>
+  <si>
+    <t>The Hotel is under renovation.  There was noise.  The water pipes busted in the hall and the evening before we left there was a flood in the bathroom of the unit above us on the 3rd floor and it came through the ceiling in our bathroom and flooded the floor.  It was the first hotel I ever stayed at that did not have daily maid service.  They said they change the bedding and the towels on the day you arrive and if you want clean bedding and towels you have to take the dirty ones  to the front desk for exchange.  There were no other amenitives other than a laundry room and snack machine area.  For what we paid for the room I felt it was unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded December 12, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2011</t>
+  </si>
+  <si>
+    <t>The Hotel is under renovation.  There was noise.  The water pipes busted in the hall and the evening before we left there was a flood in the bathroom of the unit above us on the 3rd floor and it came through the ceiling in our bathroom and flooded the floor.  It was the first hotel I ever stayed at that did not have daily maid service.  They said they change the bedding and the towels on the day you arrive and if you want clean bedding and towels you have to take the dirty ones  to the front desk for exchange.  There were no other amenitives other than a laundry room and snack machine area.  For what we paid for the room I felt it was unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r121142412-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>121142412</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Def use signs for Do Not Disturb</t>
+  </si>
+  <si>
+    <t>I love this hotel, absolutely, but just a tip, if you are planning on sleeping in and don't want to be disturbed, be sure to put the sign on the outside of the door. That way staff will know not to knock while you're nursing a hangover :P</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r120997892-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>120997892</t>
+  </si>
+  <si>
+    <t>11/24/2011</t>
+  </si>
+  <si>
+    <t>Good value hotel</t>
+  </si>
+  <si>
+    <t>My son and I stayed here overnight.  1 bdr suite had a private bedroom, large sitting area with a double sofa bed and a full kitchen.  The room was clean.  The staff friendly and helpful.  Not many shops around.  Great place for value!</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r115142320-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>115142320</t>
+  </si>
+  <si>
+    <t>07/07/2011</t>
+  </si>
+  <si>
+    <t>Homeless Voucher Recipients Monopolize This Property</t>
+  </si>
+  <si>
+    <t>Beware:  Stay here only if you don't mind paying for your own room while subsidizing what seem to be homeless Section 8 voucher recipients and what the front desk politely refers to as "long-term guests." 
+We stayed in this motel because it allowed pets.  We arrived and were immediately greeted by two dogs off leash, rushing towards our caged pet birds and hands full of luggage.  The dogs' owner, whom we later learned was one of the taxpayer-subsidized occupants, did nothing to control the dogs.  
+At 10:30 a.m. these freeloading guests staked a claim to the only barbeque area, along with the benches for that wing of the motel, and completely monopolized this area for 12+ hours.  While outside they drank liquor and beer, barbequed constantly, and filed every nearby garbage can inside and outside with Krispy Kreme donut boxes and beer bottles as they watched people come and go. They also let their dogs be off-leash, played a radio, strummed guitars and sang until almost 11:00 p.m., when they were finally escorted back to their rooms after our second complaint.
+The on-duty desk clerk to whom we first complained completely minimized our concerns, saying they were partying because they were long-term guests who had formed close bonds with other long-term guests, it was the 4th of July, and that basically they had priority over other paying guests.  We told her their noise level is not allowed at any motel...Beware:  Stay here only if you don't mind paying for your own room while subsidizing what seem to be homeless Section 8 voucher recipients and what the front desk politely refers to as "long-term guests." We stayed in this motel because it allowed pets.  We arrived and were immediately greeted by two dogs off leash, rushing towards our caged pet birds and hands full of luggage.  The dogs' owner, whom we later learned was one of the taxpayer-subsidized occupants, did nothing to control the dogs.  At 10:30 a.m. these freeloading guests staked a claim to the only barbeque area, along with the benches for that wing of the motel, and completely monopolized this area for 12+ hours.  While outside they drank liquor and beer, barbequed constantly, and filed every nearby garbage can inside and outside with Krispy Kreme donut boxes and beer bottles as they watched people come and go. They also let their dogs be off-leash, played a radio, strummed guitars and sang until almost 11:00 p.m., when they were finally escorted back to their rooms after our second complaint.The on-duty desk clerk to whom we first complained completely minimized our concerns, saying they were partying because they were long-term guests who had formed close bonds with other long-term guests, it was the 4th of July, and that basically they had priority over other paying guests.  We told her their noise level is not allowed at any motel and that if we are paying guests (not to mention we are paying for them, too), we expect to have the full use of the property and the quiet enjoyment of such.The only things good about this hotel are that it is located in a convenient part of Orange County, is in an office/ light industrial and residential part of Lake Forest, with plenty of places to walk.  Because the homeless voucher program is becoming widespread, especially in California, any hotel or hotel chain accepting government payments should show enough respect towards their paying guests to disclose this fact.  This way, paying guests can choose whether to pay for a vacation or business stay in the same place where, as taxpayers, they are also paying for others to stay for free.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>IHGCare, IHG Care at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded July 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2011</t>
+  </si>
+  <si>
+    <t>Beware:  Stay here only if you don't mind paying for your own room while subsidizing what seem to be homeless Section 8 voucher recipients and what the front desk politely refers to as "long-term guests." 
+We stayed in this motel because it allowed pets.  We arrived and were immediately greeted by two dogs off leash, rushing towards our caged pet birds and hands full of luggage.  The dogs' owner, whom we later learned was one of the taxpayer-subsidized occupants, did nothing to control the dogs.  
+At 10:30 a.m. these freeloading guests staked a claim to the only barbeque area, along with the benches for that wing of the motel, and completely monopolized this area for 12+ hours.  While outside they drank liquor and beer, barbequed constantly, and filed every nearby garbage can inside and outside with Krispy Kreme donut boxes and beer bottles as they watched people come and go. They also let their dogs be off-leash, played a radio, strummed guitars and sang until almost 11:00 p.m., when they were finally escorted back to their rooms after our second complaint.
+The on-duty desk clerk to whom we first complained completely minimized our concerns, saying they were partying because they were long-term guests who had formed close bonds with other long-term guests, it was the 4th of July, and that basically they had priority over other paying guests.  We told her their noise level is not allowed at any motel...Beware:  Stay here only if you don't mind paying for your own room while subsidizing what seem to be homeless Section 8 voucher recipients and what the front desk politely refers to as "long-term guests." We stayed in this motel because it allowed pets.  We arrived and were immediately greeted by two dogs off leash, rushing towards our caged pet birds and hands full of luggage.  The dogs' owner, whom we later learned was one of the taxpayer-subsidized occupants, did nothing to control the dogs.  At 10:30 a.m. these freeloading guests staked a claim to the only barbeque area, along with the benches for that wing of the motel, and completely monopolized this area for 12+ hours.  While outside they drank liquor and beer, barbequed constantly, and filed every nearby garbage can inside and outside with Krispy Kreme donut boxes and beer bottles as they watched people come and go. They also let their dogs be off-leash, played a radio, strummed guitars and sang until almost 11:00 p.m., when they were finally escorted back to their rooms after our second complaint.The on-duty desk clerk to whom we first complained completely minimized our concerns, saying they were partying because they were long-term guests who had formed close bonds with other long-term guests, it was the 4th of July, and that basically they had priority over other paying guests.  We told her their noise level is not allowed at any motel and that if we are paying guests (not to mention we are paying for them, too), we expect to have the full use of the property and the quiet enjoyment of such.The only things good about this hotel are that it is located in a convenient part of Orange County, is in an office/ light industrial and residential part of Lake Forest, with plenty of places to walk.  Because the homeless voucher program is becoming widespread, especially in California, any hotel or hotel chain accepting government payments should show enough respect towards their paying guests to disclose this fact.  This way, paying guests can choose whether to pay for a vacation or business stay in the same place where, as taxpayers, they are also paying for others to stay for free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r113312980-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>113312980</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Preferred Getaway</t>
+  </si>
+  <si>
+    <t>I love going to this hotel just to get away from the hustle and bustle of every day life from time to time. The rooms are like mini apartments, and the staff is always friendly and helpful!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r102039092-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>102039092</t>
+  </si>
+  <si>
+    <t>03/29/2011</t>
+  </si>
+  <si>
+    <t>Very noisy and difficult to sleep.</t>
+  </si>
+  <si>
+    <t>We were very unhappy with our stay here.  When we arrived, the room temperature was 78 degrees.  We found out why when we turned on the a/c and discovered that it was unbelievably loud.  Every time it cycled on during the night, we woke up.  There were also loud bangs periodically outside our room - we don't know what they were but they were highly disruptive (they went on ALL NIGHT).  The location is surprising for a hotel.  It is surrounded by non-retail offices and manufacturing, also car repair places.  Across the street is a large empty(?) area that is fenced in with barbed wire around the top.  We will definitely not stay here again and we do NOT recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>We were very unhappy with our stay here.  When we arrived, the room temperature was 78 degrees.  We found out why when we turned on the a/c and discovered that it was unbelievably loud.  Every time it cycled on during the night, we woke up.  There were also loud bangs periodically outside our room - we don't know what they were but they were highly disruptive (they went on ALL NIGHT).  The location is surprising for a hotel.  It is surrounded by non-retail offices and manufacturing, also car repair places.  Across the street is a large empty(?) area that is fenced in with barbed wire around the top.  We will definitely not stay here again and we do NOT recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r88402864-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>88402864</t>
+  </si>
+  <si>
+    <t>11/28/2010</t>
+  </si>
+  <si>
+    <t>Nice Extended Stay Hotel</t>
+  </si>
+  <si>
+    <t>I was there in Candlewood for an extended stay of 3 months for a business purpose. It was an ok type of experience, they had all type of facilities for extended stay like utensils, cookware, microwave, hot plate, a good Gym etc.The only problem is cleaning part of the rooms they only send the house keeping every week untill unless requested. Also if tried to cook indian food, the smoke disturbs everyone around :)But in the end  I would say it is definitely worth for the money.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r78628323-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>78628323</t>
+  </si>
+  <si>
+    <t>09/07/2010</t>
+  </si>
+  <si>
+    <t>it sure worth the money</t>
+  </si>
+  <si>
+    <t>Well, I just wanted to thank all the front office staff for their cooperation and the friendly atmosphere they showed me during our stay there for over 55 days which never happened before in a hotel but I started to get used to that hotel there and wanted to go back again whenever I’m in California (funny that I started to plan for some of my friends so they can be there as well) Well it’s a cozy hotel with a nice room specially that I booked the 2 rooms deal with the full kitchen facilities along with the BBQ facilities at the hotel end.It was clean, ppl were friendly, even guests were friendly that’s why my wife felt safe in a way and what else I can ask for right with as little money as I paid for advance purchase booking along with our young sonIt can be the perfect home away from home for anyone who will be in Orange County for whatever reasonsThank you Serge and thank all your fellow workers for our memorable stay and special hi from the young son of mine to you MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Well, I just wanted to thank all the front office staff for their cooperation and the friendly atmosphere they showed me during our stay there for over 55 days which never happened before in a hotel but I started to get used to that hotel there and wanted to go back again whenever I’m in California (funny that I started to plan for some of my friends so they can be there as well) Well it’s a cozy hotel with a nice room specially that I booked the 2 rooms deal with the full kitchen facilities along with the BBQ facilities at the hotel end.It was clean, ppl were friendly, even guests were friendly that’s why my wife felt safe in a way and what else I can ask for right with as little money as I paid for advance purchase booking along with our young sonIt can be the perfect home away from home for anyone who will be in Orange County for whatever reasonsThank you Serge and thank all your fellow workers for our memorable stay and special hi from the young son of mine to you More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r75214730-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>75214730</t>
+  </si>
+  <si>
+    <t>08/14/2010</t>
+  </si>
+  <si>
+    <t>Bad service, rooms not cleaned properly</t>
+  </si>
+  <si>
+    <t>We stayed for the weekend while visiting some friends in the area. We tought this hotel sounded good online but it was the opposite once we checked in. The service is ridiculous! the staff couldn't direct me to restaurants near by. The room had a musty smell and the staff did not celan properly. We found food in the fridge and  trash was not taken out.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r17479883-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>17479883</t>
+  </si>
+  <si>
+    <t>07/02/2008</t>
+  </si>
+  <si>
+    <t>Great value &amp; location, basic &amp; comfortable</t>
+  </si>
+  <si>
+    <t>Great location minutes from major freeways, Orange County (John Wayne) airport, Laguna Beach, hiking/biking trails and plenty of grocery shopping and to-go food.The property is quiet, safe and very clean. It feels like it needs an update - it reminded me of my first apartment (old faux-wood finish cabinets, popcorn/acoustic ceilings, bad old carpet, bad decor, ancient 80's-print shower curtain, 1-ply toilet paper, ancient blow-dryer, etc.). That said, it was VERY clean and I had everything I needed.I had a 3rd floor unit facing north-ish, so felt safe with my window wide open watching the sun set each night. The addition of some candles and decor helped.The kitchen was well-stocked and everything was very clean. I used everything in the kitchen, and the pantry downstairs comes in handy for emergencies. Bring or buy salt and pepper!Overall very good value for the price and a great experience;...but would love to see some updating of the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>Great location minutes from major freeways, Orange County (John Wayne) airport, Laguna Beach, hiking/biking trails and plenty of grocery shopping and to-go food.The property is quiet, safe and very clean. It feels like it needs an update - it reminded me of my first apartment (old faux-wood finish cabinets, popcorn/acoustic ceilings, bad old carpet, bad decor, ancient 80's-print shower curtain, 1-ply toilet paper, ancient blow-dryer, etc.). That said, it was VERY clean and I had everything I needed.I had a 3rd floor unit facing north-ish, so felt safe with my window wide open watching the sun set each night. The addition of some candles and decor helped.The kitchen was well-stocked and everything was very clean. I used everything in the kitchen, and the pantry downstairs comes in handy for emergencies. Bring or buy salt and pepper!Overall very good value for the price and a great experience;...but would love to see some updating of the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r12645823-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>12645823</t>
+  </si>
+  <si>
+    <t>01/15/2008</t>
+  </si>
+  <si>
+    <t>Great extended stay hotel</t>
+  </si>
+  <si>
+    <t>I was in Irvine for over a month on business and stayed at this property.  It was ideal.  The room has plenty of space to get comfortable and make it your home away from home.  The pricing was quite reasonable.  I stayed in a 1 bedroom suite and loved the extra elbow room.  You have a full sized fridge with an ice maker (so you don't have to go down the hall for ice), a microwave and two burner stove (no oven though). It comes equipped with enough cooking utensils to get by relatively comfortably.  You can check out a toaster oven for a day for free or borrow BBQ tools to use on the outdoor gas BBQ for a nice steak dinner.  They have a decent exercise room, videos &amp; DVDs to borrow for free, free laundry facilities and a mini-grocery "store" onsite.  Since it is an extended stay hotel they only have weekly maid service and they don't have someone at the front desk 24 hours a day - however, if you have a problem there is someone you can contact (I never needed to).The front desk staff was very helpful when I was trying to find places in the area.  They happily did searches online and printed directions.  They also gave me some great recommendations for restaurants.If I need to go back to Irvine for work I would definitely plan to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>I was in Irvine for over a month on business and stayed at this property.  It was ideal.  The room has plenty of space to get comfortable and make it your home away from home.  The pricing was quite reasonable.  I stayed in a 1 bedroom suite and loved the extra elbow room.  You have a full sized fridge with an ice maker (so you don't have to go down the hall for ice), a microwave and two burner stove (no oven though). It comes equipped with enough cooking utensils to get by relatively comfortably.  You can check out a toaster oven for a day for free or borrow BBQ tools to use on the outdoor gas BBQ for a nice steak dinner.  They have a decent exercise room, videos &amp; DVDs to borrow for free, free laundry facilities and a mini-grocery "store" onsite.  Since it is an extended stay hotel they only have weekly maid service and they don't have someone at the front desk 24 hours a day - however, if you have a problem there is someone you can contact (I never needed to).The front desk staff was very helpful when I was trying to find places in the area.  They happily did searches online and printed directions.  They also gave me some great recommendations for restaurants.If I need to go back to Irvine for work I would definitely plan to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r8884756-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>8884756</t>
+  </si>
+  <si>
+    <t>09/23/2007</t>
+  </si>
+  <si>
+    <t>I regret I chose this hotel.</t>
+  </si>
+  <si>
+    <t>We stayed at Candlewood Suites East Irvine on 8/3-8/6,2007 and it has been nothing but a disappointment. 
+1.The hotel description on Orbitz said that it had a pool, and it was the main reason I chose the hotel for my daughter and me. It didn't. 2.There was a renovation work being done directly upstairs from our room and we had to hear the awfully loud drilling noise during our stay. We requested the room change but the front person kept saying he would ask the carpenters to reduce the noise. It didn't help. 3. I left my AC adapter in the room when we checked out and I drove all the way back to the hotel from Torrance to retreive it on the same day. The front person said that Lost and Found Box was locked and he didn't have the key. He said that I could ask the management to send it to me. However, I was leaving for Japan and I really needed the adapter then. He said it was my my fault (which I agreed) but his attitude really bothered me as a customer. I drove all the way back to Torrance and ended up purchasing a 135.00 AC adapter at the Office Max. 4.Lastly, I called the management when I came back from Japan and asked them to send my AC adapter to NY. I gave them my debit card info and specifically requested that it...We stayed at Candlewood Suites East Irvine on 8/3-8/6,2007 and it has been nothing but a disappointment. 1.The hotel description on Orbitz said that it had a pool, and it was the main reason I chose the hotel for my daughter and me. It didn't. 2.There was a renovation work being done directly upstairs from our room and we had to hear the awfully loud drilling noise during our stay. We requested the room change but the front person kept saying he would ask the carpenters to reduce the noise. It didn't help. 3. I left my AC adapter in the room when we checked out and I drove all the way back to the hotel from Torrance to retreive it on the same day. The front person said that Lost and Found Box was locked and he didn't have the key. He said that I could ask the management to send it to me. However, I was leaving for Japan and I really needed the adapter then. He said it was my my fault (which I agreed) but his attitude really bothered me as a customer. I drove all the way back to Torrance and ended up purchasing a 135.00 AC adapter at the Office Max. 4.Lastly, I called the management when I came back from Japan and asked them to send my AC adapter to NY. I gave them my debit card info and specifically requested that it to be sent in a cheapest way possible because I had another AC adapter and I was not in a hurry to receive it. Later I found out it was sent via Overnight(although I didn't receive it until about a week later), and my card was charged for $49. I received a package with my AC adapter along with 2 pieces of men's clothing items I had no idea about. If the package was sent via ground it woud have costed me only $10, according to DHL. It has been a very bad experience with the hotel. I have stayed in many hotels but their service was one of the worst.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>We stayed at Candlewood Suites East Irvine on 8/3-8/6,2007 and it has been nothing but a disappointment. 
+1.The hotel description on Orbitz said that it had a pool, and it was the main reason I chose the hotel for my daughter and me. It didn't. 2.There was a renovation work being done directly upstairs from our room and we had to hear the awfully loud drilling noise during our stay. We requested the room change but the front person kept saying he would ask the carpenters to reduce the noise. It didn't help. 3. I left my AC adapter in the room when we checked out and I drove all the way back to the hotel from Torrance to retreive it on the same day. The front person said that Lost and Found Box was locked and he didn't have the key. He said that I could ask the management to send it to me. However, I was leaving for Japan and I really needed the adapter then. He said it was my my fault (which I agreed) but his attitude really bothered me as a customer. I drove all the way back to Torrance and ended up purchasing a 135.00 AC adapter at the Office Max. 4.Lastly, I called the management when I came back from Japan and asked them to send my AC adapter to NY. I gave them my debit card info and specifically requested that it...We stayed at Candlewood Suites East Irvine on 8/3-8/6,2007 and it has been nothing but a disappointment. 1.The hotel description on Orbitz said that it had a pool, and it was the main reason I chose the hotel for my daughter and me. It didn't. 2.There was a renovation work being done directly upstairs from our room and we had to hear the awfully loud drilling noise during our stay. We requested the room change but the front person kept saying he would ask the carpenters to reduce the noise. It didn't help. 3. I left my AC adapter in the room when we checked out and I drove all the way back to the hotel from Torrance to retreive it on the same day. The front person said that Lost and Found Box was locked and he didn't have the key. He said that I could ask the management to send it to me. However, I was leaving for Japan and I really needed the adapter then. He said it was my my fault (which I agreed) but his attitude really bothered me as a customer. I drove all the way back to Torrance and ended up purchasing a 135.00 AC adapter at the Office Max. 4.Lastly, I called the management when I came back from Japan and asked them to send my AC adapter to NY. I gave them my debit card info and specifically requested that it to be sent in a cheapest way possible because I had another AC adapter and I was not in a hurry to receive it. Later I found out it was sent via Overnight(although I didn't receive it until about a week later), and my card was charged for $49. I received a package with my AC adapter along with 2 pieces of men's clothing items I had no idea about. If the package was sent via ground it woud have costed me only $10, according to DHL. It has been a very bad experience with the hotel. I have stayed in many hotels but their service was one of the worst.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1911,3707 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>164</v>
+      </c>
+      <c r="X18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>178</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>205</v>
+      </c>
+      <c r="X23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" t="s">
+        <v>214</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>222</v>
+      </c>
+      <c r="X25" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" t="s">
+        <v>114</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>238</v>
+      </c>
+      <c r="X27" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>263</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>114</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>278</v>
+      </c>
+      <c r="X33" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>114</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>299</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>300</v>
+      </c>
+      <c r="J36" t="s">
+        <v>301</v>
+      </c>
+      <c r="K36" t="s">
+        <v>302</v>
+      </c>
+      <c r="L36" t="s">
+        <v>303</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>304</v>
+      </c>
+      <c r="O36" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>307</v>
+      </c>
+      <c r="J37" t="s">
+        <v>308</v>
+      </c>
+      <c r="K37" t="s">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>311</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>312</v>
+      </c>
+      <c r="X37" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>316</v>
+      </c>
+      <c r="J38" t="s">
+        <v>317</v>
+      </c>
+      <c r="K38" t="s">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>320</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>321</v>
+      </c>
+      <c r="X38" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>331</v>
+      </c>
+      <c r="J40" t="s">
+        <v>332</v>
+      </c>
+      <c r="K40" t="s">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s">
+        <v>334</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>335</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>337</v>
+      </c>
+      <c r="J41" t="s">
+        <v>338</v>
+      </c>
+      <c r="K41" t="s">
+        <v>339</v>
+      </c>
+      <c r="L41" t="s">
+        <v>340</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>341</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>343</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>344</v>
+      </c>
+      <c r="J42" t="s">
+        <v>345</v>
+      </c>
+      <c r="K42" t="s">
+        <v>346</v>
+      </c>
+      <c r="L42" t="s">
+        <v>347</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>348</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>350</v>
+      </c>
+      <c r="J43" t="s">
+        <v>351</v>
+      </c>
+      <c r="K43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s">
+        <v>353</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>354</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" t="s">
+        <v>358</v>
+      </c>
+      <c r="K44" t="s">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s">
+        <v>360</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>354</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>361</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>362</v>
+      </c>
+      <c r="J45" t="s">
+        <v>363</v>
+      </c>
+      <c r="K45" t="s">
+        <v>364</v>
+      </c>
+      <c r="L45" t="s">
+        <v>365</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>366</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>367</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>368</v>
+      </c>
+      <c r="J46" t="s">
+        <v>369</v>
+      </c>
+      <c r="K46" t="s">
+        <v>370</v>
+      </c>
+      <c r="L46" t="s">
+        <v>371</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>366</v>
+      </c>
+      <c r="O46" t="s">
+        <v>73</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>378</v>
+      </c>
+      <c r="X47" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>381</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>382</v>
+      </c>
+      <c r="J48" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" t="s">
+        <v>385</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>114</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>388</v>
+      </c>
+      <c r="J49" t="s">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s">
+        <v>390</v>
+      </c>
+      <c r="L49" t="s">
+        <v>391</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>392</v>
+      </c>
+      <c r="O49" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" t="s">
+        <v>114</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>399</v>
+      </c>
+      <c r="X50" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>407</v>
+      </c>
+      <c r="O51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>408</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>409</v>
+      </c>
+      <c r="J52" t="s">
+        <v>410</v>
+      </c>
+      <c r="K52" t="s">
+        <v>411</v>
+      </c>
+      <c r="L52" t="s">
+        <v>412</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>413</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>416</v>
+      </c>
+      <c r="J53" t="s">
+        <v>417</v>
+      </c>
+      <c r="K53" t="s">
+        <v>418</v>
+      </c>
+      <c r="L53" t="s">
+        <v>419</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>420</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>422</v>
+      </c>
+      <c r="J54" t="s">
+        <v>423</v>
+      </c>
+      <c r="K54" t="s">
+        <v>424</v>
+      </c>
+      <c r="L54" t="s">
+        <v>425</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>426</v>
+      </c>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>428</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>429</v>
+      </c>
+      <c r="J55" t="s">
+        <v>430</v>
+      </c>
+      <c r="K55" t="s">
+        <v>431</v>
+      </c>
+      <c r="L55" t="s">
+        <v>432</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>433</v>
+      </c>
+      <c r="O55" t="s">
+        <v>114</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>434</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>435</v>
+      </c>
+      <c r="J56" t="s">
+        <v>436</v>
+      </c>
+      <c r="K56" t="s">
+        <v>437</v>
+      </c>
+      <c r="L56" t="s">
+        <v>438</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>439</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>442</v>
+      </c>
+      <c r="J57" t="s">
+        <v>443</v>
+      </c>
+      <c r="K57" t="s">
+        <v>444</v>
+      </c>
+      <c r="L57" t="s">
+        <v>445</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>446</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>448</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>449</v>
+      </c>
+      <c r="J58" t="s">
+        <v>450</v>
+      </c>
+      <c r="K58" t="s">
+        <v>451</v>
+      </c>
+      <c r="L58" t="s">
+        <v>452</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>453</v>
+      </c>
+      <c r="O58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_100.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="511">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Adriana L</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>I arrived to the hotel around 9pm from Boston, no one was at the desk after several hello finally came out. Small lobby and with a weird smell. When I arrive Mike Tawfik couldn't found my reservation after asking me for my name several times. I had had ask him for a Bank of America to go to he said its 10 min from here. After a long flights I was really exhausted so I told him I am here for 2 nights lets me pay cash for event for 3 nights so tomorrow morning after resting so that I can go to the bank because my card has been compromised. With an attitude he said that I should have know about my card before came in to the hotel. I ask him to contact his GM to explain him what is going on "he said I will send him a message and of course not sure what he had told him" I never get a chance to speak with the GM.More</t>
+  </si>
+  <si>
+    <t>Clark D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r547981987-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -227,6 +233,9 @@
 Then on the morning of the day I suppose to check out on the 10th...This used to be my go to place for a room. I really liked the hotel staff and the rooms. I only had 2 problems with the rooms but they always handled it professionally and fixed the problem. I usually stay at the Irvine east or garden grove hotel. Both outstanding But not this time at the Irvine east hotel. I'll start from the beginning and this maybe long.So on November 29th I made an online reservation to candlewood suites Irvine east hotel for December 9th for one night. Then on December 8th I called candlewood Irvine east hotel I needed a room for the night as well as December 9th so need 2 nights. Just add another night to my existing reservations. Not a big deal I didn't think. They said ok great and  set me up for the night and for tomorrow. I got an email confirmation for another night. It showed only one night on the confirmation. So I now have 2 confirmations one for December 8th and the 9th.I check in 3 hours later and the guy didn't know anything about the reservation I made that night for the 8th but he set me up for the night as well as the next day so I got 2 nights and they charged me for 2 nights which is fine.Then on the morning of the day I suppose to check out on the 10th I see I was charged another night on the same night I already was charged. So they obviously charged me for 2 rooms and one room was for 2 nights and one for one night. I did not ask for 2 rooms. I explained it clearly over the phone and when I checked in that I wanted an extra day added to my reservation.So I go check out and explain it to a black guy that works at the front desk that I was charged for 3 nights but I only stayed 2 nights and told him I wanted to add an extra night to reservation. I explained it in full detail on what I wanted and told him that he is the 3rd person here I talked to and explained what I wanted yet still get charged 3 nights when I only stayed 2 nights.The guy was nice and told me no worries that in a couple days that it will be fixed. I said thanks and left. So I waited about 3 days and see that my bank account was officially charged for 3 nights. So the guy was wrong that it would be fixed.I chatted to the main center of candlewood and explained it to them and they told me to call the hotel I was at. So I went back to candlewood and told the person at the desk and the manager there. At least I think he was the manager. But I explained to them the problem and he told me that I can not change an online reservation. And I said I didn't really change it I just wanted 2 nights in the same room. I didn't want to have to move to another room so I wanted another reservation to the same room. That really isn't changing it so not sure what he means. I still wanted the original reservations. How is that changing it. Simply ad another night and another price if needed. It isn't rocket science. So he tells me I should of told them the next morning that I want another day. That makes no sense if I already have reservations for the 9th why would I go in and tell them I'm staying another night? So I get charged 4 nights when I stay only 2 nights. He tells me he is giving me free education on how the the system works about changing online reservations. Think he needs to educate the staff there. They are the ones to agree on adding another night for me.Anyway he told me in the end that since I was unaware of the policy that he will reimburse my money back for one night. 5 days later I yet to see candlewood reimburse me. Wasn't even my mistake. It was the staff at candlewood. But whatever. I guess you aren't allowed to add more nights to your online reservation. I just wanted to keep the same room and have another night but guess it's against some lame policy you can't.Because they stole money out of my account and charged me for 3 nights when I only stayed 2 nights and charged me $50 for a deposit when I checked in and charged me another $50 deposit the next day including the extra room charge of $91 my car payment could not go through my bank account and a result I was charged $35 return check. I had exact amount I needed for my car payment if candlewood didn't steal money from my account. I will never go to a candlewood again or any place associated with them. I used to love going to candlewood and they been the only hotel I go to but not anymore. Unless they comp me a night for any room in the future or reimburse me the money they owe me which is 91 plus 35 then I'll never enter their establishment again and I will never recommend them but if they fix this of course I'll update this and give them 5 stars but I don't see it happening.More</t>
   </si>
   <si>
+    <t>Rick C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r530039171-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -251,6 +260,9 @@
     <t>Candlewood is a extended stay type of hotel. We only stayed for two nights, but that's OK with them. It's in a quiet location off the main street and same ways away from the main freeways. But close to local businesses, shopping, and entertainment. The first thing that is noticeable is the lobby area could use some modernizing. It reminds me of a hospitals nurses station. But the staff was super friendly. the rooms offer a large office style desk, a refrigerator/freezer, microwave, dishwasher, assorted pots, pans, dishware and utilizes. If you need a small appliance, them have them for loan. The box spring mattress in our room was shot, but the staff said the foam mattress are new. And like most hotels with refrigerators, it was a little noisy. And finally!! A maintenance staff the knows how the adjust the door closer so they don't slam!!More</t>
   </si>
   <si>
+    <t>Migdalia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r492852935-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -269,6 +281,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>SusannaFN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r485119668-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -287,6 +302,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>mr7718</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r479325301-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -302,6 +320,9 @@
     <t>Free laundry and honor system for food and snacks. This hotel is great! Fantastic staff, super clean and comfortable hotel.  Probably the best hotel in the area .  If you were staying in the area this is the place to go to</t>
   </si>
   <si>
+    <t>rafa d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r442624405-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -323,6 +344,9 @@
     <t>I recently experienced a 2 night stay here and was pleasantly surprised by the comfort and feel of the room.  I read that the rooms were remodeled in 2012 and I have to say they are holding up well, at least my room anyway.  I didn't use the kitchenette at all besides the micro to pop the free popcorn and that worked well!  The room decor, although not hip, is updated and comfortable and I slept very well both nights with outside noise being minimal even sleeping with the window open.  I was facing the parking lot and most guests seem to settle in by around 10 p.m. on the weekdays I was there.  They gym was average and a good size to not feel cramped if more than 2 people are in there.Overall, I would stay there again if I had business in the area.  The front desk people were courteous and efficient.More</t>
   </si>
   <si>
+    <t>nashvilleguy42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r438312966-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -350,6 +374,9 @@
     <t>I forgot to take a picture of the thermostat, but it had a motion sensor on it.  It was set to turn off when you were not in the room.  However, it was on a wall that was not facing the bed.  So it would turn off while you were asleep.  I ended up opening the window for some cool air.  Otherwise it would get up to 80 degrees at night, unless i got up and walked across the room so the sensor would kick on the ac.The room the gave me was a handicap accessible room.  Large shower with a bench and hose.They did have a pantry, free dvds to borrow, free appliances like blenders to borrow, and board games to borrow.  The hotel was in a great area.  Mcdonalds is close by.  Many other options within a 5-10 min drive.I just wish the ac was friendlier.More</t>
   </si>
   <si>
+    <t>Sandy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r436964248-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -374,6 +401,9 @@
     <t>On May 20th, me and my husband traveled from Las Vegas back to LA and check-in "Motel 6". It was an awful night. (too much noise + no enough furniture except 2 twin beds) We moved to Candlewood Suites, Lake Forest next day noon. It felt just like going back our own home in Taiwan. They got everything we need - A small kitchen with all the tableware/pots &amp; pans/microwave/frig./coffee machine... A big shower room with towels for 4 people. A master bedroom with a queen size bed. TV + DVD player + Sofabed in living room... still got plenty of spaces to put our luggages. They also have a big parking lot in front. The guy at front desk was very friendly and helpful. They also got lots of electrical appliances/books/TV games/DVD you may borrow if you need them during your stay. Laundry room &amp; Gym of course and canteen is very convenience. Some may charge, some don't. (Breakfast is not included but since you have own kitchen, you can do/buy any breakfast, lunch, dinner you like).Everything is very clean and well managed. We enjoyed staying here so we extended the stay from 3 to 8 days.Overall, I think this place is the best hotel/suite we ever stayed (reasonable rate). We will be staying at their chain no matter which city we travel in future for sure. We hope you have a great journey as we did.More</t>
   </si>
   <si>
+    <t>Jonathannp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r414988378-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -401,6 +431,9 @@
     <t>Was given a hard time after being charged twice on my credit card. I was not the only person who faced this issue. The issue got resolved on its own on the last day but I went through hell for more than 10 days with no real help.More</t>
   </si>
   <si>
+    <t>AdrianDale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r401672046-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -419,6 +452,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Soccertraveler2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r396329784-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -446,6 +482,9 @@
     <t>They desk staff was friendly and helpful.  It was just too loud there ask for non smoking room but we are pretty sure it had been smoked it.  It was not a typical Marriott stay which I'm accustomed to but it was not the worst either.  I would not stay again but if you are just look for a place to lay your head for a night, it is fine for that.More</t>
   </si>
   <si>
+    <t>baker4569</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r366179288-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -464,6 +503,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Russ J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r356550124-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -482,6 +524,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Achiguamo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r355127664-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -498,6 +543,9 @@
   </si>
   <si>
     <t>February 2016</t>
+  </si>
+  <si>
+    <t>TravelTechPenngrove</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r337713506-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -531,6 +579,9 @@
 The hotel has free washers and dryers, nice ones.  They have an excellent exercise room with all kinds of machines.  We really appreciated the "honor store" which was like a little...We had stayed here for three years during Thanksgiving holiday.  We visit friends in the area and this has been our base camp.  This is a three story hotel in a "L" configuration.  It is easy to find. We like it for several reasons.  It is easy to get to from the 5 or the 405 (of course those freeways are always jammed).  The hotel is on the edge of a business park (the businesses are closed during Thanksgiving). It has not been crowded when we stayed, they have a few regulars like the ambulance company that have been there for a couple of years and usually some construction companies.  The rooms are like small apartments.  The kitchen has a full size refrigerator and a microwave.  No oven but they do have two large BBQ units outside with burners.  It has enough plates, silverware and kitchen utensils to get you started. If you need something more they will loan it to you at the front desk.  The room has plenty of space.  The television was a good size and offered tons of channels.  The bathroom had a tub shower combo.  The bed was fine although the pillows were like giant rocks.  The room was very clean and everything worked. The hotel has free washers and dryers, nice ones.  They have an excellent exercise room with all kinds of machines.  We really appreciated the "honor store" which was like a little convenience store open 24/7.  You took what you needed and filled out a card to track your spending.  It is stocked with all kinds of things, a lot of junk food but they also had things like Weight Watchers frozen meals.  The prices are same as a convenience store.  There is an outdoor area for walking the dog and also a covered BBQ area with two big BBQs.  They have a loaning library so if you want a board game, movie, book or deck of cards, they have all kinds of stuff.  If you need anything else, just ask at the desk.  They really are good about loaning items to make the stay easy and enjoyable.  There are restaurants and stores within walking distance and it is easy to access Lake Forest or the surrounding area.  Now for things that changed this year.  The first thing we noticed driving in was a dozen people in front smoking.  They used to have smoking on the third floor and I almost wish they would have left that alone.  Now you have people going in and out to smoke and leaving a trail of smoke in the elevator.  Plus the designated smoking area is where the BBQs sit.  You want to BBQ and eat outdoors you will probably share it with smokers and that is their area.  Our room had an old style HVAC unit under a window.  The first night the noise from that was unbelievable.  Thank goodness the windows opened and we didn't use it at night after that.  The other thing was the refrigerator.  It cycled frequently and it also made a hell of a racket.  We turned it off when we went to bed and it held cold until morning so that worked out.  Having the windows open kept the room nice and the only problem was finding out the trash is collected pre dawn Friday from the businesses in back.  The guy on the truck throws those big dumpsters around and we both shot right out of bed.  The windows closed would normally eliminate that.  I don't know that kids would work out, not little ones anyway.  No pool and not much to do.  Not a good idea to let them loose in the exercise room or the store.  If they are happy with television, games, books then it probably would work for you.  It is set up for long term stays and I have no idea what the regular season use is like but for the Thanksgiving holiday week, it is just perfect.More</t>
   </si>
   <si>
+    <t>Christel88_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r336237602-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -549,6 +600,9 @@
     <t>I spent two months there whilst working at my company's headquarters in Lake Forest.I stayed in one of their one bed apartment and really enjoyed my stay.  The one bedder was spacious, well equipped and kept clean.  It was quiet and I could get on with my work. There is a little gym with the essential equipment, a laundry room and a little store. The staff were friendly and helpful. There are plenty of shops nearby but of course the use of a car is required like anywhere else in the US. I will happily go back there if necessary. And recommend it to anyone who needs to stay in the area for an extended period of time but make sure you upgrade to the one bedder for a truly pleasant stay!More</t>
   </si>
   <si>
+    <t>Bart J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r319539637-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -567,6 +621,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Paul R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r308796076-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -594,6 +651,9 @@
     <t>We arrived at the Candlewood Suites at 11:30 at night because of an airline delay. We checked in and as we were walking down the hall we heard loud music Ok it's going to be one of those stays but as we got a little closer it was coming from our room they just gave us. Did they give us the wrong room and do we need to get security if they have a security person at that time of night and we already had a very long day already. My wife was a little scared so I tried the door anyway the key opened the door hoping the person on the other side of the door didn't have a firearm for protection. I can't believe guests in surrounding room didn't call the front deck before we arrived it was that loud. We went in and it was dark and we turned on the light and someone left the radio on full blast. We did a room check and thank god no one was there. We had a restful sleep the bed was comfortable and it was a nice room. That morning as we are getting ready the plug in the bath didn't work for the blow dryer and the shower curtains was loose because the screw were coming out. I have stayed at many Holiday Inn's and they have been great and this was the first time we staying...We arrived at the Candlewood Suites at 11:30 at night because of an airline delay. We checked in and as we were walking down the hall we heard loud music Ok it's going to be one of those stays but as we got a little closer it was coming from our room they just gave us. Did they give us the wrong room and do we need to get security if they have a security person at that time of night and we already had a very long day already. My wife was a little scared so I tried the door anyway the key opened the door hoping the person on the other side of the door didn't have a firearm for protection. I can't believe guests in surrounding room didn't call the front deck before we arrived it was that loud. We went in and it was dark and we turned on the light and someone left the radio on full blast. We did a room check and thank god no one was there. We had a restful sleep the bed was comfortable and it was a nice room. That morning as we are getting ready the plug in the bath didn't work for the blow dryer and the shower curtains was loose because the screw were coming out. I have stayed at many Holiday Inn's and they have been great and this was the first time we staying at the Candlewood suite. We mention it on check out but they were to busy at the front deck that morning. Maybe I was just unlucky!!  Update! I posted a review on there website and they replied and said they would contact me but that was 2 weeks ago.More</t>
   </si>
   <si>
+    <t>Lloyd_031</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r308608206-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -609,6 +669,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>kate410</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r304686642-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -630,6 +693,9 @@
     <t>Our first visit to Candlewood Suites was better than I expected. The small suite was spacious with a kitchen area with attractive cabinets, sink, apartment fridge and microwave. The room was surprisingly quiet, especially during the week when it seemed many of the people are there in short-term housing. The staff are not at the front desk, but can be reached whenever needed. There is no daily housekeeping, but you can get towels and other items. There is  an outdoor BBQ as well as an area where you can check out items like crock pots. There's also a convenience mini-store with food and snacks. For us the free 24 hour laundry housed down the hall was useful. There is a fitness room too, and it looked like all the equipment worked. Candlewood Suites is a few miles from the intersection of the 5 and 405 freeways, so it was convenient. We decided to try Candlewood Suites based on their pet friendly policy. Our first stay was a success, so we are likely to stay there again.More</t>
   </si>
   <si>
+    <t>Kat Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r286129007-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -654,6 +720,9 @@
     <t>We were extremely disappointed (to say the least) with this hotel in every capacity!  Picked this place because it advertises "pet friendly" - there is one TINY patch of grass in the parking lot with a road on the other side.  We were misinformed of the pet fees (ended up being 75 PER PET), the room was FILTHY - luckily I travel with a bottle of clorox wipes; won't share what I cleaned from the light switch and sink area of the rest room.  There is no ice maker on the property - aside from that in your room which is powered off on default.  I had asked the front desk staff for ice - was told they would bring it outside to us - the young woman I asked never came out, and I learned later that she left for the day after my request - without saying a word.  The front office staff - in general was a bit rude and unaccommodating.  I had asked for a Manager when we checked in (which was noon on Friday) and learned of the pet policy - was informed that there was NO MANAGEMENT on the premises, nor would there be until Monday.  What kind of hotel has zero management presence for over 48 hours?  Had it not been a holiday weekend - (leading to low availability at other hotels in the area) we would have walked out immediately after seeing...We were extremely disappointed (to say the least) with this hotel in every capacity!  Picked this place because it advertises "pet friendly" - there is one TINY patch of grass in the parking lot with a road on the other side.  We were misinformed of the pet fees (ended up being 75 PER PET), the room was FILTHY - luckily I travel with a bottle of clorox wipes; won't share what I cleaned from the light switch and sink area of the rest room.  There is no ice maker on the property - aside from that in your room which is powered off on default.  I had asked the front desk staff for ice - was told they would bring it outside to us - the young woman I asked never came out, and I learned later that she left for the day after my request - without saying a word.  The front office staff - in general was a bit rude and unaccommodating.  I had asked for a Manager when we checked in (which was noon on Friday) and learned of the pet policy - was informed that there was NO MANAGEMENT on the premises, nor would there be until Monday.  What kind of hotel has zero management presence for over 48 hours?  Had it not been a holiday weekend - (leading to low availability at other hotels in the area) we would have walked out immediately after seeing the room. Also just noticed the photo shown below of a room - our room looked NOTHING like this... It was dingy, outdated and equipped for handicap access (which we are not) - and overall extremely unpleasant to be in - given the bigger set of circumstances.Will not return for a multitude of reasons.....More</t>
   </si>
   <si>
+    <t>Break_of_day</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r270275456-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -678,6 +747,9 @@
     <t>I stayed here with a group of friends coming back from a trip to Mexico.  We had a total of four suites.  Since we were dog-tired and I had chosen the hotel, I was a hopeful that everyone would be happy with our rooms. We were!  Check in was a breeze; the girl working the desk was pleasant and answered all our questions.  She showed us a list of dvds we could check out for free.  They also offered free washer/dryer services, books, gym, and board games.  The room was not that big, but was clean and the bed was comfy.  The kitchenette had everything needed to make a meal; a sign posted offered a blender or any other kitchen appliance needed from the front desk.  The bathroom was clean and had a nice shower head with great flow.  The only ding they get is that the bathroom sink plug didn't work; my hubby wanted to fill the sink to shave and couldn't get it to stay closed.  If we had been staying more than one night, we would have asked for it to be fixed.More</t>
   </si>
   <si>
+    <t>Ballsdeeep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r248856610-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -705,6 +777,9 @@
     <t>The standard of housekeeping left a lot to be desired. First room we were assigned had not been cleaned since last guest. There were snotty tissues on the couch and smears down the mirrors. Obscene words were also written on the notice board with a biro. The previous guests had also smoked in the room and jammed all the holes in the smoke detector with wet toilet paper to avoid setting it off. Reception was happy to move us to a new, cleaned room. Rest assured it wasn't a good start. No quite as well maintained and presented as others in the chain.  No king beds only doubles presented as queens. Close to shops and I-5. Front door to hotel is only single width and hard to get luggage in. More</t>
   </si>
   <si>
+    <t>PNWtrek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r243218328-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -726,6 +801,9 @@
     <t>I travel to Irvine once or twice a year and have stayed at several of the local hotels over the years. I decided to try the Candlewood suites this time based on the TA reviews and I was not disappointed. I was immediately greeted upon entering by a friendly clerk who informed me that as the hotel was not busy I had been upgraded to a one bedroom suite, a nice touch. The unit was clean and quiet, the décor was nothing fancy but very functional. I would definitely stay here again when in the area. I did have a similar experience as other members in that my GPS did not send me to the right location. It is tucked away behind the hospital so head as if you are going to the emergency entrance and just before you get there you will see Candlewood Suites at the end of the road.More</t>
   </si>
   <si>
+    <t>mariasolis1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r214852006-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -753,6 +831,9 @@
     <t>I have nothing negative to say avout the staff nor the cleanliness of this hotel however, whoever built/designed hotel deserves to be slapped across the face for such poor design and lack of knowledge regarding buildings. This building was poorly built. Everytime someone walked acoss the hall on the floor above us or walked around their own room as any person reasonably expects it was horribly loud. You can hear every single creek and step they took and at 11:30 PM when they dropped their luggage on the floor I was rudely awaken from sleep. At 12:40 AM I grew desperate and called the front desk so I could get some sleep. In additiin there are clack out curtains that only cover half the windows. You just get some sheer sheet covering the rest. Who in the world came up with that idea? I had to use a hanger with clamps to try to shuts the windows somewhat.  It was so bad ny husband and I had to use one day of our three day vacation sleeping to make up for the lack of sleep. When using our bathroom I noticed that the cigarrete smoke from upstairs leaks into our room. The treadmills are also horrible on the knees. I also don't like the fact that they advertise a pool online but no pool is available. In short, until they replace the building or I become a heavy sleeper I...I have nothing negative to say avout the staff nor the cleanliness of this hotel however, whoever built/designed hotel deserves to be slapped across the face for such poor design and lack of knowledge regarding buildings. This building was poorly built. Everytime someone walked acoss the hall on the floor above us or walked around their own room as any person reasonably expects it was horribly loud. You can hear every single creek and step they took and at 11:30 PM when they dropped their luggage on the floor I was rudely awaken from sleep. At 12:40 AM I grew desperate and called the front desk so I could get some sleep. In additiin there are clack out curtains that only cover half the windows. You just get some sheer sheet covering the rest. Who in the world came up with that idea? I had to use a hanger with clamps to try to shuts the windows somewhat.  It was so bad ny husband and I had to use one day of our three day vacation sleeping to make up for the lack of sleep. When using our bathroom I noticed that the cigarrete smoke from upstairs leaks into our room. The treadmills are also horrible on the knees. I also don't like the fact that they advertise a pool online but no pool is available. In short, until they replace the building or I become a heavy sleeper I won't be returning.More</t>
   </si>
   <si>
+    <t>Lunagal2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r213674948-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -777,6 +858,9 @@
     <t>I stayed at this hotel for a couple of nights recently.  Plus points; front desk staff were very polite and helpful plus you have a refrigerator, microwave, dishwasher and small stovetop so if like me you just want to head back to your room and throw something together to eat while you work, it was great.  Minus points; the kitchen and bedroom area is all open plan and the refrigerator was noisy when it kicked in.  It wasn't louder than the AC unit though and I had to deliberate about whether to be woken up because I got too warm or by the noise from the AC.  This is designed for someone staying longer; housekeeping is only once a week which was something I didn't spot before I booked it, so I made my own bed and towels, coffee etc. we're not replaced daily.  They do have coffee on tap downstairs but I wasn't about to go down there at 5.30 in the morning to get my first cup of java!More</t>
   </si>
   <si>
+    <t>tngirly_girl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r202240015-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -804,6 +888,9 @@
     <t>i was told when i made the reservation that i would receive the $22 reservation fee off the price of the hotel at the time of check in. The price of the hotel was to be $79 plus taxes and the $22 would be taken off of that. I was charged $90 at time of check in on the night of 4/18/14. After i looked at the bill on the morning of 4/19/14 i realized that the $22 had not been taken off. When i ask the morning receptionist  why i didn't get the $22 reservation fee off the receptionist said they had never heard of a reservation fee. So in short i ended up paying $120 for a $79 hotel room!!!!  More</t>
   </si>
   <si>
+    <t>D N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r201321824-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -828,6 +915,9 @@
     <t>I stayed here a month ago and was just reminded as I am here in Southern California again, but this time chose to stay at another hotel not far.We had checked in late and was greeted with rude front desk personnel. The rooms were not very clean and seemed that many lights, tv, etc did not work...was told they would come check but never did.Not a good choice.More</t>
   </si>
   <si>
+    <t>Mountainmike55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r200819838-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -846,6 +936,9 @@
     <t>Both my wife and I went to visit her Mom in LA.  We really did not want to head all the way home and be tired the next day so looked for a hotel on the spur of the moment.This hotel is by FAR one of the best we have ever stayed in.  From a Fantastic room that was clean and neat to the Fantastic staff that helped us with all of our requests.This is a LONG STAY hotel, so if you do not mind bringing your towels to the desk , this is perfect.It is in the Irvine Spectrum area, so It is in a business area.  It is about 45 minutes from Disney, but a good place to stay for Disney, Knotts and other LA attractions.I WOULD HIGHLY recommend this hotel to anyone..More</t>
   </si>
   <si>
+    <t>Patrick F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r187096381-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -873,6 +966,9 @@
     <t>I usually like Candlewood Suites. I know what I am getting in to with the extended stay places, but I like the positive trade offs like the mini kitchen.So first the good: The front desk staff I interacted with were great! The room is what you've come to expect, with the exception of two problems that ultimately force me give the rating I am giving.First, there were no dark, heavy blinds. There were some transparent blinds that would shut all the way, but the heavy black out curtains  would not cover the window at all. So whether you like it or not, if sunlight wakes you up, 7 am is your wake up time!Finally, the pillows were downright HORRIBLE! The firm ones were lumpy at best. And the soft ones were almost nonexistent.An added thumbs down is nothing is walking distance. It's a strange area of the OC, very industrial like. And so there isn't a coffee place or other food you can quickly hop out of the hotel to go grab.Candlewoods can be great, but research what you are getting in to. The staff ere is great, but the rooms need some simple upgrades before I can give it a higher rating!More</t>
   </si>
   <si>
+    <t>Amy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r186957342-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -891,6 +987,9 @@
     <t>I stayed here on business for 2weeks.Good side is the suites are equipped with kitchen.However, the room I was given had weird smell like some kind of construction material. On the first night I was greeted by a small roach in bed, which I had to catch and kill. My allergy was triggered either by dust or dustmites. I was charged with some merchandise they sell at their convenience store, where I never even stopped by. I insisted on a refund. It was good that I noticed, otherwise I had to pay without even knowing it. WIFI is often too slow for business use.I don't recommend this hotel to someone who has allergy like me. If you need a place to cook and just sleep at reasonable price, then this hotel may be good.More</t>
   </si>
   <si>
+    <t>dw1968</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r186872977-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -909,6 +1008,9 @@
     <t>Submitted by Julia GnuseIf you're making your holiday plans, be sure to stay with Candlewood Suites - you can't go wrong! I've been staying at the Candlewood Suites Lake Forest since March of this year, and holding down a room at the Candlewood Suites Ft. Myers Sanibel Gateway since August. I can't say enough about the facility - it's clean, comfortable, and modern, and the management and staff always go out of their way provide excellent customer service and to make me feel at home! After leaving the Lake Forest Candlewood soon, I'll be staying with the Candlewood Sanible Gateway for another year or more, treating it just like an apartment, and when I return to California for visits, I'll always stay at the Candlewood Lake Forest. I would like to commend the management and staff at both hotels, including Ash Beshay, General Manager at Candlewood Suites Lake Forest, as well as Dan Berben and Jody Johnson, General Manager and Manager, respectively, at Candlewood Suites Sanibel Gateway. They are all part of why Candlewood Suites is my first choice when traveling for short, medium, or extended stays.More</t>
   </si>
   <si>
+    <t>Sdmjohn71970</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r171915365-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -927,6 +1029,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Mister_Em</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r164200811-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -948,6 +1053,9 @@
     <t>My wife and I stayed here for a week.  We were completely satisfied.  We specifically booked this hotel because of the full kitchen.  There are a several grocery stores nearby and we stocked up when we first arrived.  We liked that the hotel is close to both I-5 and I-405 so getting around the area was easy.  There are restaurants nearby - we enjoyed Mimi's Cafe and the Thai Garden.The only problem we had was that the first room assigned to us was adjacent to smoking rooms, and there was a strong odor of smoke in the hall outside our room.  We asked to be moved and the front desk put us on another floor which seemed to be all non-smoking, so that solved the problem.More</t>
   </si>
   <si>
+    <t>smallhan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r163636397-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -975,6 +1083,9 @@
     <t>It is clean and quiet. That is all that a business trip needs. I saw a lady bringing in her dog though I don't see dog hair in my room. It has a shaky elevator and the license has been expired. Lack of indicator and signs, it was hard for me to locate the elevator.More</t>
   </si>
   <si>
+    <t>nini0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r157695631-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1002,6 +1113,9 @@
     <t>I loved staying in this area as its quiet and decent, the rooms were clean and comfortable. however i woke up to a disturbance at 8-8:30am, housekeeping staff was being very inconsiderate, loud and obnoxious and acting VERY immature in the hallways. its like really??????? who acts like that?  Managers need to train the housekeepers to teach them some manners and be considerate to guests who are trying to relax/sleep. I am probably not coming back.More</t>
   </si>
   <si>
+    <t>Chrispy2day</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r157443883-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1020,6 +1134,9 @@
     <t>I really enjoyed my stay at the Candlewood Suites in Lake Forest.  This was my first stay at a Candlewood Suites so if, like me, you are not familiar with them here's what you need to know. These are geared towards extended stays, so maid service is once a week, there's no restaurant in the hotel or room service.  This isn't the Ritz, so if that's the kind of experience you're looking for, keep searching.However, what you do get is a nice private space with all the things that you need.  There's a kitchenette that's stocked with dishes and full-sized fridge, a spacious desk area, and a bed for your main area.  I found all to be nicely kept and very functional.  The bathroom was actually quite a bit nicer than I had anticipated as well.I was here for work, so for me this was perfect.  As my title states, it felt very much like a home away from home -- my own private space and less like a hotel.  The wireless internet is free (Free!! - pay attention some of you expensive hotel chains!!) and worked flawlessly throughout my stay, even doing a lot of VPN connections to my office.  So I was completely satisfied and will happily stay here next time I'm doing work in the area.More</t>
   </si>
   <si>
+    <t>Reve B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r152573094-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1036,6 +1153,9 @@
   </si>
   <si>
     <t>February 2013</t>
+  </si>
+  <si>
+    <t>ducktollerintheOC</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r149974603-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1069,6 +1189,9 @@
 Lovely...My first review with Trip Advisor.  I just had to give a shout out to Lauriee, the manager, and her wonderful, cheerful staff here at Candlewood Suites in Lake Forest.My husband, myself and our 50 pound dog are in the process of relocating to Orange County from Canada.  We needed a place to stay for several weeks while we were look for a house.  After reading other Trip Advisor reviews, and going on the Candlewood website, I decided that this hotel had a lot going for it like a FULL kitchen with two-burner stove and dishwasher.  They even let us borrow a toaster over to bake something for dinner.  The bathrooms are really clean and spacious. Bed is very comfortable.  Everything is remodelled.  Everyone here is so helpful.  We needed some documents printed and the front desk has helped us with this several times for a very reasonable rate per page.  The rooms are cleaned weekly, but you can exchange towels and sheets whenever you need them.  You can borrow DVDs from the front desk, buy snacks on site, free coffee, and the laundry is free of charge with many machines.  Safe parking lot and very quiet area.  I recommend the suite with the separate bedroom.  Costs a bit more, but well worth it if there will be more than one of you, and you will be here for awhile.  Has a pull out sofa and two TVs.  Lovely park called Rancho Serrano just up the street for walking your dog.  Nice pathways all  around this area of Lake Forest.  If you have a car, there are lots of restaurants along El Toro Road about 5 minutes drive.  Otherwise, there are Starbucks, McDonald's, KFC, El Pollo Loco, Quiznos and two sushi places that you can walk to in just a few minutes.More</t>
   </si>
   <si>
+    <t>Bob C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r148283983-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1087,6 +1210,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>jthomas1139</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r145254763-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1108,6 +1234,9 @@
     <t>The hotel is geared to those who stay at least a week.  If you do, the prices are lower.  The rooms are clean, but there is no maid service except for one day a week.  Each room has a full kitchen with stove, refrigerator and utensils for cooking and eating.  The staff are helpful and courteous.  The hotel is quiet and is set back from Bake Parkway.There are fast-food restaurants nearby, including a Pollo Loco, McDonalds and others.  A supermarket is not far away.  I have stayed at this hotel a number of times and discovered that they have had a recent renovation of the rooms and facility.  While there is no swimming pool, there is an exercise room and laundry along with snack machines.I would stay here again.More</t>
   </si>
   <si>
+    <t>K_singh_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r137217461-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1123,6 +1252,9 @@
     <t>Very nice staff.,very clean room with full kitchen, I was really impressed that everything I would need would be there,Location is very quite and safe and close to the nice beaches in orange county.thank you shally and manager for your help</t>
   </si>
   <si>
+    <t>kes1066</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r135460224-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1141,6 +1273,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>bob n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r133796516-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1156,6 +1291,9 @@
     <t>room was nice faucilitys good laundry fitness center my wife and i stayed here a week but was billed 2x for room i paid on priceline a month ago they kept 500 deposit and added 122.70 hopefully i will get refund girl at office said lack of communication somebody ought to know whats going on i feel like i as pan handled</t>
   </si>
   <si>
+    <t>sal3521</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r121606288-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1183,6 +1321,9 @@
     <t>The Hotel is under renovation.  There was noise.  The water pipes busted in the hall and the evening before we left there was a flood in the bathroom of the unit above us on the 3rd floor and it came through the ceiling in our bathroom and flooded the floor.  It was the first hotel I ever stayed at that did not have daily maid service.  They said they change the bedding and the towels on the day you arrive and if you want clean bedding and towels you have to take the dirty ones  to the front desk for exchange.  There were no other amenitives other than a laundry room and snack machine area.  For what we paid for the room I felt it was unacceptable.More</t>
   </si>
   <si>
+    <t>d3vilkitten</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r121142412-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1201,6 +1342,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>RCofCupertino</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r120997892-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1217,6 +1361,9 @@
   </si>
   <si>
     <t>November 2011</t>
+  </si>
+  <si>
+    <t>Pelehu</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r115142320-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1270,6 +1417,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>Emily M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r102039092-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1291,6 +1441,9 @@
     <t>We were very unhappy with our stay here.  When we arrived, the room temperature was 78 degrees.  We found out why when we turned on the a/c and discovered that it was unbelievably loud.  Every time it cycled on during the night, we woke up.  There were also loud bangs periodically outside our room - we don't know what they were but they were highly disruptive (they went on ALL NIGHT).  The location is surprising for a hotel.  It is surrounded by non-retail offices and manufacturing, also car repair places.  Across the street is a large empty(?) area that is fenced in with barbed wire around the top.  We will definitely not stay here again and we do NOT recommend this hotel.More</t>
   </si>
   <si>
+    <t>Choees</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r88402864-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1309,6 +1462,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>Hossam_Adel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r78628323-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1330,6 +1486,9 @@
     <t>Well, I just wanted to thank all the front office staff for their cooperation and the friendly atmosphere they showed me during our stay there for over 55 days which never happened before in a hotel but I started to get used to that hotel there and wanted to go back again whenever I’m in California (funny that I started to plan for some of my friends so they can be there as well) Well it’s a cozy hotel with a nice room specially that I booked the 2 rooms deal with the full kitchen facilities along with the BBQ facilities at the hotel end.It was clean, ppl were friendly, even guests were friendly that’s why my wife felt safe in a way and what else I can ask for right with as little money as I paid for advance purchase booking along with our young sonIt can be the perfect home away from home for anyone who will be in Orange County for whatever reasonsThank you Serge and thank all your fellow workers for our memorable stay and special hi from the young son of mine to you More</t>
   </si>
   <si>
+    <t>apple512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r75214730-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1348,6 +1507,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>travelingPRgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r17479883-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1369,6 +1531,9 @@
     <t>Great location minutes from major freeways, Orange County (John Wayne) airport, Laguna Beach, hiking/biking trails and plenty of grocery shopping and to-go food.The property is quiet, safe and very clean. It feels like it needs an update - it reminded me of my first apartment (old faux-wood finish cabinets, popcorn/acoustic ceilings, bad old carpet, bad decor, ancient 80's-print shower curtain, 1-ply toilet paper, ancient blow-dryer, etc.). That said, it was VERY clean and I had everything I needed.I had a 3rd floor unit facing north-ish, so felt safe with my window wide open watching the sun set each night. The addition of some candles and decor helped.The kitchen was well-stocked and everything was very clean. I used everything in the kitchen, and the pantry downstairs comes in handy for emergencies. Bring or buy salt and pepper!Overall very good value for the price and a great experience;...but would love to see some updating of the rooms.More</t>
   </si>
   <si>
+    <t>aktraveler70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r12645823-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1388,6 +1553,9 @@
   </si>
   <si>
     <t>I was in Irvine for over a month on business and stayed at this property.  It was ideal.  The room has plenty of space to get comfortable and make it your home away from home.  The pricing was quite reasonable.  I stayed in a 1 bedroom suite and loved the extra elbow room.  You have a full sized fridge with an ice maker (so you don't have to go down the hall for ice), a microwave and two burner stove (no oven though). It comes equipped with enough cooking utensils to get by relatively comfortably.  You can check out a toaster oven for a day for free or borrow BBQ tools to use on the outdoor gas BBQ for a nice steak dinner.  They have a decent exercise room, videos &amp; DVDs to borrow for free, free laundry facilities and a mini-grocery "store" onsite.  Since it is an extended stay hotel they only have weekly maid service and they don't have someone at the front desk 24 hours a day - however, if you have a problem there is someone you can contact (I never needed to).The front desk staff was very helpful when I was trying to find places in the area.  They happily did searches online and printed directions.  They also gave me some great recommendations for restaurants.If I need to go back to Irvine for work I would definitely plan to stay there again.More</t>
+  </si>
+  <si>
+    <t>Matchalatte1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r8884756-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1915,43 +2083,47 @@
       <c r="A2" t="n">
         <v>5419</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>130050</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1965,56 +2137,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5419</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>130051</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2026,56 +2202,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5419</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2093,50 +2273,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5419</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>130052</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2154,50 +2338,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5419</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>130053</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2217,50 +2405,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5419</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>130054</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2278,50 +2470,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5419</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>130055</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2341,50 +2537,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5419</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>130056</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2396,56 +2596,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5419</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>43084</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2463,50 +2667,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5419</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>130057</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2518,56 +2726,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5419</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>130058</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2585,50 +2797,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5419</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>130059</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2640,56 +2856,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5419</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>130060</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2709,50 +2929,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5419</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>130061</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2766,50 +2990,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5419</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>130062</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2823,50 +3051,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5419</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>130063</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2884,56 +3116,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5419</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>130064</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2951,56 +3187,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="X18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5419</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>57848</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3020,50 +3260,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5419</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>2144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3079,56 +3323,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5419</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>130065</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3148,50 +3396,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5419</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>130066</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3209,50 +3461,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5419</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>130067</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3270,56 +3526,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5419</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>130068</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3339,50 +3599,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5419</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>130069</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3394,56 +3658,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5419</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>130070</v>
+      </c>
+      <c r="C26" t="s">
+        <v>249</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3463,50 +3731,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5419</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>130071</v>
+      </c>
+      <c r="C27" t="s">
+        <v>257</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3518,56 +3790,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="X27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5419</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>130072</v>
+      </c>
+      <c r="C28" t="s">
+        <v>267</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3589,56 +3865,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="X28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5419</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>130073</v>
+      </c>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3658,47 +3938,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="X29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="Y29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5419</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>104129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>286</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
@@ -3725,56 +4009,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="X30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5419</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>130074</v>
+      </c>
+      <c r="C31" t="s">
+        <v>295</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3798,50 +4086,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5419</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>110724</v>
+      </c>
+      <c r="C32" t="s">
+        <v>302</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="O32" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3863,47 +4155,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="X32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5419</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>1426</v>
+      </c>
+      <c r="C33" t="s">
+        <v>312</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
@@ -3930,56 +4226,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="X33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="Y33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5419</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>130075</v>
+      </c>
+      <c r="C34" t="s">
+        <v>319</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4003,50 +4303,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5419</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>130076</v>
+      </c>
+      <c r="C35" t="s">
+        <v>326</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="J35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="O35" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4070,50 +4374,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5419</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>130077</v>
+      </c>
+      <c r="C36" t="s">
+        <v>333</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="K36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="O36" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4137,50 +4445,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5419</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>130078</v>
+      </c>
+      <c r="C37" t="s">
+        <v>341</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4202,56 +4514,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="X37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5419</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>130079</v>
+      </c>
+      <c r="C38" t="s">
+        <v>351</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="J38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="K38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4273,56 +4589,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="X38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="Y38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5419</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>130080</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="J39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="K39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4346,50 +4666,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5419</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>130081</v>
+      </c>
+      <c r="C40" t="s">
+        <v>368</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="J40" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="K40" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="L40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4403,50 +4727,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5419</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>130082</v>
+      </c>
+      <c r="C41" t="s">
+        <v>375</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="J41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="K41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="L41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="O41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4470,50 +4798,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5419</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>1124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>383</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="J42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="K42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="L42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4537,50 +4869,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5419</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>130083</v>
+      </c>
+      <c r="C43" t="s">
+        <v>390</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="J43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="K43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="L43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4604,50 +4940,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>5419</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>130084</v>
+      </c>
+      <c r="C44" t="s">
+        <v>398</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="K44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="L44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4671,50 +5011,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5419</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>130085</v>
+      </c>
+      <c r="C45" t="s">
+        <v>404</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="J45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="K45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4738,50 +5082,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>5419</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>130086</v>
+      </c>
+      <c r="C46" t="s">
+        <v>411</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="J46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="K46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="L46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="O46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -4805,50 +5153,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>5419</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>130087</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4870,56 +5222,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="X47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="Y47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>5419</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>130088</v>
+      </c>
+      <c r="C48" t="s">
+        <v>427</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="J48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="K48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="L48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="O48" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4943,50 +5299,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>5419</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>130089</v>
+      </c>
+      <c r="C49" t="s">
+        <v>434</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="J49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="K49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="L49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="O49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5010,50 +5370,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>5419</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>130090</v>
+      </c>
+      <c r="C50" t="s">
+        <v>441</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="O50" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5071,56 +5435,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="X50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="Y50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>5419</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>130087</v>
+      </c>
+      <c r="C51" t="s">
+        <v>427</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="J51" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="O51" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5140,50 +5508,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>5419</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>8885</v>
+      </c>
+      <c r="C52" t="s">
+        <v>457</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="J52" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="K52" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="L52" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5207,50 +5579,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>5419</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>130091</v>
+      </c>
+      <c r="C53" t="s">
+        <v>465</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="J53" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="K53" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="L53" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5274,50 +5650,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>5419</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>130092</v>
+      </c>
+      <c r="C54" t="s">
+        <v>472</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="J54" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="K54" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="L54" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="O54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5341,50 +5721,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>5419</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>130093</v>
+      </c>
+      <c r="C55" t="s">
+        <v>480</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="J55" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="K55" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="L55" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="O55" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5408,50 +5792,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>5419</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>81168</v>
+      </c>
+      <c r="C56" t="s">
+        <v>487</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="J56" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="K56" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="L56" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5475,50 +5863,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>5419</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>130094</v>
+      </c>
+      <c r="C57" t="s">
+        <v>495</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="J57" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="K57" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="L57" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5542,50 +5934,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>5419</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>130095</v>
+      </c>
+      <c r="C58" t="s">
+        <v>503</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="J58" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="K58" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="O58" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -5609,7 +6005,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_100.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_100.xlsx
@@ -2084,7 +2084,7 @@
         <v>5419</v>
       </c>
       <c r="B2" t="n">
-        <v>130050</v>
+        <v>160762</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2151,7 +2151,7 @@
         <v>5419</v>
       </c>
       <c r="B3" t="n">
-        <v>130051</v>
+        <v>160763</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2281,7 +2281,7 @@
         <v>5419</v>
       </c>
       <c r="B5" t="n">
-        <v>130052</v>
+        <v>160764</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -2346,7 +2346,7 @@
         <v>5419</v>
       </c>
       <c r="B6" t="n">
-        <v>130053</v>
+        <v>160765</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -2413,7 +2413,7 @@
         <v>5419</v>
       </c>
       <c r="B7" t="n">
-        <v>130054</v>
+        <v>160766</v>
       </c>
       <c r="C7" t="s">
         <v>92</v>
@@ -2478,7 +2478,7 @@
         <v>5419</v>
       </c>
       <c r="B8" t="n">
-        <v>130055</v>
+        <v>160767</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -2545,7 +2545,7 @@
         <v>5419</v>
       </c>
       <c r="B9" t="n">
-        <v>130056</v>
+        <v>160768</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -2675,7 +2675,7 @@
         <v>5419</v>
       </c>
       <c r="B11" t="n">
-        <v>130057</v>
+        <v>160769</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -2740,7 +2740,7 @@
         <v>5419</v>
       </c>
       <c r="B12" t="n">
-        <v>130058</v>
+        <v>160770</v>
       </c>
       <c r="C12" t="s">
         <v>135</v>
@@ -2805,7 +2805,7 @@
         <v>5419</v>
       </c>
       <c r="B13" t="n">
-        <v>130059</v>
+        <v>160771</v>
       </c>
       <c r="C13" t="s">
         <v>142</v>
@@ -2870,7 +2870,7 @@
         <v>5419</v>
       </c>
       <c r="B14" t="n">
-        <v>130060</v>
+        <v>160772</v>
       </c>
       <c r="C14" t="s">
         <v>152</v>
@@ -2937,7 +2937,7 @@
         <v>5419</v>
       </c>
       <c r="B15" t="n">
-        <v>130061</v>
+        <v>160773</v>
       </c>
       <c r="C15" t="s">
         <v>159</v>
@@ -2998,7 +2998,7 @@
         <v>5419</v>
       </c>
       <c r="B16" t="n">
-        <v>130062</v>
+        <v>160774</v>
       </c>
       <c r="C16" t="s">
         <v>166</v>
@@ -3059,7 +3059,7 @@
         <v>5419</v>
       </c>
       <c r="B17" t="n">
-        <v>130063</v>
+        <v>160775</v>
       </c>
       <c r="C17" t="s">
         <v>173</v>
@@ -3130,7 +3130,7 @@
         <v>5419</v>
       </c>
       <c r="B18" t="n">
-        <v>130064</v>
+        <v>160776</v>
       </c>
       <c r="C18" t="s">
         <v>183</v>
@@ -3337,7 +3337,7 @@
         <v>5419</v>
       </c>
       <c r="B21" t="n">
-        <v>130065</v>
+        <v>160777</v>
       </c>
       <c r="C21" t="s">
         <v>207</v>
@@ -3404,7 +3404,7 @@
         <v>5419</v>
       </c>
       <c r="B22" t="n">
-        <v>130066</v>
+        <v>160778</v>
       </c>
       <c r="C22" t="s">
         <v>213</v>
@@ -3469,7 +3469,7 @@
         <v>5419</v>
       </c>
       <c r="B23" t="n">
-        <v>130067</v>
+        <v>160779</v>
       </c>
       <c r="C23" t="s">
         <v>221</v>
@@ -3540,7 +3540,7 @@
         <v>5419</v>
       </c>
       <c r="B24" t="n">
-        <v>130068</v>
+        <v>160780</v>
       </c>
       <c r="C24" t="s">
         <v>230</v>
@@ -3607,7 +3607,7 @@
         <v>5419</v>
       </c>
       <c r="B25" t="n">
-        <v>130069</v>
+        <v>160781</v>
       </c>
       <c r="C25" t="s">
         <v>239</v>
@@ -3672,7 +3672,7 @@
         <v>5419</v>
       </c>
       <c r="B26" t="n">
-        <v>130070</v>
+        <v>160782</v>
       </c>
       <c r="C26" t="s">
         <v>249</v>
@@ -3739,7 +3739,7 @@
         <v>5419</v>
       </c>
       <c r="B27" t="n">
-        <v>130071</v>
+        <v>160783</v>
       </c>
       <c r="C27" t="s">
         <v>257</v>
@@ -3804,7 +3804,7 @@
         <v>5419</v>
       </c>
       <c r="B28" t="n">
-        <v>130072</v>
+        <v>160784</v>
       </c>
       <c r="C28" t="s">
         <v>267</v>
@@ -3879,7 +3879,7 @@
         <v>5419</v>
       </c>
       <c r="B29" t="n">
-        <v>130073</v>
+        <v>160785</v>
       </c>
       <c r="C29" t="s">
         <v>276</v>
@@ -4023,7 +4023,7 @@
         <v>5419</v>
       </c>
       <c r="B31" t="n">
-        <v>130074</v>
+        <v>160786</v>
       </c>
       <c r="C31" t="s">
         <v>295</v>
@@ -4240,7 +4240,7 @@
         <v>5419</v>
       </c>
       <c r="B34" t="n">
-        <v>130075</v>
+        <v>160787</v>
       </c>
       <c r="C34" t="s">
         <v>319</v>
@@ -4311,7 +4311,7 @@
         <v>5419</v>
       </c>
       <c r="B35" t="n">
-        <v>130076</v>
+        <v>160788</v>
       </c>
       <c r="C35" t="s">
         <v>326</v>
@@ -4382,7 +4382,7 @@
         <v>5419</v>
       </c>
       <c r="B36" t="n">
-        <v>130077</v>
+        <v>160789</v>
       </c>
       <c r="C36" t="s">
         <v>333</v>
@@ -4453,7 +4453,7 @@
         <v>5419</v>
       </c>
       <c r="B37" t="n">
-        <v>130078</v>
+        <v>160790</v>
       </c>
       <c r="C37" t="s">
         <v>341</v>
@@ -4528,7 +4528,7 @@
         <v>5419</v>
       </c>
       <c r="B38" t="n">
-        <v>130079</v>
+        <v>160791</v>
       </c>
       <c r="C38" t="s">
         <v>351</v>
@@ -4603,7 +4603,7 @@
         <v>5419</v>
       </c>
       <c r="B39" t="n">
-        <v>130080</v>
+        <v>160792</v>
       </c>
       <c r="C39" t="s">
         <v>361</v>
@@ -4674,7 +4674,7 @@
         <v>5419</v>
       </c>
       <c r="B40" t="n">
-        <v>130081</v>
+        <v>160793</v>
       </c>
       <c r="C40" t="s">
         <v>368</v>
@@ -4735,7 +4735,7 @@
         <v>5419</v>
       </c>
       <c r="B41" t="n">
-        <v>130082</v>
+        <v>160794</v>
       </c>
       <c r="C41" t="s">
         <v>375</v>
@@ -4877,7 +4877,7 @@
         <v>5419</v>
       </c>
       <c r="B43" t="n">
-        <v>130083</v>
+        <v>160795</v>
       </c>
       <c r="C43" t="s">
         <v>390</v>
@@ -4948,7 +4948,7 @@
         <v>5419</v>
       </c>
       <c r="B44" t="n">
-        <v>130084</v>
+        <v>160796</v>
       </c>
       <c r="C44" t="s">
         <v>398</v>
@@ -5019,7 +5019,7 @@
         <v>5419</v>
       </c>
       <c r="B45" t="n">
-        <v>130085</v>
+        <v>160797</v>
       </c>
       <c r="C45" t="s">
         <v>404</v>
@@ -5090,7 +5090,7 @@
         <v>5419</v>
       </c>
       <c r="B46" t="n">
-        <v>130086</v>
+        <v>160798</v>
       </c>
       <c r="C46" t="s">
         <v>411</v>
@@ -5161,7 +5161,7 @@
         <v>5419</v>
       </c>
       <c r="B47" t="n">
-        <v>130087</v>
+        <v>160799</v>
       </c>
       <c r="C47" t="s">
         <v>417</v>
@@ -5236,7 +5236,7 @@
         <v>5419</v>
       </c>
       <c r="B48" t="n">
-        <v>130088</v>
+        <v>130057</v>
       </c>
       <c r="C48" t="s">
         <v>427</v>
@@ -5307,7 +5307,7 @@
         <v>5419</v>
       </c>
       <c r="B49" t="n">
-        <v>130089</v>
+        <v>160800</v>
       </c>
       <c r="C49" t="s">
         <v>434</v>
@@ -5378,7 +5378,7 @@
         <v>5419</v>
       </c>
       <c r="B50" t="n">
-        <v>130090</v>
+        <v>160801</v>
       </c>
       <c r="C50" t="s">
         <v>441</v>
@@ -5449,7 +5449,7 @@
         <v>5419</v>
       </c>
       <c r="B51" t="n">
-        <v>130087</v>
+        <v>130057</v>
       </c>
       <c r="C51" t="s">
         <v>427</v>
@@ -5587,7 +5587,7 @@
         <v>5419</v>
       </c>
       <c r="B53" t="n">
-        <v>130091</v>
+        <v>160802</v>
       </c>
       <c r="C53" t="s">
         <v>465</v>
@@ -5658,7 +5658,7 @@
         <v>5419</v>
       </c>
       <c r="B54" t="n">
-        <v>130092</v>
+        <v>160803</v>
       </c>
       <c r="C54" t="s">
         <v>472</v>
@@ -5729,7 +5729,7 @@
         <v>5419</v>
       </c>
       <c r="B55" t="n">
-        <v>130093</v>
+        <v>160804</v>
       </c>
       <c r="C55" t="s">
         <v>480</v>
@@ -5871,7 +5871,7 @@
         <v>5419</v>
       </c>
       <c r="B57" t="n">
-        <v>130094</v>
+        <v>160805</v>
       </c>
       <c r="C57" t="s">
         <v>495</v>
@@ -5942,7 +5942,7 @@
         <v>5419</v>
       </c>
       <c r="B58" t="n">
-        <v>130095</v>
+        <v>160806</v>
       </c>
       <c r="C58" t="s">
         <v>503</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_100.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="695">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Adriana L</t>
-  </si>
-  <si>
-    <t>06/29/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r602191859-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>32596</t>
+  </si>
+  <si>
+    <t>78441</t>
+  </si>
+  <si>
+    <t>602191859</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Great place, super friendly staff, CLEAN!!</t>
+  </si>
+  <si>
+    <t>The staff here are so nice they held my bag before checking in and after checking out. The room had EVERYTHING in it frig, dishes, proper towels, DVD player, toaster, etc. Hotel is also located in a very quite area.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r588473430-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>588473430</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>convenient</t>
+  </si>
+  <si>
+    <t>Satff very firendly, Hal at the front desk corteous, location convenient, fitness room enough equipment to workout, good laundry facilities and coffeee always available. Rooms need a bit of maintenance</t>
+  </si>
+  <si>
+    <t>June 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r552361898-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
-    <t>32596</t>
-  </si>
-  <si>
-    <t>78441</t>
-  </si>
-  <si>
     <t>552361898</t>
   </si>
   <si>
@@ -180,9 +216,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded January 23, 2018</t>
   </si>
   <si>
@@ -192,7 +225,28 @@
     <t>I arrived to the hotel around 9pm from Boston, no one was at the desk after several hello finally came out. Small lobby and with a weird smell. When I arrive Mike Tawfik couldn't found my reservation after asking me for my name several times. I had had ask him for a Bank of America to go to he said its 10 min from here. After a long flights I was really exhausted so I told him I am here for 2 nights lets me pay cash for event for 3 nights so tomorrow morning after resting so that I can go to the bank because my card has been compromised. With an attitude he said that I should have know about my card before came in to the hotel. I ask him to contact his GM to explain him what is going on "he said I will send him a message and of course not sure what he had told him" I never get a chance to speak with the GM.More</t>
   </si>
   <si>
-    <t>Clark D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r550095502-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>550095502</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>One of the best kept secrets in Lake Forest</t>
+  </si>
+  <si>
+    <t>My wife and I were having some renovations done to our home in Lake Forest and could not handle the dust and noise so we decided we needed to stay at a hotel for a couple weeks. Luckily around the corner from us was the Candlewood Suites on South Pointe. We happened on it quite accidentally after a bad experience at The Hampton Inn. This is not a five-star hotel but it is a clean, convenient and well organized long-term stay hotel. Most of the staff was warm and friendly. I want to specially give thanks to the managers Sean, Daniel and also Ali they bent over backwards to make us happy. They have an area downstairs with fresh coffee and food you can purchase. But they also have things like coffee pots and really just about anything you might be missing by not being able to stay at home. I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My wife and I were having some renovations done to our home in Lake Forest and could not handle the dust and noise so we decided we needed to stay at a hotel for a couple weeks. Luckily around the corner from us was the Candlewood Suites on South Pointe. We happened on it quite accidentally after a bad experience at The Hampton Inn. This is not a five-star hotel but it is a clean, convenient and well organized long-term stay hotel. Most of the staff was warm and friendly. I want to specially give thanks to the managers Sean, Daniel and also Ali they bent over backwards to make us happy. They have an area downstairs with fresh coffee and food you can purchase. But they also have things like coffee pots and really just about anything you might be missing by not being able to stay at home. I highly recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r547981987-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -214,9 +268,6 @@
 Then on the morning of the day I suppose to check out on the 10th...This used to be my go to place for a room. I really liked the hotel staff and the rooms. I only had 2 problems with the rooms but they always handled it professionally and fixed the problem. I usually stay at the Irvine east or garden grove hotel. Both outstanding But not this time at the Irvine east hotel. I'll start from the beginning and this maybe long.So on November 29th I made an online reservation to candlewood suites Irvine east hotel for December 9th for one night. Then on December 8th I called candlewood Irvine east hotel I needed a room for the night as well as December 9th so need 2 nights. Just add another night to my existing reservations. Not a big deal I didn't think. They said ok great and  set me up for the night and for tomorrow. I got an email confirmation for another night. It showed only one night on the confirmation. So I now have 2 confirmations one for December 8th and the 9th.I check in 3 hours later and the guy didn't know anything about the reservation I made that night for the 8th but he set me up for the night as well as the next day so I got 2 nights and they charged me for 2 nights which is fine.Then on the morning of the day I suppose to check out on the 10th I see I was charged another night on the same night I already was charged. So they obviously charged me for 2 rooms and one room was for 2 nights and one for one night. I did not ask for 2 rooms. I explained it clearly over the phone and when I checked in that I wanted an extra day added to my reservation.So I go check out and explain it to a black guy that works at the front desk that I was charged for 3 nights but I only stayed 2 nights and told him I wanted to add an extra night to reservation. I explained it in full detail on what I wanted and told him that he is the 3rd person here I talked to and explained what I wanted yet still get charged 3 nights when I only stayed 2 nights.The guy was nice and told me no worries that in a couple days that it will be fixed. I said thanks and left. So I waited about 3 days and see that my bank account was officially charged for 3 nights. So the guy was wrong that it would be fixed.I chatted to the main center of candlewood and explained it to them and they told me to call the hotel I was at. So I went back to candlewood and told the person at the desk and the manager there. At least I think he was the manager. But I explained to them the problem and he told me that I can not change an online reservation. And I said I didn't really change it I just wanted 2 nights in the same room. I didn't want to have to move to another room so I wanted another reservation to the same room. That really isn't changing it so not sure what he means. I still wanted the original reservations. How is that changing it. Simply ad another night and another price if needed. It isn't rocket science. So he tells me I should of told them the next morning that I want another day. That makes no sense if I already have reservations for the 9th why would I go in and tell them I'm staying another night? So I get charged 4 nights when I stay only 2 nights. He tells me he is giving me free education on how the the system works about changing online reservations. Think he needs to educate the staff there. They are the ones to agree on adding another night for me.Anyway he told me in the end that since I was unaware of the policy that he will reimburse my money back for one night. 5 days later I yet to see candlewood reimburse me. Wasn't even my mistake. It was the staff at candlewood. But whatever. I guess you aren't allowed to add more nights to your online reservation. I just wanted to keep the same room and have another night but guess it's against some lame policy you can't.Because they stole money out of my account and charged me for 3 nights when I only stayed 2 nights and charged me $50 for a deposit when I checked in and charged me another $50 deposit the next day including the extra room charge of $91 my car payment could not go through my bank account and a result I was charged $35 return check. I had exact amount I needed for my car payment if candlewood didn't steal money from my account. I will never go to a candlewood again or any place associated with them. I used to love going to candlewood and they been the only hotel I go to but not anymore. Unless they comp me a night for any room in the future or reimburse me the money they owe me which is 91 plus 35 then I'll never enter their establishment again and I will never recommend them but if they fix this of course I'll update this and give them 5 stars but I don't see it happening.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -233,9 +284,6 @@
 Then on the morning of the day I suppose to check out on the 10th...This used to be my go to place for a room. I really liked the hotel staff and the rooms. I only had 2 problems with the rooms but they always handled it professionally and fixed the problem. I usually stay at the Irvine east or garden grove hotel. Both outstanding But not this time at the Irvine east hotel. I'll start from the beginning and this maybe long.So on November 29th I made an online reservation to candlewood suites Irvine east hotel for December 9th for one night. Then on December 8th I called candlewood Irvine east hotel I needed a room for the night as well as December 9th so need 2 nights. Just add another night to my existing reservations. Not a big deal I didn't think. They said ok great and  set me up for the night and for tomorrow. I got an email confirmation for another night. It showed only one night on the confirmation. So I now have 2 confirmations one for December 8th and the 9th.I check in 3 hours later and the guy didn't know anything about the reservation I made that night for the 8th but he set me up for the night as well as the next day so I got 2 nights and they charged me for 2 nights which is fine.Then on the morning of the day I suppose to check out on the 10th I see I was charged another night on the same night I already was charged. So they obviously charged me for 2 rooms and one room was for 2 nights and one for one night. I did not ask for 2 rooms. I explained it clearly over the phone and when I checked in that I wanted an extra day added to my reservation.So I go check out and explain it to a black guy that works at the front desk that I was charged for 3 nights but I only stayed 2 nights and told him I wanted to add an extra night to reservation. I explained it in full detail on what I wanted and told him that he is the 3rd person here I talked to and explained what I wanted yet still get charged 3 nights when I only stayed 2 nights.The guy was nice and told me no worries that in a couple days that it will be fixed. I said thanks and left. So I waited about 3 days and see that my bank account was officially charged for 3 nights. So the guy was wrong that it would be fixed.I chatted to the main center of candlewood and explained it to them and they told me to call the hotel I was at. So I went back to candlewood and told the person at the desk and the manager there. At least I think he was the manager. But I explained to them the problem and he told me that I can not change an online reservation. And I said I didn't really change it I just wanted 2 nights in the same room. I didn't want to have to move to another room so I wanted another reservation to the same room. That really isn't changing it so not sure what he means. I still wanted the original reservations. How is that changing it. Simply ad another night and another price if needed. It isn't rocket science. So he tells me I should of told them the next morning that I want another day. That makes no sense if I already have reservations for the 9th why would I go in and tell them I'm staying another night? So I get charged 4 nights when I stay only 2 nights. He tells me he is giving me free education on how the the system works about changing online reservations. Think he needs to educate the staff there. They are the ones to agree on adding another night for me.Anyway he told me in the end that since I was unaware of the policy that he will reimburse my money back for one night. 5 days later I yet to see candlewood reimburse me. Wasn't even my mistake. It was the staff at candlewood. But whatever. I guess you aren't allowed to add more nights to your online reservation. I just wanted to keep the same room and have another night but guess it's against some lame policy you can't.Because they stole money out of my account and charged me for 3 nights when I only stayed 2 nights and charged me $50 for a deposit when I checked in and charged me another $50 deposit the next day including the extra room charge of $91 my car payment could not go through my bank account and a result I was charged $35 return check. I had exact amount I needed for my car payment if candlewood didn't steal money from my account. I will never go to a candlewood again or any place associated with them. I used to love going to candlewood and they been the only hotel I go to but not anymore. Unless they comp me a night for any room in the future or reimburse me the money they owe me which is 91 plus 35 then I'll never enter their establishment again and I will never recommend them but if they fix this of course I'll update this and give them 5 stars but I don't see it happening.More</t>
   </si>
   <si>
-    <t>Rick C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r530039171-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -254,13 +302,43 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Candlewood is a extended stay type of hotel. We only stayed for two nights, but that's OK with them. It's in a quiet location off the main street and same ways away from the main freeways. But close to local businesses, shopping, and entertainment. The first thing that is noticeable is the lobby area could use some modernizing. It reminds me of a hospitals nurses station. But the staff was super friendly. the rooms offer a large office style desk, a refrigerator/freezer, microwave, dishwasher, assorted pots, pans, dishware and utilizes. If you need a small appliance, them have them for loan. The box spring mattress in our room was shot, but the staff said the foam mattress are new. And like most hotels with refrigerators, it was a little noisy. And finally!! A maintenance staff the knows how the adjust the door closer so they don't slam!!More</t>
   </si>
   <si>
-    <t>Migdalia C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r518590036-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>518590036</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed there for 10 days in a suite. Kitchen was good, had all the cookware one needs while on holidays. Also has laundry on main floor.  Cleaning is once a week, but you can get clean towels whenever you need it. Had a little issue with leaky toilet on the last few days, but other then that everything was good. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r511606334-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>511606334</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>We stayed four nights at this Hotel. The room was clean and comfortable. Excellent location 15 minutes from the airport and close to shopping area. There is coffee in the room, microwave and refrigerator. Easy check in, but we needed to ring the bell to get service. Friendly service.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r492852935-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -281,9 +359,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>SusannaFN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r485119668-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -302,9 +377,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>mr7718</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r479325301-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -320,7 +392,52 @@
     <t>Free laundry and honor system for food and snacks. This hotel is great! Fantastic staff, super clean and comfortable hotel.  Probably the best hotel in the area .  If you were staying in the area this is the place to go to</t>
   </si>
   <si>
-    <t>rafa d</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r466662054-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>466662054</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Business stay</t>
+  </si>
+  <si>
+    <t>The room was decent, and the space was appreciated, but obviously with a rigorous work schedule, I wish CS would offer breakfast, but that is what IHG's Staybridge Suites are for. While it is obvious that Staybridge properties are superior, CS's aren't bad, but they cater to those looking for a home. This one felt removed from many parts of the OC since it was in the midst of a corporate bus. park and not too many eateries nearby (Mickey D's is close)...Not bad, but there are better.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r443836326-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>443836326</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Third year back for Thanksgiving week</t>
+  </si>
+  <si>
+    <t>We like this place.  We have come down here for 3 years now and this place works out perfect for us.
+We have relatives in the area and the location is perfect for us.  I have written reviews of this Candlewood before so I will summarize by saying it is very easy to get to from 5 or the 405.  It is at the edge of an industrial park and it is quiet and we have never seen a lot of foot traffic around the property.  I have grown so tired of fighting LA traffic that this year we discovered it is a straight forward drive from Orange County airport or even better, 8 minutes from the Amtrak/Metro station.  The rooms are like small apartments.  A kitchenette with a full size refrigerator, a dishwasher, microwave and all the essentials needed for preparing/eating meals. The hotel has laundry machines, a gym and an honor store.  
+This time we had a new bed and bed coverings.  My wife seemed to think the bed was a little smaller.  She said it was comfortable enough, it got a little hot for me and took me a night to get used to it.  
+The HVAC in our room didn't have noise issues this year and worked very well.  The refrigerator had a loud click when the compressor kicked off but we used the work around from last year and simply turned it all the way...We like this place.  We have come down here for 3 years now and this place works out perfect for us.We have relatives in the area and the location is perfect for us.  I have written reviews of this Candlewood before so I will summarize by saying it is very easy to get to from 5 or the 405.  It is at the edge of an industrial park and it is quiet and we have never seen a lot of foot traffic around the property.  I have grown so tired of fighting LA traffic that this year we discovered it is a straight forward drive from Orange County airport or even better, 8 minutes from the Amtrak/Metro station.  The rooms are like small apartments.  A kitchenette with a full size refrigerator, a dishwasher, microwave and all the essentials needed for preparing/eating meals. The hotel has laundry machines, a gym and an honor store.  This time we had a new bed and bed coverings.  My wife seemed to think the bed was a little smaller.  She said it was comfortable enough, it got a little hot for me and took me a night to get used to it.  The HVAC in our room didn't have noise issues this year and worked very well.  The refrigerator had a loud click when the compressor kicked off but we used the work around from last year and simply turned it all the way down at bedtime.  Was fine.Everything was clean, everything worked so no real issues.  The staff is outstanding.  I really appreciated they were always smiling, always said hello and were very helpful.  The one thing about this place is you just have to ask if you need something and they do there best.  And they do it with a smile.  We have gotten to the age where we don't like eating out all the time so we enjoy being able to buy a sack of groceries when we first arrive and that takes care of meals.  If we need something, there is always the honor store.  If they don't have it, you can walk or drive to a store in minutes.  I continue to recommend Candlewood.  Works for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We like this place.  We have come down here for 3 years now and this place works out perfect for us.
+We have relatives in the area and the location is perfect for us.  I have written reviews of this Candlewood before so I will summarize by saying it is very easy to get to from 5 or the 405.  It is at the edge of an industrial park and it is quiet and we have never seen a lot of foot traffic around the property.  I have grown so tired of fighting LA traffic that this year we discovered it is a straight forward drive from Orange County airport or even better, 8 minutes from the Amtrak/Metro station.  The rooms are like small apartments.  A kitchenette with a full size refrigerator, a dishwasher, microwave and all the essentials needed for preparing/eating meals. The hotel has laundry machines, a gym and an honor store.  
+This time we had a new bed and bed coverings.  My wife seemed to think the bed was a little smaller.  She said it was comfortable enough, it got a little hot for me and took me a night to get used to it.  
+The HVAC in our room didn't have noise issues this year and worked very well.  The refrigerator had a loud click when the compressor kicked off but we used the work around from last year and simply turned it all the way...We like this place.  We have come down here for 3 years now and this place works out perfect for us.We have relatives in the area and the location is perfect for us.  I have written reviews of this Candlewood before so I will summarize by saying it is very easy to get to from 5 or the 405.  It is at the edge of an industrial park and it is quiet and we have never seen a lot of foot traffic around the property.  I have grown so tired of fighting LA traffic that this year we discovered it is a straight forward drive from Orange County airport or even better, 8 minutes from the Amtrak/Metro station.  The rooms are like small apartments.  A kitchenette with a full size refrigerator, a dishwasher, microwave and all the essentials needed for preparing/eating meals. The hotel has laundry machines, a gym and an honor store.  This time we had a new bed and bed coverings.  My wife seemed to think the bed was a little smaller.  She said it was comfortable enough, it got a little hot for me and took me a night to get used to it.  The HVAC in our room didn't have noise issues this year and worked very well.  The refrigerator had a loud click when the compressor kicked off but we used the work around from last year and simply turned it all the way down at bedtime.  Was fine.Everything was clean, everything worked so no real issues.  The staff is outstanding.  I really appreciated they were always smiling, always said hello and were very helpful.  The one thing about this place is you just have to ask if you need something and they do there best.  And they do it with a smile.  We have gotten to the age where we don't like eating out all the time so we enjoy being able to buy a sack of groceries when we first arrive and that takes care of meals.  If we need something, there is always the honor store.  If they don't have it, you can walk or drive to a store in minutes.  I continue to recommend Candlewood.  Works for us.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r442624405-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -344,9 +461,6 @@
     <t>I recently experienced a 2 night stay here and was pleasantly surprised by the comfort and feel of the room.  I read that the rooms were remodeled in 2012 and I have to say they are holding up well, at least my room anyway.  I didn't use the kitchenette at all besides the micro to pop the free popcorn and that worked well!  The room decor, although not hip, is updated and comfortable and I slept very well both nights with outside noise being minimal even sleeping with the window open.  I was facing the parking lot and most guests seem to settle in by around 10 p.m. on the weekdays I was there.  They gym was average and a good size to not feel cramped if more than 2 people are in there.Overall, I would stay there again if I had business in the area.  The front desk people were courteous and efficient.More</t>
   </si>
   <si>
-    <t>nashvilleguy42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r438312966-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -362,9 +476,6 @@
     <t>I forgot to take a picture of the thermostat, but it had a motion sensor on it.  It was set to turn off when you were not in the room.  However, it was on a wall that was not facing the bed.  So it would turn off while you were asleep.  I ended up opening the window for some cool air.  Otherwise it would get up to 80 degrees at night, unless i got up and walked across the room so the sensor would kick on the ac.The room the gave me was a handicap accessible room.  Large shower with a bench and hose.They did have a pantry, free dvds to borrow, free appliances like blenders to borrow, and board games to borrow.  The hotel was in a great area.  Mcdonalds is close by.  Many other options within a 5-10 min drive.I just wish the ac was friendlier.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>daniel_fermin, Front Office Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded November 21, 2016</t>
   </si>
   <si>
@@ -374,9 +485,6 @@
     <t>I forgot to take a picture of the thermostat, but it had a motion sensor on it.  It was set to turn off when you were not in the room.  However, it was on a wall that was not facing the bed.  So it would turn off while you were asleep.  I ended up opening the window for some cool air.  Otherwise it would get up to 80 degrees at night, unless i got up and walked across the room so the sensor would kick on the ac.The room the gave me was a handicap accessible room.  Large shower with a bench and hose.They did have a pantry, free dvds to borrow, free appliances like blenders to borrow, and board games to borrow.  The hotel was in a great area.  Mcdonalds is close by.  Many other options within a 5-10 min drive.I just wish the ac was friendlier.More</t>
   </si>
   <si>
-    <t>Sandy C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r436964248-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -395,13 +503,43 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>On May 20th, me and my husband traveled from Las Vegas back to LA and check-in "Motel 6". It was an awful night. (too much noise + no enough furniture except 2 twin beds) We moved to Candlewood Suites, Lake Forest next day noon. It felt just like going back our own home in Taiwan. They got everything we need - A small kitchen with all the tableware/pots &amp; pans/microwave/frig./coffee machine... A big shower room with towels for 4 people. A master bedroom with a queen size bed. TV + DVD player + Sofabed in living room... still got plenty of spaces to put our luggages. They also have a big parking lot in front. The guy at front desk was very friendly and helpful. They also got lots of electrical appliances/books/TV games/DVD you may borrow if you need them during your stay. Laundry room &amp; Gym of course and canteen is very convenience. Some may charge, some don't. (Breakfast is not included but since you have own kitchen, you can do/buy any breakfast, lunch, dinner you like).Everything is very clean and well managed. We enjoyed staying here so we extended the stay from 3 to 8 days.Overall, I think this place is the best hotel/suite we ever stayed (reasonable rate). We will be staying at their chain no matter which city we travel in future for sure. We hope you have a great journey as we did.More</t>
   </si>
   <si>
-    <t>Jonathannp</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r418283703-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>418283703</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Recently remodeled rooms et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The new beds are super comfy. Good sized and quality flatscreen was nice too. Lending locker with juicers is welcome addition. Staff is great here and this is a nice quiet location. Good for business travel particularly if you enjoy making your own meals in lieu of eating out every meal while on the road. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r417198362-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>417198362</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>My choice for future OC business stays</t>
+  </si>
+  <si>
+    <t>Want to thank Dawn, the sales director as well as Daniel and Barnard, the people at the desk for a pleasant stay. The facility was clean and quiet. The rooms are laid out well for business travelers including a large desk and a comfortable office chair at the desk. Internet was free and non-intrusive. Even the on-site laundry has no extra cost.Whenever I have business in Orange County, I'll book a room there.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r414988378-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -419,9 +557,6 @@
     <t>Was given a hard time after being charged twice on my credit card. I was not the only person who faced this issue. The issue got resolved on its own on the last day but I went through hell for more than 10 days with no real help.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>daniel_fermin, Front Office Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded September 7, 2016</t>
   </si>
   <si>
@@ -431,9 +566,6 @@
     <t>Was given a hard time after being charged twice on my credit card. I was not the only person who faced this issue. The issue got resolved on its own on the last day but I went through hell for more than 10 days with no real help.More</t>
   </si>
   <si>
-    <t>AdrianDale</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r401672046-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -452,9 +584,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Soccertraveler2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r396329784-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -482,7 +611,49 @@
     <t>They desk staff was friendly and helpful.  It was just too loud there ask for non smoking room but we are pretty sure it had been smoked it.  It was not a typical Marriott stay which I'm accustomed to but it was not the worst either.  I would not stay again but if you are just look for a place to lay your head for a night, it is fine for that.More</t>
   </si>
   <si>
-    <t>baker4569</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r391145167-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>391145167</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>The St. Regis New York like Staff</t>
+  </si>
+  <si>
+    <t>Staff - 5 Hotel - 4 Value - 5Everyone at the Lake Forest Hotel greets me as if I were the King staying at the The St. Regis New York. You can tell the upper management likes their job because everyone else seems to like what they are doing too.Hotel - The only point off is the desk chairs are a little old but the AC is AMAZING. I love to sleep cold, I cook rather than dine out, and the bathrooms are remodeled new and fresh.For the area there is no better price. I feel a little bad for the other Hotel I used to stay at but with this value and all it has to offer, I could not possibly stay anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff - 5 Hotel - 4 Value - 5Everyone at the Lake Forest Hotel greets me as if I were the King staying at the The St. Regis New York. You can tell the upper management likes their job because everyone else seems to like what they are doing too.Hotel - The only point off is the desk chairs are a little old but the AC is AMAZING. I love to sleep cold, I cook rather than dine out, and the bathrooms are remodeled new and fresh.For the area there is no better price. I feel a little bad for the other Hotel I used to stay at but with this value and all it has to offer, I could not possibly stay anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r368521147-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>368521147</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>I was disappointed right away Upon my arrival. The couple in front of me was given  a full description of the amenities of the Hotel/motel. The front desk person didn't even make 1 mention of any amenities but definitely didn't make me feel welcome. The title " suites " does not fit the usual suite. It's basically a 1 room converted into a so called suite. The shower head is very low. I'm average height &amp; it was an inconvenience. I also was disappointed when I returned from a day at work that the room wasn't cleaned. In called &amp; they said it was an ' extended stay ' hotel this they only cel an it after 5 days.  Wow!!  Are you serious?  It was just another disappointment since they are obviously trying to compete for 'suites' business. The final disappointment was the breakfast area. Wait there was no breakfast area. I should've booked the Wyndham hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>daniel_fermin, Front Office Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded May 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2016</t>
+  </si>
+  <si>
+    <t>I was disappointed right away Upon my arrival. The couple in front of me was given  a full description of the amenities of the Hotel/motel. The front desk person didn't even make 1 mention of any amenities but definitely didn't make me feel welcome. The title " suites " does not fit the usual suite. It's basically a 1 room converted into a so called suite. The shower head is very low. I'm average height &amp; it was an inconvenience. I also was disappointed when I returned from a day at work that the room wasn't cleaned. In called &amp; they said it was an ' extended stay ' hotel this they only cel an it after 5 days.  Wow!!  Are you serious?  It was just another disappointment since they are obviously trying to compete for 'suites' business. The final disappointment was the breakfast area. Wait there was no breakfast area. I should've booked the Wyndham hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r366179288-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -500,12 +671,6 @@
     <t>This place is very good if you are going to be staying for a long trip and don't want to eat out.  The rooms are basically one bedroom apartments, with a Kitchenette, separate bedroom, and an on site laundry.  My one complaint was that the morning of my departure the hot water ran out.  They don't have a free breakfast, but you can always get food and fix your own.</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
-    <t>Russ J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r356550124-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -524,9 +689,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Achiguamo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r355127664-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -545,7 +707,46 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>TravelTechPenngrove</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r351705608-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>351705608</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Pleasently Surprised</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Candlewood Suites hotel and my wife and I were totally impressed. We selected this hotel because of the price and closeness to an early morning appointment. Of the ten hotels in the area, it was the lowest priced. Entering the suite we were surprised with every aspect it. The kitchen looked like it was new. The total unit was clean, quiet and very up to date. First hotel I have stayed at that had a comfortable full size leather recliner. I definitely plan on more visits to this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r340363094-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>340363094</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>My Go-To hotel for Irvine</t>
+  </si>
+  <si>
+    <t>Love this place. I try to stay here every year I'm in Irvine. I'm never disappointed by this Candlewood location due to their customer service and always having a clean and comfortable stay. We were checked in by friendly staff who also pointed out they had free DVD rentals. One thing I noticed was a crack in the bathroom sink but other than that, the room is pristine and the bed was comfortable. I do love the more updated decor in this location. I also actually used the laundry facility during this stay, which offers free washers and dryers. The only thing I had to pay for was detergent and softener sheets (minor cost, much lower than a real laundromat). All in all, this is my first choice whenever I'm in this area. The cost per night is a great rate considering you have updated decor, clean bed, sheets and towels and a kitchenette. Best part, DOG FRIENDLY!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>CWDS_LakeForest, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Love this place. I try to stay here every year I'm in Irvine. I'm never disappointed by this Candlewood location due to their customer service and always having a clean and comfortable stay. We were checked in by friendly staff who also pointed out they had free DVD rentals. One thing I noticed was a crack in the bathroom sink but other than that, the room is pristine and the bed was comfortable. I do love the more updated decor in this location. I also actually used the laundry facility during this stay, which offers free washers and dryers. The only thing I had to pay for was detergent and softener sheets (minor cost, much lower than a real laundromat). All in all, this is my first choice whenever I'm in this area. The cost per night is a great rate considering you have updated decor, clean bed, sheets and towels and a kitchenette. Best part, DOG FRIENDLY!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r337713506-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -568,20 +769,11 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>CWDS_LakeForest, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded February 3, 2016</t>
-  </si>
-  <si>
-    <t>Responded February 3, 2016</t>
-  </si>
-  <si>
     <t>We had stayed here for three years during Thanksgiving holiday.  We visit friends in the area and this has been our base camp.  
 This is a three story hotel in a "L" configuration.  It is easy to find. We like it for several reasons.  It is easy to get to from the 5 or the 405 (of course those freeways are always jammed).  The hotel is on the edge of a business park (the businesses are closed during Thanksgiving). It has not been crowded when we stayed, they have a few regulars like the ambulance company that have been there for a couple of years and usually some construction companies.  The rooms are like small apartments.  The kitchen has a full size refrigerator and a microwave.  No oven but they do have two large BBQ units outside with burners.  It has enough plates, silverware and kitchen utensils to get you started. If you need something more they will loan it to you at the front desk.  The room has plenty of space.  The television was a good size and offered tons of channels.  The bathroom had a tub shower combo.  The bed was fine although the pillows were like giant rocks.  The room was very clean and everything worked. 
 The hotel has free washers and dryers, nice ones.  They have an excellent exercise room with all kinds of machines.  We really appreciated the "honor store" which was like a little...We had stayed here for three years during Thanksgiving holiday.  We visit friends in the area and this has been our base camp.  This is a three story hotel in a "L" configuration.  It is easy to find. We like it for several reasons.  It is easy to get to from the 5 or the 405 (of course those freeways are always jammed).  The hotel is on the edge of a business park (the businesses are closed during Thanksgiving). It has not been crowded when we stayed, they have a few regulars like the ambulance company that have been there for a couple of years and usually some construction companies.  The rooms are like small apartments.  The kitchen has a full size refrigerator and a microwave.  No oven but they do have two large BBQ units outside with burners.  It has enough plates, silverware and kitchen utensils to get you started. If you need something more they will loan it to you at the front desk.  The room has plenty of space.  The television was a good size and offered tons of channels.  The bathroom had a tub shower combo.  The bed was fine although the pillows were like giant rocks.  The room was very clean and everything worked. The hotel has free washers and dryers, nice ones.  They have an excellent exercise room with all kinds of machines.  We really appreciated the "honor store" which was like a little convenience store open 24/7.  You took what you needed and filled out a card to track your spending.  It is stocked with all kinds of things, a lot of junk food but they also had things like Weight Watchers frozen meals.  The prices are same as a convenience store.  There is an outdoor area for walking the dog and also a covered BBQ area with two big BBQs.  They have a loaning library so if you want a board game, movie, book or deck of cards, they have all kinds of stuff.  If you need anything else, just ask at the desk.  They really are good about loaning items to make the stay easy and enjoyable.  There are restaurants and stores within walking distance and it is easy to access Lake Forest or the surrounding area.  Now for things that changed this year.  The first thing we noticed driving in was a dozen people in front smoking.  They used to have smoking on the third floor and I almost wish they would have left that alone.  Now you have people going in and out to smoke and leaving a trail of smoke in the elevator.  Plus the designated smoking area is where the BBQs sit.  You want to BBQ and eat outdoors you will probably share it with smokers and that is their area.  Our room had an old style HVAC unit under a window.  The first night the noise from that was unbelievable.  Thank goodness the windows opened and we didn't use it at night after that.  The other thing was the refrigerator.  It cycled frequently and it also made a hell of a racket.  We turned it off when we went to bed and it held cold until morning so that worked out.  Having the windows open kept the room nice and the only problem was finding out the trash is collected pre dawn Friday from the businesses in back.  The guy on the truck throws those big dumpsters around and we both shot right out of bed.  The windows closed would normally eliminate that.  I don't know that kids would work out, not little ones anyway.  No pool and not much to do.  Not a good idea to let them loose in the exercise room or the store.  If they are happy with television, games, books then it probably would work for you.  It is set up for long term stays and I have no idea what the regular season use is like but for the Thanksgiving holiday week, it is just perfect.More</t>
   </si>
   <si>
-    <t>Christel88_13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r336237602-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -600,9 +792,6 @@
     <t>I spent two months there whilst working at my company's headquarters in Lake Forest.I stayed in one of their one bed apartment and really enjoyed my stay.  The one bedder was spacious, well equipped and kept clean.  It was quiet and I could get on with my work. There is a little gym with the essential equipment, a laundry room and a little store. The staff were friendly and helpful. There are plenty of shops nearby but of course the use of a car is required like anywhere else in the US. I will happily go back there if necessary. And recommend it to anyone who needs to stay in the area for an extended period of time but make sure you upgrade to the one bedder for a truly pleasant stay!More</t>
   </si>
   <si>
-    <t>Bart J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r319539637-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -621,7 +810,50 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Paul R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r314230060-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>314230060</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Disappointing stay - room smelled awful. We will stay at a different IHG property in the future.</t>
+  </si>
+  <si>
+    <t>Since Candlewood Suites allows pets, unfortunately, pet odor remains in the rooms even after the rooms are cleaned by the housekeepers. The front desk personnel said they deodorize the rooms, but my room had a terrible smell. I assumed it was from cooked food odor from the previous guests, but if that were the case, the curtains and linens - any fabrics - would also have absorbed the smell. I finally went to Walmart and bought Febreze air deodorizer because the room smelled so bad. Spraying the air in the room did nothing to eliminate the smell. I then sprayed the carpet, and the smell disappeared. The only explanation I can figure for the carpet smell was pet odor. What I don't understand is, if the hotel deodorizes the rooms, why don't they deodorize the carpets as part of the room cleaning, especially after pets have stayed in the room. I also found Cheerios and candy wrappers behind the lounge chair and underneath the bedside table - obviously, housekeeping doesn't thoroughly clean the rooms, just what is immediately visible.
+Additionally, one day, I passed by an open door where the housekeeper was cleaning the room. The room was filled with the guests things and smelled very bad, even from outside the door. I know the hotel has no control over how the guests treat the rooms. Too bad the hotel doesn't have better-mannered guests.
+Speaking of ill-mannered guests, there are...Since Candlewood Suites allows pets, unfortunately, pet odor remains in the rooms even after the rooms are cleaned by the housekeepers. The front desk personnel said they deodorize the rooms, but my room had a terrible smell. I assumed it was from cooked food odor from the previous guests, but if that were the case, the curtains and linens - any fabrics - would also have absorbed the smell. I finally went to Walmart and bought Febreze air deodorizer because the room smelled so bad. Spraying the air in the room did nothing to eliminate the smell. I then sprayed the carpet, and the smell disappeared. The only explanation I can figure for the carpet smell was pet odor. What I don't understand is, if the hotel deodorizes the rooms, why don't they deodorize the carpets as part of the room cleaning, especially after pets have stayed in the room. I also found Cheerios and candy wrappers behind the lounge chair and underneath the bedside table - obviously, housekeeping doesn't thoroughly clean the rooms, just what is immediately visible.Additionally, one day, I passed by an open door where the housekeeper was cleaning the room. The room was filled with the guests things and smelled very bad, even from outside the door. I know the hotel has no control over how the guests treat the rooms. Too bad the hotel doesn't have better-mannered guests.Speaking of ill-mannered guests, there are signs saying that by law, there is no smoking with a certain number of feet from the outer door entrances, yet people stand by the doors, smoking, so that you have to walk through a cloud of smoke to get inside the hotel. The hotel providing ashtrays inside the "no smoking" perimeter also defeats the purpose of the signs saying that it is illegal to smoke within a certain number of feet of the entrances.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>CWDS_LakeForest, Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2015</t>
+  </si>
+  <si>
+    <t>Since Candlewood Suites allows pets, unfortunately, pet odor remains in the rooms even after the rooms are cleaned by the housekeepers. The front desk personnel said they deodorize the rooms, but my room had a terrible smell. I assumed it was from cooked food odor from the previous guests, but if that were the case, the curtains and linens - any fabrics - would also have absorbed the smell. I finally went to Walmart and bought Febreze air deodorizer because the room smelled so bad. Spraying the air in the room did nothing to eliminate the smell. I then sprayed the carpet, and the smell disappeared. The only explanation I can figure for the carpet smell was pet odor. What I don't understand is, if the hotel deodorizes the rooms, why don't they deodorize the carpets as part of the room cleaning, especially after pets have stayed in the room. I also found Cheerios and candy wrappers behind the lounge chair and underneath the bedside table - obviously, housekeeping doesn't thoroughly clean the rooms, just what is immediately visible.
+Additionally, one day, I passed by an open door where the housekeeper was cleaning the room. The room was filled with the guests things and smelled very bad, even from outside the door. I know the hotel has no control over how the guests treat the rooms. Too bad the hotel doesn't have better-mannered guests.
+Speaking of ill-mannered guests, there are...Since Candlewood Suites allows pets, unfortunately, pet odor remains in the rooms even after the rooms are cleaned by the housekeepers. The front desk personnel said they deodorize the rooms, but my room had a terrible smell. I assumed it was from cooked food odor from the previous guests, but if that were the case, the curtains and linens - any fabrics - would also have absorbed the smell. I finally went to Walmart and bought Febreze air deodorizer because the room smelled so bad. Spraying the air in the room did nothing to eliminate the smell. I then sprayed the carpet, and the smell disappeared. The only explanation I can figure for the carpet smell was pet odor. What I don't understand is, if the hotel deodorizes the rooms, why don't they deodorize the carpets as part of the room cleaning, especially after pets have stayed in the room. I also found Cheerios and candy wrappers behind the lounge chair and underneath the bedside table - obviously, housekeeping doesn't thoroughly clean the rooms, just what is immediately visible.Additionally, one day, I passed by an open door where the housekeeper was cleaning the room. The room was filled with the guests things and smelled very bad, even from outside the door. I know the hotel has no control over how the guests treat the rooms. Too bad the hotel doesn't have better-mannered guests.Speaking of ill-mannered guests, there are signs saying that by law, there is no smoking with a certain number of feet from the outer door entrances, yet people stand by the doors, smoking, so that you have to walk through a cloud of smoke to get inside the hotel. The hotel providing ashtrays inside the "no smoking" perimeter also defeats the purpose of the signs saying that it is illegal to smoke within a certain number of feet of the entrances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r312820013-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>312820013</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Great Front Desk Agents</t>
+  </si>
+  <si>
+    <t>This properties main asset would be their front desk agents. I was checked in by a nice lady, forgot her name though. I remember the awesome person at night, Jesse Granados. He has great customer service skills and is very knowlegeable with IHG matters. Being a Platinum member I felt great when Jesse informed me of my benefits and how I could work on getting more points. Another awesome agent was Nazario, such a pleasant guy. I will definitely come back to this great property. Kudos to the managers for training their people well.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r308796076-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -651,9 +883,6 @@
     <t>We arrived at the Candlewood Suites at 11:30 at night because of an airline delay. We checked in and as we were walking down the hall we heard loud music Ok it's going to be one of those stays but as we got a little closer it was coming from our room they just gave us. Did they give us the wrong room and do we need to get security if they have a security person at that time of night and we already had a very long day already. My wife was a little scared so I tried the door anyway the key opened the door hoping the person on the other side of the door didn't have a firearm for protection. I can't believe guests in surrounding room didn't call the front deck before we arrived it was that loud. We went in and it was dark and we turned on the light and someone left the radio on full blast. We did a room check and thank god no one was there. We had a restful sleep the bed was comfortable and it was a nice room. That morning as we are getting ready the plug in the bath didn't work for the blow dryer and the shower curtains was loose because the screw were coming out. I have stayed at many Holiday Inn's and they have been great and this was the first time we staying...We arrived at the Candlewood Suites at 11:30 at night because of an airline delay. We checked in and as we were walking down the hall we heard loud music Ok it's going to be one of those stays but as we got a little closer it was coming from our room they just gave us. Did they give us the wrong room and do we need to get security if they have a security person at that time of night and we already had a very long day already. My wife was a little scared so I tried the door anyway the key opened the door hoping the person on the other side of the door didn't have a firearm for protection. I can't believe guests in surrounding room didn't call the front deck before we arrived it was that loud. We went in and it was dark and we turned on the light and someone left the radio on full blast. We did a room check and thank god no one was there. We had a restful sleep the bed was comfortable and it was a nice room. That morning as we are getting ready the plug in the bath didn't work for the blow dryer and the shower curtains was loose because the screw were coming out. I have stayed at many Holiday Inn's and they have been great and this was the first time we staying at the Candlewood suite. We mention it on check out but they were to busy at the front deck that morning. Maybe I was just unlucky!!  Update! I posted a review on there website and they replied and said they would contact me but that was 2 weeks ago.More</t>
   </si>
   <si>
-    <t>Lloyd_031</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r308608206-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -666,12 +895,6 @@
     <t>Staff was friendly, location reasonably convenient and amenities were close by. One day however the cleaning staff forgot to clean our room, but once I called them they reacted quickly and provided us fresh towels.</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
-    <t>kate410</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r304686642-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -693,7 +916,34 @@
     <t>Our first visit to Candlewood Suites was better than I expected. The small suite was spacious with a kitchen area with attractive cabinets, sink, apartment fridge and microwave. The room was surprisingly quiet, especially during the week when it seemed many of the people are there in short-term housing. The staff are not at the front desk, but can be reached whenever needed. There is no daily housekeeping, but you can get towels and other items. There is  an outdoor BBQ as well as an area where you can check out items like crock pots. There's also a convenience mini-store with food and snacks. For us the free 24 hour laundry housed down the hall was useful. There is a fitness room too, and it looked like all the equipment worked. Candlewood Suites is a few miles from the intersection of the 5 and 405 freeways, so it was convenient. We decided to try Candlewood Suites based on their pet friendly policy. Our first stay was a success, so we are likely to stay there again.More</t>
   </si>
   <si>
-    <t>Kat Q</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r294761403-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>294761403</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Great for long term stay</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff from front desk to housekeeping. Nice side suites....Bed are a bit firm for our liking but acceptable. Well maintained and Convenient  location parking can get a little tight when the hotel is fully booked</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r291898212-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>291898212</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Great base near Irvine spectrum</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights while at a conference in irvine.  Very nice clean modern room - like a studio apartment- full size fridge and microwave - free wifi and free parking. It also has a gym and a little store to get snacks- perfect base and so close to everything!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r286129007-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -720,9 +970,6 @@
     <t>We were extremely disappointed (to say the least) with this hotel in every capacity!  Picked this place because it advertises "pet friendly" - there is one TINY patch of grass in the parking lot with a road on the other side.  We were misinformed of the pet fees (ended up being 75 PER PET), the room was FILTHY - luckily I travel with a bottle of clorox wipes; won't share what I cleaned from the light switch and sink area of the rest room.  There is no ice maker on the property - aside from that in your room which is powered off on default.  I had asked the front desk staff for ice - was told they would bring it outside to us - the young woman I asked never came out, and I learned later that she left for the day after my request - without saying a word.  The front office staff - in general was a bit rude and unaccommodating.  I had asked for a Manager when we checked in (which was noon on Friday) and learned of the pet policy - was informed that there was NO MANAGEMENT on the premises, nor would there be until Monday.  What kind of hotel has zero management presence for over 48 hours?  Had it not been a holiday weekend - (leading to low availability at other hotels in the area) we would have walked out immediately after seeing...We were extremely disappointed (to say the least) with this hotel in every capacity!  Picked this place because it advertises "pet friendly" - there is one TINY patch of grass in the parking lot with a road on the other side.  We were misinformed of the pet fees (ended up being 75 PER PET), the room was FILTHY - luckily I travel with a bottle of clorox wipes; won't share what I cleaned from the light switch and sink area of the rest room.  There is no ice maker on the property - aside from that in your room which is powered off on default.  I had asked the front desk staff for ice - was told they would bring it outside to us - the young woman I asked never came out, and I learned later that she left for the day after my request - without saying a word.  The front office staff - in general was a bit rude and unaccommodating.  I had asked for a Manager when we checked in (which was noon on Friday) and learned of the pet policy - was informed that there was NO MANAGEMENT on the premises, nor would there be until Monday.  What kind of hotel has zero management presence for over 48 hours?  Had it not been a holiday weekend - (leading to low availability at other hotels in the area) we would have walked out immediately after seeing the room. Also just noticed the photo shown below of a room - our room looked NOTHING like this... It was dingy, outdated and equipped for handicap access (which we are not) - and overall extremely unpleasant to be in - given the bigger set of circumstances.Will not return for a multitude of reasons.....More</t>
   </si>
   <si>
-    <t>Break_of_day</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r270275456-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -741,15 +988,9 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I stayed here with a group of friends coming back from a trip to Mexico.  We had a total of four suites.  Since we were dog-tired and I had chosen the hotel, I was a hopeful that everyone would be happy with our rooms. We were!  Check in was a breeze; the girl working the desk was pleasant and answered all our questions.  She showed us a list of dvds we could check out for free.  They also offered free washer/dryer services, books, gym, and board games.  The room was not that big, but was clean and the bed was comfy.  The kitchenette had everything needed to make a meal; a sign posted offered a blender or any other kitchen appliance needed from the front desk.  The bathroom was clean and had a nice shower head with great flow.  The only ding they get is that the bathroom sink plug didn't work; my hubby wanted to fill the sink to shave and couldn't get it to stay closed.  If we had been staying more than one night, we would have asked for it to be fixed.More</t>
   </si>
   <si>
-    <t>Ballsdeeep</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r248856610-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -777,7 +1018,49 @@
     <t>The standard of housekeeping left a lot to be desired. First room we were assigned had not been cleaned since last guest. There were snotty tissues on the couch and smears down the mirrors. Obscene words were also written on the notice board with a biro. The previous guests had also smoked in the room and jammed all the holes in the smoke detector with wet toilet paper to avoid setting it off. Reception was happy to move us to a new, cleaned room. Rest assured it wasn't a good start. No quite as well maintained and presented as others in the chain.  No king beds only doubles presented as queens. Close to shops and I-5. Front door to hotel is only single width and hard to get luggage in. More</t>
   </si>
   <si>
-    <t>PNWtrek</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r243942770-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>243942770</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>Nothing exceptional</t>
+  </si>
+  <si>
+    <t>I stayed there 3 nights, nothing is really standing out.Wall are as thick as cigarette paper which means you can hear your neighbor watching TV if it is too loud.Gym is OKish... not great.Convenient location if you have business in Irvine, Lake Forest.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded December 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2014</t>
+  </si>
+  <si>
+    <t>I stayed there 3 nights, nothing is really standing out.Wall are as thick as cigarette paper which means you can hear your neighbor watching TV if it is too loud.Gym is OKish... not great.Convenient location if you have business in Irvine, Lake Forest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r243225604-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>243225604</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>The room has everything you need at a fair price.</t>
+  </si>
+  <si>
+    <t>Stayed here for several nights and found the hotel to be very comfortable. The staff was helpful. The location was great, I was visiting friends in the Lake Forest / Silverado Canyon area and this was close to both. I like having a Mini Kitchen with a full size fridge. I'll be back</t>
+  </si>
+  <si>
+    <t>October 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r243218328-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -786,9 +1069,6 @@
     <t>243218328</t>
   </si>
   <si>
-    <t>12/06/2014</t>
-  </si>
-  <si>
     <t>Great Suite Excellent Value</t>
   </si>
   <si>
@@ -801,9 +1081,6 @@
     <t>I travel to Irvine once or twice a year and have stayed at several of the local hotels over the years. I decided to try the Candlewood suites this time based on the TA reviews and I was not disappointed. I was immediately greeted upon entering by a friendly clerk who informed me that as the hotel was not busy I had been upgraded to a one bedroom suite, a nice touch. The unit was clean and quiet, the décor was nothing fancy but very functional. I would definitely stay here again when in the area. I did have a similar experience as other members in that my GPS did not send me to the right location. It is tucked away behind the hospital so head as if you are going to the emergency entrance and just before you get there you will see Candlewood Suites at the end of the road.More</t>
   </si>
   <si>
-    <t>mariasolis1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r214852006-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -831,9 +1108,6 @@
     <t>I have nothing negative to say avout the staff nor the cleanliness of this hotel however, whoever built/designed hotel deserves to be slapped across the face for such poor design and lack of knowledge regarding buildings. This building was poorly built. Everytime someone walked acoss the hall on the floor above us or walked around their own room as any person reasonably expects it was horribly loud. You can hear every single creek and step they took and at 11:30 PM when they dropped their luggage on the floor I was rudely awaken from sleep. At 12:40 AM I grew desperate and called the front desk so I could get some sleep. In additiin there are clack out curtains that only cover half the windows. You just get some sheer sheet covering the rest. Who in the world came up with that idea? I had to use a hanger with clamps to try to shuts the windows somewhat.  It was so bad ny husband and I had to use one day of our three day vacation sleeping to make up for the lack of sleep. When using our bathroom I noticed that the cigarrete smoke from upstairs leaks into our room. The treadmills are also horrible on the knees. I also don't like the fact that they advertise a pool online but no pool is available. In short, until they replace the building or I become a heavy sleeper I...I have nothing negative to say avout the staff nor the cleanliness of this hotel however, whoever built/designed hotel deserves to be slapped across the face for such poor design and lack of knowledge regarding buildings. This building was poorly built. Everytime someone walked acoss the hall on the floor above us or walked around their own room as any person reasonably expects it was horribly loud. You can hear every single creek and step they took and at 11:30 PM when they dropped their luggage on the floor I was rudely awaken from sleep. At 12:40 AM I grew desperate and called the front desk so I could get some sleep. In additiin there are clack out curtains that only cover half the windows. You just get some sheer sheet covering the rest. Who in the world came up with that idea? I had to use a hanger with clamps to try to shuts the windows somewhat.  It was so bad ny husband and I had to use one day of our three day vacation sleeping to make up for the lack of sleep. When using our bathroom I noticed that the cigarrete smoke from upstairs leaks into our room. The treadmills are also horrible on the knees. I also don't like the fact that they advertise a pool online but no pool is available. In short, until they replace the building or I become a heavy sleeper I won't be returning.More</t>
   </si>
   <si>
-    <t>Lunagal2008</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r213674948-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -858,7 +1132,51 @@
     <t>I stayed at this hotel for a couple of nights recently.  Plus points; front desk staff were very polite and helpful plus you have a refrigerator, microwave, dishwasher and small stovetop so if like me you just want to head back to your room and throw something together to eat while you work, it was great.  Minus points; the kitchen and bedroom area is all open plan and the refrigerator was noisy when it kicked in.  It wasn't louder than the AC unit though and I had to deliberate about whether to be woken up because I got too warm or by the noise from the AC.  This is designed for someone staying longer; housekeeping is only once a week which was something I didn't spot before I booked it, so I made my own bed and towels, coffee etc. we're not replaced daily.  They do have coffee on tap downstairs but I wasn't about to go down there at 5.30 in the morning to get my first cup of java!More</t>
   </si>
   <si>
-    <t>tngirly_girl</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r208304667-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>208304667</t>
+  </si>
+  <si>
+    <t>06/01/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites - Irvine East  , Lake Forest, CA is nice choice if you have visit to Los angles he rooms include a kitchen with utensils, dishes, glasses and silverware...also the Hotel have nice gym for afternoon activities</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r205390758-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>205390758</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Nice, Quiet Hotel, Great Free Laundry, Excellent for long-term stays</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites - Irvine East (it's actually in Lake Forest, CA) is a nice, pleasant hotel in an upscale neighborhood. It's a good place to stay when on an extended business trip (or even for just one or two nights) because of the amenities. The rooms include a kitchen with utensils, dishes, glasses and silverware, dishwasher, full-sized refrigerator with icemaker, coffeemaker, microwave, DVD/VCR and free lending library at the front desk, a work area, and an overstuffed chair. 
+There is a full workout room, laundry room with four washing machines and six dryers, and pantry with dry, refrigerated and frozen foods that guests can buy on the honor system - you fill out a card with your name, room number and what you took from the pantry. There is a video camera watching what goes on in the pantry/laundry room. I certainly hope guests don't steal. 
+Overall, the hotel gives a nice, pleasant, old-fashioned type feeling, while maintaining modern facilities. The front desk staff keep a bulletin board of activities and places to eat/visit for those residents who are staying a while.
+Of all the Candlewoods in this area, the one in Irvine-East (Laguna Woods) is by far the best - it is kept cleaner than the others and it is actually less expensive, probably because of the greater distance from John Wayne Airport and Disneyland.
+Regarding cleanliness, the cleanliness of the public areas such as the laundry room...The Candlewood Suites - Irvine East (it's actually in Lake Forest, CA) is a nice, pleasant hotel in an upscale neighborhood. It's a good place to stay when on an extended business trip (or even for just one or two nights) because of the amenities. The rooms include a kitchen with utensils, dishes, glasses and silverware, dishwasher, full-sized refrigerator with icemaker, coffeemaker, microwave, DVD/VCR and free lending library at the front desk, a work area, and an overstuffed chair. There is a full workout room, laundry room with four washing machines and six dryers, and pantry with dry, refrigerated and frozen foods that guests can buy on the honor system - you fill out a card with your name, room number and what you took from the pantry. There is a video camera watching what goes on in the pantry/laundry room. I certainly hope guests don't steal. Overall, the hotel gives a nice, pleasant, old-fashioned type feeling, while maintaining modern facilities. The front desk staff keep a bulletin board of activities and places to eat/visit for those residents who are staying a while.Of all the Candlewoods in this area, the one in Irvine-East (Laguna Woods) is by far the best - it is kept cleaner than the others and it is actually less expensive, probably because of the greater distance from John Wayne Airport and Disneyland.Regarding cleanliness, the cleanliness of the public areas such as the laundry room are really dependent on the guests. Fortunately, the guests at this particular Candlewood are neater than the guests at other Candlewoods. I'm assuming this Candlewood might have a better quality of guests because of the type of area (upper class neighborhood, business visitors vs. the tourist crowd at the Candlewood in Garden Grove (the Garden Grove hotel is not as neat) - I'll review the Garden Grove Candlewood and others separately). Since all Candlewoods are supposed to be corporate properties, comparing them to each other does not hurt the corporate bottom line, especially when this review praises the Candlewood Irvine-East.Additionally, the staff at this Candlewood in Irvine-East (Laguna Woods) work really hard to keep the hotel clean. I know, because I saw them cleaning the laundry room at 4:30 a.m. The front desk is staffed from 7am-11pm, but I think there is also someone on staff during the off hours, even though the front desk is not open, for people who check in late.There is an outdoor shopping center not too far away, with a Walmart, Target, and several restaurants, for your grocery and dining needs. There is also a Starbucks and other fast-food dining options just down the street from the hotel.I would highly recommend the Candlewood - Irvine East (Laguna Woods), especially for business travelers who will be staying a long time. (I overheard some people checking in, saying they were planning on staying for months.) This hotel combines the best of short-term residential apartments with long-term hotel amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites - Irvine East (it's actually in Lake Forest, CA) is a nice, pleasant hotel in an upscale neighborhood. It's a good place to stay when on an extended business trip (or even for just one or two nights) because of the amenities. The rooms include a kitchen with utensils, dishes, glasses and silverware, dishwasher, full-sized refrigerator with icemaker, coffeemaker, microwave, DVD/VCR and free lending library at the front desk, a work area, and an overstuffed chair. 
+There is a full workout room, laundry room with four washing machines and six dryers, and pantry with dry, refrigerated and frozen foods that guests can buy on the honor system - you fill out a card with your name, room number and what you took from the pantry. There is a video camera watching what goes on in the pantry/laundry room. I certainly hope guests don't steal. 
+Overall, the hotel gives a nice, pleasant, old-fashioned type feeling, while maintaining modern facilities. The front desk staff keep a bulletin board of activities and places to eat/visit for those residents who are staying a while.
+Of all the Candlewoods in this area, the one in Irvine-East (Laguna Woods) is by far the best - it is kept cleaner than the others and it is actually less expensive, probably because of the greater distance from John Wayne Airport and Disneyland.
+Regarding cleanliness, the cleanliness of the public areas such as the laundry room...The Candlewood Suites - Irvine East (it's actually in Lake Forest, CA) is a nice, pleasant hotel in an upscale neighborhood. It's a good place to stay when on an extended business trip (or even for just one or two nights) because of the amenities. The rooms include a kitchen with utensils, dishes, glasses and silverware, dishwasher, full-sized refrigerator with icemaker, coffeemaker, microwave, DVD/VCR and free lending library at the front desk, a work area, and an overstuffed chair. There is a full workout room, laundry room with four washing machines and six dryers, and pantry with dry, refrigerated and frozen foods that guests can buy on the honor system - you fill out a card with your name, room number and what you took from the pantry. There is a video camera watching what goes on in the pantry/laundry room. I certainly hope guests don't steal. Overall, the hotel gives a nice, pleasant, old-fashioned type feeling, while maintaining modern facilities. The front desk staff keep a bulletin board of activities and places to eat/visit for those residents who are staying a while.Of all the Candlewoods in this area, the one in Irvine-East (Laguna Woods) is by far the best - it is kept cleaner than the others and it is actually less expensive, probably because of the greater distance from John Wayne Airport and Disneyland.Regarding cleanliness, the cleanliness of the public areas such as the laundry room are really dependent on the guests. Fortunately, the guests at this particular Candlewood are neater than the guests at other Candlewoods. I'm assuming this Candlewood might have a better quality of guests because of the type of area (upper class neighborhood, business visitors vs. the tourist crowd at the Candlewood in Garden Grove (the Garden Grove hotel is not as neat) - I'll review the Garden Grove Candlewood and others separately). Since all Candlewoods are supposed to be corporate properties, comparing them to each other does not hurt the corporate bottom line, especially when this review praises the Candlewood Irvine-East.Additionally, the staff at this Candlewood in Irvine-East (Laguna Woods) work really hard to keep the hotel clean. I know, because I saw them cleaning the laundry room at 4:30 a.m. The front desk is staffed from 7am-11pm, but I think there is also someone on staff during the off hours, even though the front desk is not open, for people who check in late.There is an outdoor shopping center not too far away, with a Walmart, Target, and several restaurants, for your grocery and dining needs. There is also a Starbucks and other fast-food dining options just down the street from the hotel.I would highly recommend the Candlewood - Irvine East (Laguna Woods), especially for business travelers who will be staying a long time. (I overheard some people checking in, saying they were planning on staying for months.) This hotel combines the best of short-term residential apartments with long-term hotel amenities.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r202240015-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -876,9 +1194,6 @@
     <t>i was told when i made the reservation that i would receive the $22 reservation fee off the price of the hotel at the time of check in. The price of the hotel was to be $79 plus taxes and the $22 would be taken off of that. I was charged $90 at time of check in on the night of 4/18/14. After i looked at the bill on the morning of 4/19/14 i realized that the $22 had not been taken off. When i ask the morning receptionist  why i didn't get the $22 reservation fee off the receptionist said they had never heard of a reservation fee. So in short i ended up paying $120 for a $79 hotel room!!!!  MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded May 7, 2014</t>
   </si>
   <si>
@@ -888,9 +1203,6 @@
     <t>i was told when i made the reservation that i would receive the $22 reservation fee off the price of the hotel at the time of check in. The price of the hotel was to be $79 plus taxes and the $22 would be taken off of that. I was charged $90 at time of check in on the night of 4/18/14. After i looked at the bill on the morning of 4/19/14 i realized that the $22 had not been taken off. When i ask the morning receptionist  why i didn't get the $22 reservation fee off the receptionist said they had never heard of a reservation fee. So in short i ended up paying $120 for a $79 hotel room!!!!  More</t>
   </si>
   <si>
-    <t>D N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r201321824-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -915,9 +1227,6 @@
     <t>I stayed here a month ago and was just reminded as I am here in Southern California again, but this time chose to stay at another hotel not far.We had checked in late and was greeted with rude front desk personnel. The rooms were not very clean and seemed that many lights, tv, etc did not work...was told they would come check but never did.Not a good choice.More</t>
   </si>
   <si>
-    <t>Mountainmike55</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r200819838-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -936,7 +1245,43 @@
     <t>Both my wife and I went to visit her Mom in LA.  We really did not want to head all the way home and be tired the next day so looked for a hotel on the spur of the moment.This hotel is by FAR one of the best we have ever stayed in.  From a Fantastic room that was clean and neat to the Fantastic staff that helped us with all of our requests.This is a LONG STAY hotel, so if you do not mind bringing your towels to the desk , this is perfect.It is in the Irvine Spectrum area, so It is in a business area.  It is about 45 minutes from Disney, but a good place to stay for Disney, Knotts and other LA attractions.I WOULD HIGHLY recommend this hotel to anyone..More</t>
   </si>
   <si>
-    <t>Patrick F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r192608543-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>192608543</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>Best customer service</t>
+  </si>
+  <si>
+    <t>My family spent a weekend at this property to relax. We had an awesome check in experience which was delivered by Jaime. He really had a way to make us feel welcome. Another person from the front desk is Nazario who treated us like royalty. Will definitely come back because of them.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r190034932-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>190034932</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Just okay, know what your getting yourself into!</t>
+  </si>
+  <si>
+    <t>This is the second time I stayed here. Before the first problem was loud housekeepers being disruptive, now the problem seems to be comfort. The room changes from very hot to very cold there is no in between. When the air conditioner is on it is very loud and did not sleep well because of that. Also I had suspicion water was leaking out of the bottom of the air conditioner because the floor was wet. Those air conditioners need to be inspected! In the beginning of my stay our coffee maker in the room did not work and the lady who worked at the front desk (forgot her name) was professional, polite and promptly brought us a new coffee maker that worked great. However I noticed there was a light brown stain on one of the towels which I found disgusting after we checked in. Other than that this hotel is just okay, the location is kind of in a boring part of town as far as walking distance goes, but if you have a car luckily the Spectrum isn't far and you don't even have to take freeway to get there.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2014</t>
+  </si>
+  <si>
+    <t>This is the second time I stayed here. Before the first problem was loud housekeepers being disruptive, now the problem seems to be comfort. The room changes from very hot to very cold there is no in between. When the air conditioner is on it is very loud and did not sleep well because of that. Also I had suspicion water was leaking out of the bottom of the air conditioner because the floor was wet. Those air conditioners need to be inspected! In the beginning of my stay our coffee maker in the room did not work and the lady who worked at the front desk (forgot her name) was professional, polite and promptly brought us a new coffee maker that worked great. However I noticed there was a light brown stain on one of the towels which I found disgusting after we checked in. Other than that this hotel is just okay, the location is kind of in a boring part of town as far as walking distance goes, but if you have a car luckily the Spectrum isn't far and you don't even have to take freeway to get there.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r187096381-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -966,9 +1311,6 @@
     <t>I usually like Candlewood Suites. I know what I am getting in to with the extended stay places, but I like the positive trade offs like the mini kitchen.So first the good: The front desk staff I interacted with were great! The room is what you've come to expect, with the exception of two problems that ultimately force me give the rating I am giving.First, there were no dark, heavy blinds. There were some transparent blinds that would shut all the way, but the heavy black out curtains  would not cover the window at all. So whether you like it or not, if sunlight wakes you up, 7 am is your wake up time!Finally, the pillows were downright HORRIBLE! The firm ones were lumpy at best. And the soft ones were almost nonexistent.An added thumbs down is nothing is walking distance. It's a strange area of the OC, very industrial like. And so there isn't a coffee place or other food you can quickly hop out of the hotel to go grab.Candlewoods can be great, but research what you are getting in to. The staff ere is great, but the rooms need some simple upgrades before I can give it a higher rating!More</t>
   </si>
   <si>
-    <t>Amy T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r186957342-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -987,9 +1329,6 @@
     <t>I stayed here on business for 2weeks.Good side is the suites are equipped with kitchen.However, the room I was given had weird smell like some kind of construction material. On the first night I was greeted by a small roach in bed, which I had to catch and kill. My allergy was triggered either by dust or dustmites. I was charged with some merchandise they sell at their convenience store, where I never even stopped by. I insisted on a refund. It was good that I noticed, otherwise I had to pay without even knowing it. WIFI is often too slow for business use.I don't recommend this hotel to someone who has allergy like me. If you need a place to cook and just sleep at reasonable price, then this hotel may be good.More</t>
   </si>
   <si>
-    <t>dw1968</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r186872977-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1008,7 +1347,46 @@
     <t>Submitted by Julia GnuseIf you're making your holiday plans, be sure to stay with Candlewood Suites - you can't go wrong! I've been staying at the Candlewood Suites Lake Forest since March of this year, and holding down a room at the Candlewood Suites Ft. Myers Sanibel Gateway since August. I can't say enough about the facility - it's clean, comfortable, and modern, and the management and staff always go out of their way provide excellent customer service and to make me feel at home! After leaving the Lake Forest Candlewood soon, I'll be staying with the Candlewood Sanible Gateway for another year or more, treating it just like an apartment, and when I return to California for visits, I'll always stay at the Candlewood Lake Forest. I would like to commend the management and staff at both hotels, including Ash Beshay, General Manager at Candlewood Suites Lake Forest, as well as Dan Berben and Jody Johnson, General Manager and Manager, respectively, at Candlewood Suites Sanibel Gateway. They are all part of why Candlewood Suites is my first choice when traveling for short, medium, or extended stays.More</t>
   </si>
   <si>
-    <t>Sdmjohn71970</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r174424160-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>174424160</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Great staff, facility, location</t>
+  </si>
+  <si>
+    <t>I have been staying at this Candlewood for 6 months, and I have nothing but praise for this as a great place to stay.  The facility is well maintained, the rooms are comfortable with a nice kitchenette, the free laundry facility is convenient, and there is a great exercise facility.  It is convenient to highways but very quiet inside and out.  All of the staff provide excellent service, including the manager, Daniel Fermin, and all support staff:  Glenda Thomas, Zureth Avena, Denise A., Jaime Mata, Nazario Sanchez, Orly Olano, Wally Shoaff, Xochitl Beltran, Maria Gonzalez, Salome Torres, Eduardo Santos, Teresa Cortazo.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r173737812-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>173737812</t>
+  </si>
+  <si>
+    <t>08/23/2013</t>
+  </si>
+  <si>
+    <t>Average Candlewood Suites</t>
+  </si>
+  <si>
+    <t>This was an average Candlewood Suites.  The suite was clean enough, however, the  service at this  Candlewood Suites is lacking. The internet wasn't working for nearly 3 days and then when it was working, I could barely get a connection.  After asking the front desk too many times, I just gave  up and went to the nearby Starbucks. I think the best thing about this place was the fitness room. Seems like all the equipment was new.  The laundry room is a nice convienence, but it was always crowded. You will need to do your laundry late at night. I think I was doing my laundry at 1am.    I'm not sure about the mini market they have here. The shelves were bare everyday.  Maybe they just sell out all the time?  Someone needs to work on the hotel areas. The sitting area outside near the BBQ's were always a mess,  cigarette butts and  trash everywhere and the floors and carpet just  were not clean.  This hotel  really should find a place for all the smokers.  There is a lot of smokers everywhere, even at the entrance.  I couldn't get away from them. It just would be nice to sit outside without smoke in your face.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>This was an average Candlewood Suites.  The suite was clean enough, however, the  service at this  Candlewood Suites is lacking. The internet wasn't working for nearly 3 days and then when it was working, I could barely get a connection.  After asking the front desk too many times, I just gave  up and went to the nearby Starbucks. I think the best thing about this place was the fitness room. Seems like all the equipment was new.  The laundry room is a nice convienence, but it was always crowded. You will need to do your laundry late at night. I think I was doing my laundry at 1am.    I'm not sure about the mini market they have here. The shelves were bare everyday.  Maybe they just sell out all the time?  Someone needs to work on the hotel areas. The sitting area outside near the BBQ's were always a mess,  cigarette butts and  trash everywhere and the floors and carpet just  were not clean.  This hotel  really should find a place for all the smokers.  There is a lot of smokers everywhere, even at the entrance.  I couldn't get away from them. It just would be nice to sit outside without smoke in your face.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r171915365-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1026,12 +1404,6 @@
     <t>This was a great find. Hotels can get very expensive in So Cal and this was a great value (paid $90 per night). Only downfall is that it is a little off the beat and path. However it is easy to get to the highway and the beach cities. The room was very clean and modern, very comfortable bed  and quiet. Will for sure stay here again in the future.</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
-    <t>Mister_Em</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r164200811-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1053,9 +1425,6 @@
     <t>My wife and I stayed here for a week.  We were completely satisfied.  We specifically booked this hotel because of the full kitchen.  There are a several grocery stores nearby and we stocked up when we first arrived.  We liked that the hotel is close to both I-5 and I-405 so getting around the area was easy.  There are restaurants nearby - we enjoyed Mimi's Cafe and the Thai Garden.The only problem we had was that the first room assigned to us was adjacent to smoking rooms, and there was a strong odor of smoke in the hall outside our room.  We asked to be moved and the front desk put us on another floor which seemed to be all non-smoking, so that solved the problem.More</t>
   </si>
   <si>
-    <t>smallhan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r163636397-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1083,7 +1452,46 @@
     <t>It is clean and quiet. That is all that a business trip needs. I saw a lady bringing in her dog though I don't see dog hair in my room. It has a shaky elevator and the license has been expired. Lack of indicator and signs, it was hard for me to locate the elevator.More</t>
   </si>
   <si>
-    <t>nini0</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r162224691-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>162224691</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>This is for me</t>
+  </si>
+  <si>
+    <t>This is the second time I have stayed here, this time for some 9 days.I chose it for the full kitchen and the lack of housekeeping.The housekeeping is once a week which means that you can spread out and not clean before the cleaner.I go to the supermarket and buy food and then can cook rather than be disappointed from the lack of real eateries!The rooms are fine, the kitchen good except the vegetable  cutting knife was one with a bendy handle and in fact broke in mid cut.I did not have any noise problems even being on the ground floor.I will come back next year</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r158798687-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>158798687</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Nice room, shame about the noise</t>
+  </si>
+  <si>
+    <t>I recently stayed here on business.  Just for one night, but that was enough to be honest.  I was put into room 130, right beside the amenities, and the noise from that room throughout the night prevented a good nights sleep.  If they offer this room to you, I strongly recommend you request another.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded May 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed here on business.  Just for one night, but that was enough to be honest.  I was put into room 130, right beside the amenities, and the noise from that room throughout the night prevented a good nights sleep.  If they offer this room to you, I strongly recommend you request another.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r157695631-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1101,9 +1509,6 @@
     <t>I loved staying in this area as its quiet and decent, the rooms were clean and comfortable. however i woke up to a disturbance at 8-8:30am, housekeeping staff was being very inconsiderate, loud and obnoxious and acting VERY immature in the hallways. its like really??????? who acts like that?  Managers need to train the housekeepers to teach them some manners and be considerate to guests who are trying to relax/sleep. I am probably not coming back.MoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded May 10, 2013</t>
   </si>
   <si>
@@ -1113,9 +1518,6 @@
     <t>I loved staying in this area as its quiet and decent, the rooms were clean and comfortable. however i woke up to a disturbance at 8-8:30am, housekeeping staff was being very inconsiderate, loud and obnoxious and acting VERY immature in the hallways. its like really??????? who acts like that?  Managers need to train the housekeepers to teach them some manners and be considerate to guests who are trying to relax/sleep. I am probably not coming back.More</t>
   </si>
   <si>
-    <t>Chrispy2day</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r157443883-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1134,9 +1536,6 @@
     <t>I really enjoyed my stay at the Candlewood Suites in Lake Forest.  This was my first stay at a Candlewood Suites so if, like me, you are not familiar with them here's what you need to know. These are geared towards extended stays, so maid service is once a week, there's no restaurant in the hotel or room service.  This isn't the Ritz, so if that's the kind of experience you're looking for, keep searching.However, what you do get is a nice private space with all the things that you need.  There's a kitchenette that's stocked with dishes and full-sized fridge, a spacious desk area, and a bed for your main area.  I found all to be nicely kept and very functional.  The bathroom was actually quite a bit nicer than I had anticipated as well.I was here for work, so for me this was perfect.  As my title states, it felt very much like a home away from home -- my own private space and less like a hotel.  The wireless internet is free (Free!! - pay attention some of you expensive hotel chains!!) and worked flawlessly throughout my stay, even doing a lot of VPN connections to my office.  So I was completely satisfied and will happily stay here next time I'm doing work in the area.More</t>
   </si>
   <si>
-    <t>Reve B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r152573094-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1155,7 +1554,49 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>ducktollerintheOC</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r151043332-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>151043332</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Very basic accommadation, not one of our favourite memories</t>
+  </si>
+  <si>
+    <t>We booked this directly, and requested two rooms adjoining/closely as traveling with teenagers.When we arrived we were told they had no rooms closely, so they had two rooms on opposite ends of the building. The place is pet friendly, so there is a definite odour in the rooms and hallways. The rooms were not very clean, and could do with a good clean throughout.Unfortunately my son became sick the first night we arrived, so I ended up spending the night with him as was our rooms were too far away from each other. Would I come back, the answer is no.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded February 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2013</t>
+  </si>
+  <si>
+    <t>We booked this directly, and requested two rooms adjoining/closely as traveling with teenagers.When we arrived we were told they had no rooms closely, so they had two rooms on opposite ends of the building. The place is pet friendly, so there is a definite odour in the rooms and hallways. The rooms were not very clean, and could do with a good clean throughout.Unfortunately my son became sick the first night we arrived, so I ended up spending the night with him as was our rooms were too far away from each other. Would I come back, the answer is no.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r150574172-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>150574172</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Reliably comfortable</t>
+  </si>
+  <si>
+    <t>Candlewood Suites is a predictably easy place to stay. If you've stayed at one, you know what you're getting. You can pick up some eggs or cereal and not have to search for breakfast. There is always coffee in the lobby. The little packets of coffee for the little coffee maker in the room are always awful in our estimation. We actually travel with a few coffee filters and pick up some Starbucks so we can take our time in the mornings.This particular Candlewood is near some great shopping and dining - the Irvine Spectrum. It's near the 5 and the 405.The staff were all friendly. Our room was VERY clean and we never heard another guest. It seems to be primarily used for business travelers. That's a bonus in our opinion. We usually travel with our small dog, but did not this time. Candlewood has accommodated our dog easily in the past, and we found this Candlewood to be pet friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewood Suites is a predictably easy place to stay. If you've stayed at one, you know what you're getting. You can pick up some eggs or cereal and not have to search for breakfast. There is always coffee in the lobby. The little packets of coffee for the little coffee maker in the room are always awful in our estimation. We actually travel with a few coffee filters and pick up some Starbucks so we can take our time in the mornings.This particular Candlewood is near some great shopping and dining - the Irvine Spectrum. It's near the 5 and the 405.The staff were all friendly. Our room was VERY clean and we never heard another guest. It seems to be primarily used for business travelers. That's a bonus in our opinion. We usually travel with our small dog, but did not this time. Candlewood has accommodated our dog easily in the past, and we found this Candlewood to be pet friendly.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r149974603-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1178,9 +1619,6 @@
 Lovely...My first review with Trip Advisor.  I just had to give a shout out to Lauriee, the manager, and her wonderful, cheerful staff here at Candlewood Suites in Lake Forest.My husband, myself and our 50 pound dog are in the process of relocating to Orange County from Canada.  We needed a place to stay for several weeks while we were look for a house.  After reading other Trip Advisor reviews, and going on the Candlewood website, I decided that this hotel had a lot going for it like a FULL kitchen with two-burner stove and dishwasher.  They even let us borrow a toaster over to bake something for dinner.  The bathrooms are really clean and spacious. Bed is very comfortable.  Everything is remodelled.  Everyone here is so helpful.  We needed some documents printed and the front desk has helped us with this several times for a very reasonable rate per page.  The rooms are cleaned weekly, but you can exchange towels and sheets whenever you need them.  You can borrow DVDs from the front desk, buy snacks on site, free coffee, and the laundry is free of charge with many machines.  Safe parking lot and very quiet area.  I recommend the suite with the separate bedroom.  Costs a bit more, but well worth it if there will be more than one of you, and you will be here for awhile.  Has a pull out sofa and two TVs.  Lovely park called Rancho Serrano just up the street for walking your dog.  Nice pathways all  around this area of Lake Forest.  If you have a car, there are lots of restaurants along El Toro Road about 5 minutes drive.  Otherwise, there are Starbucks, McDonald's, KFC, El Pollo Loco, Quiznos and two sushi places that you can walk to in just a few minutes.MoreShow less</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
     <t>My first review with Trip Advisor.  I just had to give a shout out to Lauriee, the manager, and her wonderful, cheerful staff here at Candlewood Suites in Lake Forest.
 My husband, myself and our 50 pound dog are in the process of relocating to Orange County from Canada.  We needed a place to stay for several weeks while we were look for a house.  After reading other Trip Advisor reviews, and going on the Candlewood website, I decided that this hotel had a lot going for it like a FULL kitchen with two-burner stove and dishwasher.  They even let us borrow a toaster over to bake something for dinner.  The bathrooms are really clean and spacious. Bed is very comfortable.  Everything is remodelled.  
 Everyone here is so helpful.  We needed some documents printed and the front desk has helped us with this several times for a very reasonable rate per page.  
@@ -1189,9 +1627,6 @@
 Lovely...My first review with Trip Advisor.  I just had to give a shout out to Lauriee, the manager, and her wonderful, cheerful staff here at Candlewood Suites in Lake Forest.My husband, myself and our 50 pound dog are in the process of relocating to Orange County from Canada.  We needed a place to stay for several weeks while we were look for a house.  After reading other Trip Advisor reviews, and going on the Candlewood website, I decided that this hotel had a lot going for it like a FULL kitchen with two-burner stove and dishwasher.  They even let us borrow a toaster over to bake something for dinner.  The bathrooms are really clean and spacious. Bed is very comfortable.  Everything is remodelled.  Everyone here is so helpful.  We needed some documents printed and the front desk has helped us with this several times for a very reasonable rate per page.  The rooms are cleaned weekly, but you can exchange towels and sheets whenever you need them.  You can borrow DVDs from the front desk, buy snacks on site, free coffee, and the laundry is free of charge with many machines.  Safe parking lot and very quiet area.  I recommend the suite with the separate bedroom.  Costs a bit more, but well worth it if there will be more than one of you, and you will be here for awhile.  Has a pull out sofa and two TVs.  Lovely park called Rancho Serrano just up the street for walking your dog.  Nice pathways all  around this area of Lake Forest.  If you have a car, there are lots of restaurants along El Toro Road about 5 minutes drive.  Otherwise, there are Starbucks, McDonald's, KFC, El Pollo Loco, Quiznos and two sushi places that you can walk to in just a few minutes.More</t>
   </si>
   <si>
-    <t>Bob C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r148283983-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1210,9 +1645,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>jthomas1139</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r145254763-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1234,7 +1666,43 @@
     <t>The hotel is geared to those who stay at least a week.  If you do, the prices are lower.  The rooms are clean, but there is no maid service except for one day a week.  Each room has a full kitchen with stove, refrigerator and utensils for cooking and eating.  The staff are helpful and courteous.  The hotel is quiet and is set back from Bake Parkway.There are fast-food restaurants nearby, including a Pollo Loco, McDonalds and others.  A supermarket is not far away.  I have stayed at this hotel a number of times and discovered that they have had a recent renovation of the rooms and facility.  While there is no swimming pool, there is an exercise room and laundry along with snack machines.I would stay here again.More</t>
   </si>
   <si>
-    <t>K_singh_12</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r143034915-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>143034915</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>Very bad</t>
+  </si>
+  <si>
+    <t>They have a huge problem with a Internet,it is very slow and most of the time there is no Internet. I complain few times but it seems nothing happening. I stayed there for 5 months. The dishwasher is leaking,the curtain felt from the window. Every room stings different. You need to stay for at least few weeks so you can use to the smell. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Orange County/ Irvine East, responded to this reviewResponded October 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2012</t>
+  </si>
+  <si>
+    <t>They have a huge problem with a Internet,it is very slow and most of the time there is no Internet. I complain few times but it seems nothing happening. I stayed there for 5 months. The dishwasher is leaking,the curtain felt from the window. Every room stings different. You need to stay for at least few weeks so you can use to the smell. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r137667309-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>137667309</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Nice for the Business Traveler</t>
+  </si>
+  <si>
+    <t>Nice comfortable place for the business traveler. Kitchens were nice to make a quick meal in.Laundry is FREE,  Friendly staffAs a heads up since this a extended stay suite rooms are only made after seven days of stay, Close to the 405 and 15-20 minutes from SNA airport with no traffic</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r137217461-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1252,9 +1720,6 @@
     <t>Very nice staff.,very clean room with full kitchen, I was really impressed that everything I would need would be there,Location is very quite and safe and close to the nice beaches in orange county.thank you shally and manager for your help</t>
   </si>
   <si>
-    <t>kes1066</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r135460224-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1273,9 +1738,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>bob n</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r133796516-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1291,7 +1753,37 @@
     <t>room was nice faucilitys good laundry fitness center my wife and i stayed here a week but was billed 2x for room i paid on priceline a month ago they kept 500 deposit and added 122.70 hopefully i will get refund girl at office said lack of communication somebody ought to know whats going on i feel like i as pan handled</t>
   </si>
   <si>
-    <t>sal3521</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r131987284-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>131987284</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>Way better than i expected</t>
+  </si>
+  <si>
+    <t>Just checked in right now..based on the review that ive seen here..wayy better than i expected..we will be back nextTi</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r124586716-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>124586716</t>
+  </si>
+  <si>
+    <t>02/14/2012</t>
+  </si>
+  <si>
+    <t>Couldn't ask for more</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here. It was being remodeled but I couldn't tell. Never heard anything. The a/c was sorta load, but it's not too new. Nothing big. It was very nice having laundry facilities available. They do have nice grills to use, I didn't get chance to use them. I like the computer desk that is there. I just can't say enough about this place. The front desk gentleman was just that a PERFECT helpful gentleman. HE needs a grand pat on the back.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r121606288-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1321,9 +1813,6 @@
     <t>The Hotel is under renovation.  There was noise.  The water pipes busted in the hall and the evening before we left there was a flood in the bathroom of the unit above us on the 3rd floor and it came through the ceiling in our bathroom and flooded the floor.  It was the first hotel I ever stayed at that did not have daily maid service.  They said they change the bedding and the towels on the day you arrive and if you want clean bedding and towels you have to take the dirty ones  to the front desk for exchange.  There were no other amenitives other than a laundry room and snack machine area.  For what we paid for the room I felt it was unacceptable.More</t>
   </si>
   <si>
-    <t>d3vilkitten</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r121142412-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1342,9 +1831,6 @@
     <t>October 2011</t>
   </si>
   <si>
-    <t>RCofCupertino</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r120997892-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1363,7 +1849,37 @@
     <t>November 2011</t>
   </si>
   <si>
-    <t>Pelehu</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r120765956-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>120765956</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>My kind of place!</t>
+  </si>
+  <si>
+    <t>I stayed here recently for a business trip. High speed internet was FREE - how refreshing!  The location for ME was great, although I must say there are not a lot of restaurants, shopping, etc. within walking distance (I was car-less). The room was VERY clean and the kitchenette was a bonus. There is free coffee 24/7 in the pantry, as well as a large selection of food items available for purchase either on the honor system or by charging the items to your room. Also included are free washers and dryers and a small exercise room.The staff were very friendly, helpful, and accommodating. I will be staying there again in the near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here recently for a business trip. High speed internet was FREE - how refreshing!  The location for ME was great, although I must say there are not a lot of restaurants, shopping, etc. within walking distance (I was car-less). The room was VERY clean and the kitchenette was a bonus. There is free coffee 24/7 in the pantry, as well as a large selection of food items available for purchase either on the honor system or by charging the items to your room. Also included are free washers and dryers and a small exercise room.The staff were very friendly, helpful, and accommodating. I will be staying there again in the near future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r119089932-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>119089932</t>
+  </si>
+  <si>
+    <t>10/08/2011</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>i recently stayed here for 3 nights.  This was my first stay at a all suite extended stay hotel.  I was really impressed that everything I would need would be there.  I mean everything, even for the fully equipped kitchen. As another hotel employee, this place was top notch.  I would highly recommend this place.. Staff was excellent. good job. thanks. Very well kept property!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r115142320-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1417,9 +1933,6 @@
     <t>June 2011</t>
   </si>
   <si>
-    <t>Emily M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r102039092-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1441,7 +1954,40 @@
     <t>We were very unhappy with our stay here.  When we arrived, the room temperature was 78 degrees.  We found out why when we turned on the a/c and discovered that it was unbelievably loud.  Every time it cycled on during the night, we woke up.  There were also loud bangs periodically outside our room - we don't know what they were but they were highly disruptive (they went on ALL NIGHT).  The location is surprising for a hotel.  It is surrounded by non-retail offices and manufacturing, also car repair places.  Across the street is a large empty(?) area that is fenced in with barbed wire around the top.  We will definitely not stay here again and we do NOT recommend this hotel.More</t>
   </si>
   <si>
-    <t>Choees</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r91349418-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>91349418</t>
+  </si>
+  <si>
+    <t>01/01/2011</t>
+  </si>
+  <si>
+    <t>Not what we expected but it worked</t>
+  </si>
+  <si>
+    <t>We were just here for one night but since we were bringing our baby and dog, we were expecting an actual suite - one with a separate sleeping area and living space. Unfortunately, we got a studio suite which meant we had to go  to bed when the baby went to bed - at 7pm! Oh well. The room was nice enough and clean. There were no special accommodations for the dog, but that was fine. There were bushes and some grass patches in front to relieve the dog so that worked fine.  My only compliant is that the lobby smelled very perfumy and the bed was not comfortable for me. My husband had no issue though so I guess that's subjective. Th location is semi-industrial but walking distance to several restaurants including McDonalds and Starbucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>We were just here for one night but since we were bringing our baby and dog, we were expecting an actual suite - one with a separate sleeping area and living space. Unfortunately, we got a studio suite which meant we had to go  to bed when the baby went to bed - at 7pm! Oh well. The room was nice enough and clean. There were no special accommodations for the dog, but that was fine. There were bushes and some grass patches in front to relieve the dog so that worked fine.  My only compliant is that the lobby smelled very perfumy and the bed was not comfortable for me. My husband had no issue though so I guess that's subjective. Th location is semi-industrial but walking distance to several restaurants including McDonalds and Starbucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r90724029-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>90724029</t>
+  </si>
+  <si>
+    <t>12/26/2010</t>
+  </si>
+  <si>
+    <t>Good value ... if you can sleep on a billiard table</t>
+  </si>
+  <si>
+    <t>We selected this hotel because of its location and because they have a pet-friendly policy.  The amenities, while definitely not upscale, were fine for our needs.  This hotel caters to business people, and our expectations were correctly aligned.  All would have been fine had we actually  been able to get a decent night's sleep.  Unfortunately, that was not possible, due to the super-firm mattress.  In all, I probably got about 2 hours of sleep, if that.  If you like a really firm mattress, then this is the place for you.  If not, then I suggest that you find other accommodations.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r88402864-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1462,9 +2008,6 @@
     <t>January 2010</t>
   </si>
   <si>
-    <t>Hossam_Adel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r78628323-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1486,9 +2029,6 @@
     <t>Well, I just wanted to thank all the front office staff for their cooperation and the friendly atmosphere they showed me during our stay there for over 55 days which never happened before in a hotel but I started to get used to that hotel there and wanted to go back again whenever I’m in California (funny that I started to plan for some of my friends so they can be there as well) Well it’s a cozy hotel with a nice room specially that I booked the 2 rooms deal with the full kitchen facilities along with the BBQ facilities at the hotel end.It was clean, ppl were friendly, even guests were friendly that’s why my wife felt safe in a way and what else I can ask for right with as little money as I paid for advance purchase booking along with our young sonIt can be the perfect home away from home for anyone who will be in Orange County for whatever reasonsThank you Serge and thank all your fellow workers for our memorable stay and special hi from the young son of mine to you More</t>
   </si>
   <si>
-    <t>apple512</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r75214730-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1507,7 +2047,43 @@
     <t>August 2010</t>
   </si>
   <si>
-    <t>travelingPRgirl</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r63959311-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>63959311</t>
+  </si>
+  <si>
+    <t>05/12/2010</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>This hotel is in a very good location.  It is not far from the beaches and not far from Disneyland.  It is not fancy, but more than adequate.  It had a good kitchen with all that is necessary for cooking.  Free coffee was available in the laudry room/mini-mart.  There was also a coffee maker in the room.  It is in a safe and quiet location off the main roads; so there is no road or airport noise.  Kids were skateboarding at the end of the parking lot, but not causing trouble or interfering with people or the parking lot.  The front desk staff was helpful.  The room was perfect except that the hairdryer didn't seem to work.  I had my own hairdryer; so I didn't complain.  The price was very reasonable and the quality was above average.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>This hotel is in a very good location.  It is not far from the beaches and not far from Disneyland.  It is not fancy, but more than adequate.  It had a good kitchen with all that is necessary for cooking.  Free coffee was available in the laudry room/mini-mart.  There was also a coffee maker in the room.  It is in a safe and quiet location off the main roads; so there is no road or airport noise.  Kids were skateboarding at the end of the parking lot, but not causing trouble or interfering with people or the parking lot.  The front desk staff was helpful.  The room was perfect except that the hairdryer didn't seem to work.  I had my own hairdryer; so I didn't complain.  The price was very reasonable and the quality was above average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r61940794-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
+  </si>
+  <si>
+    <t>61940794</t>
+  </si>
+  <si>
+    <t>04/19/2010</t>
+  </si>
+  <si>
+    <t>Bed bugs in room</t>
+  </si>
+  <si>
+    <t>Stayed for weekend. Thought that I have some kind of allergy. Went to dermatologist - they were insect bites. I think there were bed bugs in my room.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r17479883-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -1531,9 +2107,6 @@
     <t>Great location minutes from major freeways, Orange County (John Wayne) airport, Laguna Beach, hiking/biking trails and plenty of grocery shopping and to-go food.The property is quiet, safe and very clean. It feels like it needs an update - it reminded me of my first apartment (old faux-wood finish cabinets, popcorn/acoustic ceilings, bad old carpet, bad decor, ancient 80's-print shower curtain, 1-ply toilet paper, ancient blow-dryer, etc.). That said, it was VERY clean and I had everything I needed.I had a 3rd floor unit facing north-ish, so felt safe with my window wide open watching the sun set each night. The addition of some candles and decor helped.The kitchen was well-stocked and everything was very clean. I used everything in the kitchen, and the pantry downstairs comes in handy for emergencies. Bring or buy salt and pepper!Overall very good value for the price and a great experience;...but would love to see some updating of the rooms.More</t>
   </si>
   <si>
-    <t>aktraveler70</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r12645823-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
   </si>
   <si>
@@ -1553,9 +2126,6 @@
   </si>
   <si>
     <t>I was in Irvine for over a month on business and stayed at this property.  It was ideal.  The room has plenty of space to get comfortable and make it your home away from home.  The pricing was quite reasonable.  I stayed in a 1 bedroom suite and loved the extra elbow room.  You have a full sized fridge with an ice maker (so you don't have to go down the hall for ice), a microwave and two burner stove (no oven though). It comes equipped with enough cooking utensils to get by relatively comfortably.  You can check out a toaster oven for a day for free or borrow BBQ tools to use on the outdoor gas BBQ for a nice steak dinner.  They have a decent exercise room, videos &amp; DVDs to borrow for free, free laundry facilities and a mini-grocery "store" onsite.  Since it is an extended stay hotel they only have weekly maid service and they don't have someone at the front desk 24 hours a day - however, if you have a problem there is someone you can contact (I never needed to).The front desk staff was very helpful when I was trying to find places in the area.  They happily did searches online and printed directions.  They also gave me some great recommendations for restaurants.If I need to go back to Irvine for work I would definitely plan to stay there again.More</t>
-  </si>
-  <si>
-    <t>Matchalatte1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32596-d78441-r8884756-Candlewood_Suites_Orange_County_Irvine_East-Lake_Forest_California.html</t>
@@ -2083,386 +2653,354 @@
       <c r="A2" t="n">
         <v>5419</v>
       </c>
-      <c r="B2" t="n">
-        <v>160762</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5419</v>
       </c>
-      <c r="B3" t="n">
-        <v>160763</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
       <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5419</v>
       </c>
-      <c r="B4" t="n">
-        <v>1625</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5419</v>
       </c>
-      <c r="B5" t="n">
-        <v>160764</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5419</v>
       </c>
-      <c r="B6" t="n">
-        <v>160765</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5419</v>
       </c>
-      <c r="B7" t="n">
-        <v>160766</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
         <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2470,121 +3008,107 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5419</v>
       </c>
-      <c r="B8" t="n">
-        <v>160767</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5419</v>
       </c>
-      <c r="B9" t="n">
-        <v>160768</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2595,67 +3119,59 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>113</v>
-      </c>
-      <c r="X9" t="s">
-        <v>114</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5419</v>
       </c>
-      <c r="B10" t="n">
-        <v>43084</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -2667,126 +3183,120 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5419</v>
       </c>
-      <c r="B11" t="n">
-        <v>160769</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>132</v>
-      </c>
-      <c r="X11" t="s">
-        <v>133</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5419</v>
       </c>
-      <c r="B12" t="n">
-        <v>160770</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2797,131 +3307,123 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5419</v>
       </c>
-      <c r="B13" t="n">
-        <v>160771</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>123</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>149</v>
-      </c>
-      <c r="X13" t="s">
-        <v>150</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5419</v>
       </c>
-      <c r="B14" t="n">
-        <v>160772</v>
-      </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
       <c r="Q14" t="n">
         <v>4</v>
       </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2929,115 +3431,113 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5419</v>
       </c>
-      <c r="B15" t="n">
-        <v>160773</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5419</v>
       </c>
-      <c r="B16" t="n">
-        <v>160774</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3048,199 +3548,175 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5419</v>
       </c>
-      <c r="B17" t="n">
-        <v>160775</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>123</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>180</v>
-      </c>
-      <c r="X17" t="s">
-        <v>181</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5419</v>
       </c>
-      <c r="B18" t="n">
-        <v>160776</v>
-      </c>
-      <c r="C18" t="s">
-        <v>183</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>180</v>
-      </c>
-      <c r="X18" t="s">
-        <v>181</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5419</v>
       </c>
-      <c r="B19" t="n">
-        <v>57848</v>
-      </c>
-      <c r="C19" t="s">
-        <v>190</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3260,135 +3736,121 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5419</v>
       </c>
-      <c r="B20" t="n">
-        <v>2144</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="X20" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5419</v>
       </c>
-      <c r="B21" t="n">
-        <v>160777</v>
-      </c>
-      <c r="C21" t="s">
-        <v>207</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s">
-        <v>123</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3396,389 +3858,353 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5419</v>
       </c>
-      <c r="B22" t="n">
-        <v>160778</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5419</v>
       </c>
-      <c r="B23" t="n">
-        <v>160779</v>
-      </c>
-      <c r="C23" t="s">
-        <v>221</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>227</v>
-      </c>
-      <c r="X23" t="s">
-        <v>228</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5419</v>
       </c>
-      <c r="B24" t="n">
-        <v>160780</v>
-      </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s">
-        <v>237</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>205</v>
+      </c>
+      <c r="X24" t="s">
+        <v>206</v>
+      </c>
       <c r="Y24" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5419</v>
       </c>
-      <c r="B25" t="n">
-        <v>160781</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>246</v>
-      </c>
-      <c r="X25" t="s">
-        <v>247</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5419</v>
       </c>
-      <c r="B26" t="n">
-        <v>160782</v>
-      </c>
-      <c r="C26" t="s">
-        <v>249</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5419</v>
       </c>
-      <c r="B27" t="n">
-        <v>160783</v>
-      </c>
-      <c r="C27" t="s">
-        <v>257</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3789,363 +4215,315 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>264</v>
-      </c>
-      <c r="X27" t="s">
-        <v>265</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5419</v>
       </c>
-      <c r="B28" t="n">
-        <v>160784</v>
-      </c>
-      <c r="C28" t="s">
-        <v>267</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>263</v>
-      </c>
-      <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>273</v>
-      </c>
-      <c r="X28" t="s">
-        <v>274</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5419</v>
       </c>
-      <c r="B29" t="n">
-        <v>160785</v>
-      </c>
-      <c r="C29" t="s">
-        <v>276</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
+        <v>75</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
         <v>3</v>
       </c>
-      <c r="R29" t="n">
-        <v>2</v>
-      </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="X29" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="Y29" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5419</v>
       </c>
-      <c r="B30" t="n">
-        <v>104129</v>
-      </c>
-      <c r="C30" t="s">
-        <v>286</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>244</v>
+      </c>
+      <c r="O30" t="s">
+        <v>134</v>
+      </c>
       <c r="P30" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5419</v>
       </c>
-      <c r="B31" t="n">
-        <v>160786</v>
-      </c>
-      <c r="C31" t="s">
-        <v>295</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
         <v>4</v>
       </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>236</v>
+      </c>
+      <c r="X31" t="s">
+        <v>237</v>
+      </c>
       <c r="Y31" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5419</v>
       </c>
-      <c r="B32" t="n">
-        <v>110724</v>
-      </c>
-      <c r="C32" t="s">
-        <v>302</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="J32" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s">
-        <v>123</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -4154,142 +4532,124 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>309</v>
-      </c>
-      <c r="X32" t="s">
-        <v>310</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5419</v>
       </c>
-      <c r="B33" t="n">
-        <v>1426</v>
-      </c>
-      <c r="C33" t="s">
-        <v>312</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
+      <c r="N33" t="s">
+        <v>263</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
         <v>3</v>
       </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="X33" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="Y33" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5419</v>
       </c>
-      <c r="B34" t="n">
-        <v>160787</v>
-      </c>
-      <c r="C34" t="s">
-        <v>319</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="J34" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
         <v>5</v>
       </c>
@@ -4303,125 +4663,115 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5419</v>
       </c>
-      <c r="B35" t="n">
-        <v>160788</v>
-      </c>
-      <c r="C35" t="s">
-        <v>326</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="J35" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s">
-        <v>123</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
         <v>3</v>
       </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>278</v>
+      </c>
+      <c r="X35" t="s">
+        <v>279</v>
+      </c>
       <c r="Y35" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5419</v>
       </c>
-      <c r="B36" t="n">
-        <v>160789</v>
-      </c>
-      <c r="C36" t="s">
-        <v>333</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="J36" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="O36" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4429,12 +4779,8 @@
       <c r="Q36" t="n">
         <v>4</v>
       </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>4</v>
@@ -4445,352 +4791,310 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5419</v>
       </c>
-      <c r="B37" t="n">
-        <v>160790</v>
-      </c>
-      <c r="C37" t="s">
-        <v>341</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>348</v>
-      </c>
-      <c r="X37" t="s">
-        <v>349</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5419</v>
       </c>
-      <c r="B38" t="n">
-        <v>160791</v>
-      </c>
-      <c r="C38" t="s">
-        <v>351</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="J38" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="K38" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="O38" t="s">
-        <v>65</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>4</v>
       </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
         <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>358</v>
-      </c>
-      <c r="X38" t="s">
-        <v>359</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5419</v>
       </c>
-      <c r="B39" t="n">
-        <v>160792</v>
-      </c>
-      <c r="C39" t="s">
-        <v>361</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="J39" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5419</v>
       </c>
-      <c r="B40" t="n">
-        <v>160793</v>
-      </c>
-      <c r="C40" t="s">
-        <v>368</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="J40" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="O40" t="s">
-        <v>65</v>
-      </c>
-      <c r="P40" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>307</v>
+      </c>
+      <c r="X40" t="s">
+        <v>308</v>
+      </c>
       <c r="Y40" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5419</v>
       </c>
-      <c r="B41" t="n">
-        <v>160794</v>
-      </c>
-      <c r="C41" t="s">
-        <v>375</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="J41" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="O41" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4798,209 +5102,187 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5419</v>
       </c>
-      <c r="B42" t="n">
-        <v>1124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>383</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="J42" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="K42" t="s">
-        <v>387</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s">
-        <v>388</v>
+        <v>321</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>323</v>
+      </c>
+      <c r="X42" t="s">
+        <v>324</v>
+      </c>
       <c r="Y42" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5419</v>
       </c>
-      <c r="B43" t="n">
-        <v>160795</v>
-      </c>
-      <c r="C43" t="s">
-        <v>390</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>391</v>
+        <v>326</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>392</v>
+        <v>327</v>
       </c>
       <c r="J43" t="s">
-        <v>393</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>396</v>
+        <v>331</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>332</v>
+      </c>
+      <c r="X43" t="s">
+        <v>333</v>
+      </c>
       <c r="Y43" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>5419</v>
       </c>
-      <c r="B44" t="n">
-        <v>160796</v>
-      </c>
-      <c r="C44" t="s">
-        <v>398</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="J44" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="K44" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="L44" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
       </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -5011,70 +5293,62 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5419</v>
       </c>
-      <c r="B45" t="n">
-        <v>160797</v>
-      </c>
-      <c r="C45" t="s">
-        <v>404</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="J45" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="K45" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -5082,216 +5356,198 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>5419</v>
       </c>
-      <c r="B46" t="n">
-        <v>160798</v>
-      </c>
-      <c r="C46" t="s">
-        <v>411</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="J46" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="K46" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="O46" t="s">
-        <v>76</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>2</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>353</v>
+      </c>
+      <c r="X46" t="s">
+        <v>354</v>
+      </c>
       <c r="Y46" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>5419</v>
       </c>
-      <c r="B47" t="n">
-        <v>160799</v>
-      </c>
-      <c r="C47" t="s">
-        <v>417</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="J47" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="K47" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="O47" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
         <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="X47" t="s">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="Y47" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>5419</v>
       </c>
-      <c r="B48" t="n">
-        <v>130057</v>
-      </c>
-      <c r="C48" t="s">
-        <v>427</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="J48" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="K48" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="L48" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
         <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5299,70 +5555,66 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>5419</v>
       </c>
-      <c r="B49" t="n">
-        <v>160800</v>
-      </c>
-      <c r="C49" t="s">
-        <v>434</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="J49" t="s">
-        <v>437</v>
+        <v>372</v>
       </c>
       <c r="K49" t="s">
-        <v>438</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s">
-        <v>439</v>
+        <v>374</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5370,208 +5622,202 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>439</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>5419</v>
       </c>
-      <c r="B50" t="n">
-        <v>160801</v>
-      </c>
-      <c r="C50" t="s">
-        <v>441</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>443</v>
+        <v>378</v>
       </c>
       <c r="J50" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="K50" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="L50" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>375</v>
+      </c>
+      <c r="O50" t="s">
+        <v>75</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
         <v>2</v>
       </c>
-      <c r="N50" t="s">
-        <v>447</v>
-      </c>
-      <c r="O50" t="s">
-        <v>123</v>
-      </c>
-      <c r="P50" t="n">
+      <c r="S50" t="n">
         <v>3</v>
       </c>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>2</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
       <c r="X50" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
       <c r="Y50" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>5419</v>
       </c>
-      <c r="B51" t="n">
-        <v>130057</v>
-      </c>
-      <c r="C51" t="s">
-        <v>427</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="J51" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="K51" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="L51" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s">
-        <v>456</v>
-      </c>
-      <c r="O51" t="s">
-        <v>123</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>390</v>
+      </c>
+      <c r="X51" t="s">
+        <v>391</v>
+      </c>
       <c r="Y51" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>5419</v>
       </c>
-      <c r="B52" t="n">
-        <v>8885</v>
-      </c>
-      <c r="C52" t="s">
-        <v>457</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="J52" t="s">
-        <v>460</v>
+        <v>395</v>
       </c>
       <c r="K52" t="s">
-        <v>461</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>463</v>
+        <v>375</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5579,70 +5825,66 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>464</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>5419</v>
       </c>
-      <c r="B53" t="n">
-        <v>160802</v>
-      </c>
-      <c r="C53" t="s">
-        <v>465</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="J53" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="K53" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
       <c r="L53" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>471</v>
+        <v>369</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5650,66 +5892,62 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>5419</v>
       </c>
-      <c r="B54" t="n">
-        <v>160803</v>
-      </c>
-      <c r="C54" t="s">
-        <v>472</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="J54" t="s">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="K54" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s">
-        <v>477</v>
+        <v>408</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="O54" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
@@ -5718,208 +5956,204 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>409</v>
+      </c>
+      <c r="X54" t="s">
+        <v>410</v>
+      </c>
       <c r="Y54" t="s">
-        <v>479</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>5419</v>
       </c>
-      <c r="B55" t="n">
-        <v>160804</v>
-      </c>
-      <c r="C55" t="s">
-        <v>480</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>481</v>
+        <v>412</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="J55" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="K55" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
       <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>417</v>
+      </c>
+      <c r="O55" t="s">
+        <v>134</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
         <v>1</v>
       </c>
-      <c r="N55" t="s">
-        <v>486</v>
-      </c>
-      <c r="O55" t="s">
-        <v>123</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>418</v>
+      </c>
+      <c r="X55" t="s">
+        <v>419</v>
+      </c>
       <c r="Y55" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>5419</v>
       </c>
-      <c r="B56" t="n">
-        <v>81168</v>
-      </c>
-      <c r="C56" t="s">
-        <v>487</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="J56" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="K56" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
-      <c r="N56" t="s">
-        <v>493</v>
-      </c>
-      <c r="O56" t="s">
-        <v>65</v>
-      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
         <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
         <v>3</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>418</v>
+      </c>
+      <c r="X56" t="s">
+        <v>419</v>
+      </c>
       <c r="Y56" t="s">
-        <v>494</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>5419</v>
       </c>
-      <c r="B57" t="n">
-        <v>160805</v>
-      </c>
-      <c r="C57" t="s">
-        <v>495</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>496</v>
+        <v>427</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="J57" t="s">
-        <v>498</v>
+        <v>429</v>
       </c>
       <c r="K57" t="s">
-        <v>499</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>501</v>
+        <v>417</v>
       </c>
       <c r="O57" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -5934,70 +6168,66 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>5419</v>
       </c>
-      <c r="B58" t="n">
-        <v>160806</v>
-      </c>
-      <c r="C58" t="s">
-        <v>503</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>504</v>
+        <v>433</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>505</v>
+        <v>434</v>
       </c>
       <c r="J58" t="s">
-        <v>506</v>
+        <v>435</v>
       </c>
       <c r="K58" t="s">
-        <v>507</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s">
-        <v>508</v>
+        <v>437</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>509</v>
+        <v>438</v>
       </c>
       <c r="O58" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -6005,7 +6235,2626 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>439</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>440</v>
+      </c>
+      <c r="J59" t="s">
+        <v>441</v>
+      </c>
+      <c r="K59" t="s">
+        <v>442</v>
+      </c>
+      <c r="L59" t="s">
+        <v>443</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>438</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>444</v>
+      </c>
+      <c r="X59" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>447</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>448</v>
+      </c>
+      <c r="J60" t="s">
+        <v>449</v>
+      </c>
+      <c r="K60" t="s">
+        <v>450</v>
+      </c>
+      <c r="L60" t="s">
+        <v>451</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>438</v>
+      </c>
+      <c r="O60" t="s">
+        <v>134</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>452</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>453</v>
+      </c>
+      <c r="J61" t="s">
+        <v>454</v>
+      </c>
+      <c r="K61" t="s">
+        <v>455</v>
+      </c>
+      <c r="L61" t="s">
+        <v>456</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>457</v>
+      </c>
+      <c r="O61" t="s">
+        <v>134</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>459</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>460</v>
+      </c>
+      <c r="J62" t="s">
+        <v>461</v>
+      </c>
+      <c r="K62" t="s">
+        <v>462</v>
+      </c>
+      <c r="L62" t="s">
+        <v>463</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>464</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>465</v>
+      </c>
+      <c r="X62" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>468</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>469</v>
+      </c>
+      <c r="J63" t="s">
+        <v>470</v>
+      </c>
+      <c r="K63" t="s">
+        <v>471</v>
+      </c>
+      <c r="L63" t="s">
+        <v>472</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>464</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>473</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>474</v>
+      </c>
+      <c r="J64" t="s">
+        <v>475</v>
+      </c>
+      <c r="K64" t="s">
+        <v>476</v>
+      </c>
+      <c r="L64" t="s">
+        <v>477</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>478</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>479</v>
+      </c>
+      <c r="X64" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>483</v>
+      </c>
+      <c r="J65" t="s">
+        <v>484</v>
+      </c>
+      <c r="K65" t="s">
+        <v>485</v>
+      </c>
+      <c r="L65" t="s">
+        <v>486</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>478</v>
+      </c>
+      <c r="O65" t="s">
+        <v>82</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>487</v>
+      </c>
+      <c r="X65" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>490</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>491</v>
+      </c>
+      <c r="J66" t="s">
+        <v>492</v>
+      </c>
+      <c r="K66" t="s">
+        <v>493</v>
+      </c>
+      <c r="L66" t="s">
+        <v>494</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>478</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>496</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>497</v>
+      </c>
+      <c r="J67" t="s">
+        <v>498</v>
+      </c>
+      <c r="K67" t="s">
+        <v>499</v>
+      </c>
+      <c r="L67" t="s">
+        <v>500</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>501</v>
+      </c>
+      <c r="O67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>502</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>503</v>
+      </c>
+      <c r="J68" t="s">
+        <v>504</v>
+      </c>
+      <c r="K68" t="s">
+        <v>505</v>
+      </c>
+      <c r="L68" t="s">
+        <v>506</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>507</v>
+      </c>
+      <c r="O68" t="s">
+        <v>75</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>508</v>
+      </c>
+      <c r="X68" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y68" t="s">
         <v>510</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>511</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>512</v>
+      </c>
+      <c r="J69" t="s">
+        <v>513</v>
+      </c>
+      <c r="K69" t="s">
+        <v>514</v>
+      </c>
+      <c r="L69" t="s">
+        <v>515</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>507</v>
+      </c>
+      <c r="O69" t="s">
+        <v>75</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>517</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>518</v>
+      </c>
+      <c r="J70" t="s">
+        <v>519</v>
+      </c>
+      <c r="K70" t="s">
+        <v>520</v>
+      </c>
+      <c r="L70" t="s">
+        <v>521</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>507</v>
+      </c>
+      <c r="O70" t="s">
+        <v>75</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>523</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>524</v>
+      </c>
+      <c r="J71" t="s">
+        <v>525</v>
+      </c>
+      <c r="K71" t="s">
+        <v>526</v>
+      </c>
+      <c r="L71" t="s">
+        <v>527</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>528</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>529</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>530</v>
+      </c>
+      <c r="J72" t="s">
+        <v>531</v>
+      </c>
+      <c r="K72" t="s">
+        <v>532</v>
+      </c>
+      <c r="L72" t="s">
+        <v>533</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>534</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>536</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>537</v>
+      </c>
+      <c r="J73" t="s">
+        <v>538</v>
+      </c>
+      <c r="K73" t="s">
+        <v>539</v>
+      </c>
+      <c r="L73" t="s">
+        <v>540</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>541</v>
+      </c>
+      <c r="X73" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>544</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>545</v>
+      </c>
+      <c r="J74" t="s">
+        <v>546</v>
+      </c>
+      <c r="K74" t="s">
+        <v>547</v>
+      </c>
+      <c r="L74" t="s">
+        <v>548</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>534</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>549</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>550</v>
+      </c>
+      <c r="J75" t="s">
+        <v>551</v>
+      </c>
+      <c r="K75" t="s">
+        <v>552</v>
+      </c>
+      <c r="L75" t="s">
+        <v>553</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>534</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>554</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>555</v>
+      </c>
+      <c r="J76" t="s">
+        <v>556</v>
+      </c>
+      <c r="K76" t="s">
+        <v>557</v>
+      </c>
+      <c r="L76" t="s">
+        <v>558</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>559</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>560</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>561</v>
+      </c>
+      <c r="J77" t="s">
+        <v>562</v>
+      </c>
+      <c r="K77" t="s">
+        <v>563</v>
+      </c>
+      <c r="L77" t="s">
+        <v>564</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>559</v>
+      </c>
+      <c r="O77" t="s">
+        <v>75</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>565</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>566</v>
+      </c>
+      <c r="J78" t="s">
+        <v>567</v>
+      </c>
+      <c r="K78" t="s">
+        <v>568</v>
+      </c>
+      <c r="L78" t="s">
+        <v>569</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>570</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>571</v>
+      </c>
+      <c r="J79" t="s">
+        <v>572</v>
+      </c>
+      <c r="K79" t="s">
+        <v>573</v>
+      </c>
+      <c r="L79" t="s">
+        <v>574</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>575</v>
+      </c>
+      <c r="O79" t="s">
+        <v>134</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>576</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>577</v>
+      </c>
+      <c r="J80" t="s">
+        <v>578</v>
+      </c>
+      <c r="K80" t="s">
+        <v>579</v>
+      </c>
+      <c r="L80" t="s">
+        <v>580</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>581</v>
+      </c>
+      <c r="O80" t="s">
+        <v>75</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>582</v>
+      </c>
+      <c r="X80" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>585</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>586</v>
+      </c>
+      <c r="J81" t="s">
+        <v>587</v>
+      </c>
+      <c r="K81" t="s">
+        <v>588</v>
+      </c>
+      <c r="L81" t="s">
+        <v>589</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>590</v>
+      </c>
+      <c r="O81" t="s">
+        <v>134</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>591</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>592</v>
+      </c>
+      <c r="J82" t="s">
+        <v>593</v>
+      </c>
+      <c r="K82" t="s">
+        <v>594</v>
+      </c>
+      <c r="L82" t="s">
+        <v>595</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>596</v>
+      </c>
+      <c r="O82" t="s">
+        <v>75</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>597</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>598</v>
+      </c>
+      <c r="J83" t="s">
+        <v>599</v>
+      </c>
+      <c r="K83" t="s">
+        <v>600</v>
+      </c>
+      <c r="L83" t="s">
+        <v>601</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>596</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>603</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>604</v>
+      </c>
+      <c r="J84" t="s">
+        <v>605</v>
+      </c>
+      <c r="K84" t="s">
+        <v>606</v>
+      </c>
+      <c r="L84" t="s">
+        <v>607</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>590</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>608</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>609</v>
+      </c>
+      <c r="J85" t="s">
+        <v>610</v>
+      </c>
+      <c r="K85" t="s">
+        <v>611</v>
+      </c>
+      <c r="L85" t="s">
+        <v>612</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>613</v>
+      </c>
+      <c r="O85" t="s">
+        <v>134</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>614</v>
+      </c>
+      <c r="X85" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>617</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>618</v>
+      </c>
+      <c r="J86" t="s">
+        <v>619</v>
+      </c>
+      <c r="K86" t="s">
+        <v>620</v>
+      </c>
+      <c r="L86" t="s">
+        <v>621</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>622</v>
+      </c>
+      <c r="O86" t="s">
+        <v>134</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>623</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>624</v>
+      </c>
+      <c r="J87" t="s">
+        <v>625</v>
+      </c>
+      <c r="K87" t="s">
+        <v>626</v>
+      </c>
+      <c r="L87" t="s">
+        <v>627</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>628</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>630</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>631</v>
+      </c>
+      <c r="J88" t="s">
+        <v>632</v>
+      </c>
+      <c r="K88" t="s">
+        <v>633</v>
+      </c>
+      <c r="L88" t="s">
+        <v>634</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>635</v>
+      </c>
+      <c r="O88" t="s">
+        <v>75</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>637</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>638</v>
+      </c>
+      <c r="J89" t="s">
+        <v>639</v>
+      </c>
+      <c r="K89" t="s">
+        <v>640</v>
+      </c>
+      <c r="L89" t="s">
+        <v>641</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>635</v>
+      </c>
+      <c r="O89" t="s">
+        <v>134</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>642</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>643</v>
+      </c>
+      <c r="J90" t="s">
+        <v>644</v>
+      </c>
+      <c r="K90" t="s">
+        <v>645</v>
+      </c>
+      <c r="L90" t="s">
+        <v>646</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>647</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>648</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>649</v>
+      </c>
+      <c r="J91" t="s">
+        <v>650</v>
+      </c>
+      <c r="K91" t="s">
+        <v>651</v>
+      </c>
+      <c r="L91" t="s">
+        <v>652</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>653</v>
+      </c>
+      <c r="O91" t="s">
+        <v>75</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>655</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>656</v>
+      </c>
+      <c r="J92" t="s">
+        <v>657</v>
+      </c>
+      <c r="K92" t="s">
+        <v>658</v>
+      </c>
+      <c r="L92" t="s">
+        <v>659</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>660</v>
+      </c>
+      <c r="O92" t="s">
+        <v>134</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>661</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>662</v>
+      </c>
+      <c r="J93" t="s">
+        <v>663</v>
+      </c>
+      <c r="K93" t="s">
+        <v>664</v>
+      </c>
+      <c r="L93" t="s">
+        <v>665</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>666</v>
+      </c>
+      <c r="O93" t="s">
+        <v>134</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>668</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>669</v>
+      </c>
+      <c r="J94" t="s">
+        <v>670</v>
+      </c>
+      <c r="K94" t="s">
+        <v>671</v>
+      </c>
+      <c r="L94" t="s">
+        <v>672</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>673</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>674</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>675</v>
+      </c>
+      <c r="J95" t="s">
+        <v>676</v>
+      </c>
+      <c r="K95" t="s">
+        <v>677</v>
+      </c>
+      <c r="L95" t="s">
+        <v>678</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>679</v>
+      </c>
+      <c r="O95" t="s">
+        <v>82</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>681</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>682</v>
+      </c>
+      <c r="J96" t="s">
+        <v>683</v>
+      </c>
+      <c r="K96" t="s">
+        <v>684</v>
+      </c>
+      <c r="L96" t="s">
+        <v>685</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>686</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5419</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>688</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>689</v>
+      </c>
+      <c r="J97" t="s">
+        <v>690</v>
+      </c>
+      <c r="K97" t="s">
+        <v>691</v>
+      </c>
+      <c r="L97" t="s">
+        <v>692</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>693</v>
+      </c>
+      <c r="O97" t="s">
+        <v>75</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
